--- a/BackTest/2020-01-22 BackTest ETH.xlsx
+++ b/BackTest/2020-01-22 BackTest ETH.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -9130,7 +9130,7 @@
         <v>402.2229603076125</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>402.2229603076125</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>402.2229603076125</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>665.1845603076125</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>692.4955603076125</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>692.4955603076125</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>692.4955603076125</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>735.7689603076126</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>752.8120603076126</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>811.9845603076126</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>828.4067607756313</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>828.4067607756313</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>824.10446124365</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>866.94426124365</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>866.94426124365</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>726.2417857100737</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>574.8612857100737</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>516.3177857100737</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>508.4278857100737</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>561.1315857100738</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>561.0037857100738</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>449.9786274159869</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>451.0772274159869</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>454.2184144772755</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>431.4984144772756</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>433.0271144772756</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>364.4226120638443</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>410.7526120638443</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>359.1543797234176</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>359.1543797234176</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>359.1543797234176</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -14311,7 +14311,7 @@
         <v>131.9562789490338</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14344,7 +14344,7 @@
         <v>131.9562789490338</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
         <v>135.6533789490338</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14476,7 +14476,7 @@
         <v>135.2089789490338</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -15433,7 +15433,7 @@
         <v>363.5046270959605</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15466,7 +15466,7 @@
         <v>363.5046270959605</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -15499,7 +15499,7 @@
         <v>363.5046270959605</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
         <v>363.5046270959605</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -15565,7 +15565,7 @@
         <v>406.3888270959605</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -15598,7 +15598,7 @@
         <v>406.3888270959605</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -15631,7 +15631,7 @@
         <v>406.3888270959605</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -15664,7 +15664,7 @@
         <v>415.7855270959605</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
         <v>415.7855270959605</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -15730,7 +15730,7 @@
         <v>415.0524270959605</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -15763,7 +15763,7 @@
         <v>65.42222709596052</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -15796,7 +15796,7 @@
         <v>67.43342709596052</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -15829,7 +15829,7 @@
         <v>56.43592709596052</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
         <v>44.68232709596052</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -15895,7 +15895,7 @@
         <v>44.68232709596052</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -15928,7 +15928,7 @@
         <v>44.68232709596052</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -17941,7 +17941,7 @@
         <v>-46827.77253150597</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -17974,7 +17974,7 @@
         <v>-46827.77253150597</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -18073,7 +18073,7 @@
         <v>-46840.93223150597</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18106,7 +18106,7 @@
         <v>-46819.50793150597</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -18139,7 +18139,7 @@
         <v>-46819.50793150597</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -18172,7 +18172,7 @@
         <v>-46804.17943150597</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -18205,7 +18205,7 @@
         <v>-46804.17943150597</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -18238,7 +18238,7 @@
         <v>-46807.86700393783</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -18271,7 +18271,7 @@
         <v>-46807.52120393783</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -18304,7 +18304,7 @@
         <v>-46809.33760393783</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -19558,14 +19558,10 @@
         <v>-46601.14645406343</v>
       </c>
       <c r="H581" t="n">
-        <v>1</v>
-      </c>
-      <c r="I581" t="n">
-        <v>191500</v>
-      </c>
-      <c r="J581" t="n">
-        <v>191500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I581" t="inlineStr"/>
+      <c r="J581" t="inlineStr"/>
       <c r="K581" t="inlineStr"/>
       <c r="L581" t="n">
         <v>1</v>
@@ -19595,1754 +19591,1440 @@
         <v>-46588.92125406343</v>
       </c>
       <c r="H582" t="n">
-        <v>1</v>
-      </c>
-      <c r="I582" t="n">
+        <v>0</v>
+      </c>
+      <c r="I582" t="inlineStr"/>
+      <c r="J582" t="inlineStr"/>
+      <c r="K582" t="inlineStr"/>
+      <c r="L582" t="n">
+        <v>1</v>
+      </c>
+      <c r="M582" t="inlineStr"/>
+    </row>
+    <row r="583">
+      <c r="A583" s="1" t="n">
+        <v>581</v>
+      </c>
+      <c r="B583" t="n">
+        <v>191500</v>
+      </c>
+      <c r="C583" t="n">
+        <v>191500</v>
+      </c>
+      <c r="D583" t="n">
+        <v>191500</v>
+      </c>
+      <c r="E583" t="n">
+        <v>191400</v>
+      </c>
+      <c r="F583" t="n">
+        <v>12.0039</v>
+      </c>
+      <c r="G583" t="n">
+        <v>-46576.91735406343</v>
+      </c>
+      <c r="H583" t="n">
+        <v>0</v>
+      </c>
+      <c r="I583" t="inlineStr"/>
+      <c r="J583" t="inlineStr"/>
+      <c r="K583" t="inlineStr"/>
+      <c r="L583" t="n">
+        <v>1</v>
+      </c>
+      <c r="M583" t="inlineStr"/>
+    </row>
+    <row r="584">
+      <c r="A584" s="1" t="n">
+        <v>582</v>
+      </c>
+      <c r="B584" t="n">
+        <v>191500</v>
+      </c>
+      <c r="C584" t="n">
+        <v>191700</v>
+      </c>
+      <c r="D584" t="n">
+        <v>191700</v>
+      </c>
+      <c r="E584" t="n">
+        <v>191500</v>
+      </c>
+      <c r="F584" t="n">
+        <v>186.7480984334204</v>
+      </c>
+      <c r="G584" t="n">
+        <v>-46390.16925563001</v>
+      </c>
+      <c r="H584" t="n">
+        <v>0</v>
+      </c>
+      <c r="I584" t="inlineStr"/>
+      <c r="J584" t="inlineStr"/>
+      <c r="K584" t="inlineStr"/>
+      <c r="L584" t="n">
+        <v>1</v>
+      </c>
+      <c r="M584" t="inlineStr"/>
+    </row>
+    <row r="585">
+      <c r="A585" s="1" t="n">
+        <v>583</v>
+      </c>
+      <c r="B585" t="n">
+        <v>191600</v>
+      </c>
+      <c r="C585" t="n">
+        <v>191300</v>
+      </c>
+      <c r="D585" t="n">
+        <v>191600</v>
+      </c>
+      <c r="E585" t="n">
+        <v>191300</v>
+      </c>
+      <c r="F585" t="n">
+        <v>25.7841</v>
+      </c>
+      <c r="G585" t="n">
+        <v>-46415.95335563001</v>
+      </c>
+      <c r="H585" t="n">
+        <v>0</v>
+      </c>
+      <c r="I585" t="inlineStr"/>
+      <c r="J585" t="inlineStr"/>
+      <c r="K585" t="inlineStr"/>
+      <c r="L585" t="n">
+        <v>1</v>
+      </c>
+      <c r="M585" t="inlineStr"/>
+    </row>
+    <row r="586">
+      <c r="A586" s="1" t="n">
+        <v>584</v>
+      </c>
+      <c r="B586" t="n">
+        <v>191500</v>
+      </c>
+      <c r="C586" t="n">
+        <v>191500</v>
+      </c>
+      <c r="D586" t="n">
+        <v>191500</v>
+      </c>
+      <c r="E586" t="n">
+        <v>191500</v>
+      </c>
+      <c r="F586" t="n">
+        <v>42.5544</v>
+      </c>
+      <c r="G586" t="n">
+        <v>-46373.39895563001</v>
+      </c>
+      <c r="H586" t="n">
+        <v>0</v>
+      </c>
+      <c r="I586" t="inlineStr"/>
+      <c r="J586" t="inlineStr"/>
+      <c r="K586" t="inlineStr"/>
+      <c r="L586" t="n">
+        <v>1</v>
+      </c>
+      <c r="M586" t="inlineStr"/>
+    </row>
+    <row r="587">
+      <c r="A587" s="1" t="n">
+        <v>585</v>
+      </c>
+      <c r="B587" t="n">
+        <v>191500</v>
+      </c>
+      <c r="C587" t="n">
+        <v>191600</v>
+      </c>
+      <c r="D587" t="n">
+        <v>191600</v>
+      </c>
+      <c r="E587" t="n">
+        <v>191300</v>
+      </c>
+      <c r="F587" t="n">
+        <v>12.7684</v>
+      </c>
+      <c r="G587" t="n">
+        <v>-46360.63055563001</v>
+      </c>
+      <c r="H587" t="n">
+        <v>0</v>
+      </c>
+      <c r="I587" t="inlineStr"/>
+      <c r="J587" t="inlineStr"/>
+      <c r="K587" t="inlineStr"/>
+      <c r="L587" t="n">
+        <v>1</v>
+      </c>
+      <c r="M587" t="inlineStr"/>
+    </row>
+    <row r="588">
+      <c r="A588" s="1" t="n">
+        <v>586</v>
+      </c>
+      <c r="B588" t="n">
+        <v>191400</v>
+      </c>
+      <c r="C588" t="n">
+        <v>191500</v>
+      </c>
+      <c r="D588" t="n">
+        <v>191500</v>
+      </c>
+      <c r="E588" t="n">
+        <v>191400</v>
+      </c>
+      <c r="F588" t="n">
+        <v>1.0022</v>
+      </c>
+      <c r="G588" t="n">
+        <v>-46361.63275563001</v>
+      </c>
+      <c r="H588" t="n">
+        <v>0</v>
+      </c>
+      <c r="I588" t="inlineStr"/>
+      <c r="J588" t="inlineStr"/>
+      <c r="K588" t="inlineStr"/>
+      <c r="L588" t="n">
+        <v>1</v>
+      </c>
+      <c r="M588" t="inlineStr"/>
+    </row>
+    <row r="589">
+      <c r="A589" s="1" t="n">
+        <v>587</v>
+      </c>
+      <c r="B589" t="n">
+        <v>191500</v>
+      </c>
+      <c r="C589" t="n">
+        <v>191500</v>
+      </c>
+      <c r="D589" t="n">
+        <v>191600</v>
+      </c>
+      <c r="E589" t="n">
+        <v>191500</v>
+      </c>
+      <c r="F589" t="n">
+        <v>24.0861</v>
+      </c>
+      <c r="G589" t="n">
+        <v>-46361.63275563001</v>
+      </c>
+      <c r="H589" t="n">
+        <v>0</v>
+      </c>
+      <c r="I589" t="inlineStr"/>
+      <c r="J589" t="inlineStr"/>
+      <c r="K589" t="inlineStr"/>
+      <c r="L589" t="n">
+        <v>1</v>
+      </c>
+      <c r="M589" t="inlineStr"/>
+    </row>
+    <row r="590">
+      <c r="A590" s="1" t="n">
+        <v>588</v>
+      </c>
+      <c r="B590" t="n">
+        <v>191600</v>
+      </c>
+      <c r="C590" t="n">
+        <v>191500</v>
+      </c>
+      <c r="D590" t="n">
+        <v>191600</v>
+      </c>
+      <c r="E590" t="n">
+        <v>191500</v>
+      </c>
+      <c r="F590" t="n">
+        <v>38.7169</v>
+      </c>
+      <c r="G590" t="n">
+        <v>-46361.63275563001</v>
+      </c>
+      <c r="H590" t="n">
+        <v>0</v>
+      </c>
+      <c r="I590" t="inlineStr"/>
+      <c r="J590" t="inlineStr"/>
+      <c r="K590" t="inlineStr"/>
+      <c r="L590" t="n">
+        <v>1</v>
+      </c>
+      <c r="M590" t="inlineStr"/>
+    </row>
+    <row r="591">
+      <c r="A591" s="1" t="n">
+        <v>589</v>
+      </c>
+      <c r="B591" t="n">
+        <v>191500</v>
+      </c>
+      <c r="C591" t="n">
+        <v>191400</v>
+      </c>
+      <c r="D591" t="n">
+        <v>191500</v>
+      </c>
+      <c r="E591" t="n">
+        <v>191400</v>
+      </c>
+      <c r="F591" t="n">
+        <v>8.0456</v>
+      </c>
+      <c r="G591" t="n">
+        <v>-46369.67835563001</v>
+      </c>
+      <c r="H591" t="n">
+        <v>0</v>
+      </c>
+      <c r="I591" t="inlineStr"/>
+      <c r="J591" t="inlineStr"/>
+      <c r="K591" t="inlineStr"/>
+      <c r="L591" t="n">
+        <v>1</v>
+      </c>
+      <c r="M591" t="inlineStr"/>
+    </row>
+    <row r="592">
+      <c r="A592" s="1" t="n">
+        <v>590</v>
+      </c>
+      <c r="B592" t="n">
+        <v>191500</v>
+      </c>
+      <c r="C592" t="n">
+        <v>191500</v>
+      </c>
+      <c r="D592" t="n">
+        <v>191500</v>
+      </c>
+      <c r="E592" t="n">
+        <v>191500</v>
+      </c>
+      <c r="F592" t="n">
+        <v>16.0936</v>
+      </c>
+      <c r="G592" t="n">
+        <v>-46353.58475563001</v>
+      </c>
+      <c r="H592" t="n">
+        <v>0</v>
+      </c>
+      <c r="I592" t="inlineStr"/>
+      <c r="J592" t="inlineStr"/>
+      <c r="K592" t="inlineStr"/>
+      <c r="L592" t="n">
+        <v>1</v>
+      </c>
+      <c r="M592" t="inlineStr"/>
+    </row>
+    <row r="593">
+      <c r="A593" s="1" t="n">
+        <v>591</v>
+      </c>
+      <c r="B593" t="n">
+        <v>191500</v>
+      </c>
+      <c r="C593" t="n">
+        <v>191400</v>
+      </c>
+      <c r="D593" t="n">
+        <v>191500</v>
+      </c>
+      <c r="E593" t="n">
+        <v>191400</v>
+      </c>
+      <c r="F593" t="n">
+        <v>5</v>
+      </c>
+      <c r="G593" t="n">
+        <v>-46358.58475563001</v>
+      </c>
+      <c r="H593" t="n">
+        <v>0</v>
+      </c>
+      <c r="I593" t="inlineStr"/>
+      <c r="J593" t="inlineStr"/>
+      <c r="K593" t="inlineStr"/>
+      <c r="L593" t="n">
+        <v>1</v>
+      </c>
+      <c r="M593" t="inlineStr"/>
+    </row>
+    <row r="594">
+      <c r="A594" s="1" t="n">
+        <v>592</v>
+      </c>
+      <c r="B594" t="n">
+        <v>191600</v>
+      </c>
+      <c r="C594" t="n">
+        <v>191600</v>
+      </c>
+      <c r="D594" t="n">
+        <v>191600</v>
+      </c>
+      <c r="E594" t="n">
+        <v>191600</v>
+      </c>
+      <c r="F594" t="n">
+        <v>0.4989</v>
+      </c>
+      <c r="G594" t="n">
+        <v>-46358.08585563001</v>
+      </c>
+      <c r="H594" t="n">
+        <v>0</v>
+      </c>
+      <c r="I594" t="inlineStr"/>
+      <c r="J594" t="inlineStr"/>
+      <c r="K594" t="inlineStr"/>
+      <c r="L594" t="n">
+        <v>1</v>
+      </c>
+      <c r="M594" t="inlineStr"/>
+    </row>
+    <row r="595">
+      <c r="A595" s="1" t="n">
+        <v>593</v>
+      </c>
+      <c r="B595" t="n">
+        <v>191600</v>
+      </c>
+      <c r="C595" t="n">
+        <v>191600</v>
+      </c>
+      <c r="D595" t="n">
+        <v>191600</v>
+      </c>
+      <c r="E595" t="n">
+        <v>191600</v>
+      </c>
+      <c r="F595" t="n">
+        <v>17.4737</v>
+      </c>
+      <c r="G595" t="n">
+        <v>-46358.08585563001</v>
+      </c>
+      <c r="H595" t="n">
+        <v>0</v>
+      </c>
+      <c r="I595" t="inlineStr"/>
+      <c r="J595" t="inlineStr"/>
+      <c r="K595" t="inlineStr"/>
+      <c r="L595" t="n">
+        <v>1</v>
+      </c>
+      <c r="M595" t="inlineStr"/>
+    </row>
+    <row r="596">
+      <c r="A596" s="1" t="n">
+        <v>594</v>
+      </c>
+      <c r="B596" t="n">
+        <v>191600</v>
+      </c>
+      <c r="C596" t="n">
+        <v>191700</v>
+      </c>
+      <c r="D596" t="n">
+        <v>191700</v>
+      </c>
+      <c r="E596" t="n">
+        <v>191600</v>
+      </c>
+      <c r="F596" t="n">
+        <v>5.0087</v>
+      </c>
+      <c r="G596" t="n">
+        <v>-46353.07715563001</v>
+      </c>
+      <c r="H596" t="n">
+        <v>0</v>
+      </c>
+      <c r="I596" t="inlineStr"/>
+      <c r="J596" t="inlineStr"/>
+      <c r="K596" t="inlineStr"/>
+      <c r="L596" t="n">
+        <v>1</v>
+      </c>
+      <c r="M596" t="inlineStr"/>
+    </row>
+    <row r="597">
+      <c r="A597" s="1" t="n">
+        <v>595</v>
+      </c>
+      <c r="B597" t="n">
+        <v>191500</v>
+      </c>
+      <c r="C597" t="n">
+        <v>191700</v>
+      </c>
+      <c r="D597" t="n">
+        <v>191700</v>
+      </c>
+      <c r="E597" t="n">
+        <v>191500</v>
+      </c>
+      <c r="F597" t="n">
+        <v>1.2302</v>
+      </c>
+      <c r="G597" t="n">
+        <v>-46353.07715563001</v>
+      </c>
+      <c r="H597" t="n">
+        <v>0</v>
+      </c>
+      <c r="I597" t="inlineStr"/>
+      <c r="J597" t="inlineStr"/>
+      <c r="K597" t="inlineStr"/>
+      <c r="L597" t="n">
+        <v>1</v>
+      </c>
+      <c r="M597" t="inlineStr"/>
+    </row>
+    <row r="598">
+      <c r="A598" s="1" t="n">
+        <v>596</v>
+      </c>
+      <c r="B598" t="n">
+        <v>191700</v>
+      </c>
+      <c r="C598" t="n">
+        <v>191400</v>
+      </c>
+      <c r="D598" t="n">
+        <v>191900</v>
+      </c>
+      <c r="E598" t="n">
+        <v>191400</v>
+      </c>
+      <c r="F598" t="n">
+        <v>34.81966612819177</v>
+      </c>
+      <c r="G598" t="n">
+        <v>-46387.8968217582</v>
+      </c>
+      <c r="H598" t="n">
+        <v>0</v>
+      </c>
+      <c r="I598" t="inlineStr"/>
+      <c r="J598" t="inlineStr"/>
+      <c r="K598" t="inlineStr"/>
+      <c r="L598" t="n">
+        <v>1</v>
+      </c>
+      <c r="M598" t="inlineStr"/>
+    </row>
+    <row r="599">
+      <c r="A599" s="1" t="n">
+        <v>597</v>
+      </c>
+      <c r="B599" t="n">
+        <v>191500</v>
+      </c>
+      <c r="C599" t="n">
+        <v>191400</v>
+      </c>
+      <c r="D599" t="n">
+        <v>191500</v>
+      </c>
+      <c r="E599" t="n">
+        <v>191400</v>
+      </c>
+      <c r="F599" t="n">
+        <v>1.2718</v>
+      </c>
+      <c r="G599" t="n">
+        <v>-46387.8968217582</v>
+      </c>
+      <c r="H599" t="n">
+        <v>0</v>
+      </c>
+      <c r="I599" t="inlineStr"/>
+      <c r="J599" t="inlineStr"/>
+      <c r="K599" t="inlineStr"/>
+      <c r="L599" t="n">
+        <v>1</v>
+      </c>
+      <c r="M599" t="inlineStr"/>
+    </row>
+    <row r="600">
+      <c r="A600" s="1" t="n">
+        <v>598</v>
+      </c>
+      <c r="B600" t="n">
+        <v>191400</v>
+      </c>
+      <c r="C600" t="n">
+        <v>191400</v>
+      </c>
+      <c r="D600" t="n">
+        <v>191400</v>
+      </c>
+      <c r="E600" t="n">
+        <v>191400</v>
+      </c>
+      <c r="F600" t="n">
+        <v>18</v>
+      </c>
+      <c r="G600" t="n">
+        <v>-46387.8968217582</v>
+      </c>
+      <c r="H600" t="n">
+        <v>0</v>
+      </c>
+      <c r="I600" t="inlineStr"/>
+      <c r="J600" t="inlineStr"/>
+      <c r="K600" t="inlineStr"/>
+      <c r="L600" t="n">
+        <v>1</v>
+      </c>
+      <c r="M600" t="inlineStr"/>
+    </row>
+    <row r="601">
+      <c r="A601" s="1" t="n">
+        <v>599</v>
+      </c>
+      <c r="B601" t="n">
+        <v>191500</v>
+      </c>
+      <c r="C601" t="n">
+        <v>191500</v>
+      </c>
+      <c r="D601" t="n">
+        <v>191500</v>
+      </c>
+      <c r="E601" t="n">
+        <v>191500</v>
+      </c>
+      <c r="F601" t="n">
+        <v>31.70869973890339</v>
+      </c>
+      <c r="G601" t="n">
+        <v>-46356.1881220193</v>
+      </c>
+      <c r="H601" t="n">
+        <v>0</v>
+      </c>
+      <c r="I601" t="inlineStr"/>
+      <c r="J601" t="inlineStr"/>
+      <c r="K601" t="inlineStr"/>
+      <c r="L601" t="n">
+        <v>1</v>
+      </c>
+      <c r="M601" t="inlineStr"/>
+    </row>
+    <row r="602">
+      <c r="A602" s="1" t="n">
+        <v>600</v>
+      </c>
+      <c r="B602" t="n">
+        <v>191500</v>
+      </c>
+      <c r="C602" t="n">
+        <v>191500</v>
+      </c>
+      <c r="D602" t="n">
+        <v>191500</v>
+      </c>
+      <c r="E602" t="n">
+        <v>191500</v>
+      </c>
+      <c r="F602" t="n">
+        <v>6.9698</v>
+      </c>
+      <c r="G602" t="n">
+        <v>-46356.1881220193</v>
+      </c>
+      <c r="H602" t="n">
+        <v>0</v>
+      </c>
+      <c r="I602" t="inlineStr"/>
+      <c r="J602" t="inlineStr"/>
+      <c r="K602" t="inlineStr"/>
+      <c r="L602" t="n">
+        <v>1</v>
+      </c>
+      <c r="M602" t="inlineStr"/>
+    </row>
+    <row r="603">
+      <c r="A603" s="1" t="n">
+        <v>601</v>
+      </c>
+      <c r="B603" t="n">
+        <v>191500</v>
+      </c>
+      <c r="C603" t="n">
+        <v>191500</v>
+      </c>
+      <c r="D603" t="n">
+        <v>191500</v>
+      </c>
+      <c r="E603" t="n">
+        <v>191500</v>
+      </c>
+      <c r="F603" t="n">
+        <v>3.619000261096606</v>
+      </c>
+      <c r="G603" t="n">
+        <v>-46356.1881220193</v>
+      </c>
+      <c r="H603" t="n">
+        <v>0</v>
+      </c>
+      <c r="I603" t="inlineStr"/>
+      <c r="J603" t="inlineStr"/>
+      <c r="K603" t="inlineStr"/>
+      <c r="L603" t="n">
+        <v>1</v>
+      </c>
+      <c r="M603" t="inlineStr"/>
+    </row>
+    <row r="604">
+      <c r="A604" s="1" t="n">
+        <v>602</v>
+      </c>
+      <c r="B604" t="n">
+        <v>191500</v>
+      </c>
+      <c r="C604" t="n">
+        <v>191500</v>
+      </c>
+      <c r="D604" t="n">
+        <v>191500</v>
+      </c>
+      <c r="E604" t="n">
+        <v>191500</v>
+      </c>
+      <c r="F604" t="n">
+        <v>3.6573</v>
+      </c>
+      <c r="G604" t="n">
+        <v>-46356.1881220193</v>
+      </c>
+      <c r="H604" t="n">
+        <v>0</v>
+      </c>
+      <c r="I604" t="inlineStr"/>
+      <c r="J604" t="inlineStr"/>
+      <c r="K604" t="inlineStr"/>
+      <c r="L604" t="n">
+        <v>1</v>
+      </c>
+      <c r="M604" t="inlineStr"/>
+    </row>
+    <row r="605">
+      <c r="A605" s="1" t="n">
+        <v>603</v>
+      </c>
+      <c r="B605" t="n">
+        <v>191400</v>
+      </c>
+      <c r="C605" t="n">
+        <v>191600</v>
+      </c>
+      <c r="D605" t="n">
+        <v>191600</v>
+      </c>
+      <c r="E605" t="n">
+        <v>191400</v>
+      </c>
+      <c r="F605" t="n">
+        <v>3.954020668058455</v>
+      </c>
+      <c r="G605" t="n">
+        <v>-46352.23410135123</v>
+      </c>
+      <c r="H605" t="n">
+        <v>0</v>
+      </c>
+      <c r="I605" t="inlineStr"/>
+      <c r="J605" t="inlineStr"/>
+      <c r="K605" t="inlineStr"/>
+      <c r="L605" t="n">
+        <v>1</v>
+      </c>
+      <c r="M605" t="inlineStr"/>
+    </row>
+    <row r="606">
+      <c r="A606" s="1" t="n">
+        <v>604</v>
+      </c>
+      <c r="B606" t="n">
+        <v>191500</v>
+      </c>
+      <c r="C606" t="n">
+        <v>191500</v>
+      </c>
+      <c r="D606" t="n">
+        <v>191500</v>
+      </c>
+      <c r="E606" t="n">
+        <v>191500</v>
+      </c>
+      <c r="F606" t="n">
+        <v>10.1815</v>
+      </c>
+      <c r="G606" t="n">
+        <v>-46362.41560135123</v>
+      </c>
+      <c r="H606" t="n">
+        <v>0</v>
+      </c>
+      <c r="I606" t="inlineStr"/>
+      <c r="J606" t="inlineStr"/>
+      <c r="K606" t="inlineStr"/>
+      <c r="L606" t="n">
+        <v>1</v>
+      </c>
+      <c r="M606" t="inlineStr"/>
+    </row>
+    <row r="607">
+      <c r="A607" s="1" t="n">
+        <v>605</v>
+      </c>
+      <c r="B607" t="n">
+        <v>191400</v>
+      </c>
+      <c r="C607" t="n">
+        <v>191300</v>
+      </c>
+      <c r="D607" t="n">
+        <v>191400</v>
+      </c>
+      <c r="E607" t="n">
+        <v>191300</v>
+      </c>
+      <c r="F607" t="n">
+        <v>71.16930000000001</v>
+      </c>
+      <c r="G607" t="n">
+        <v>-46433.58490135123</v>
+      </c>
+      <c r="H607" t="n">
+        <v>0</v>
+      </c>
+      <c r="I607" t="inlineStr"/>
+      <c r="J607" t="inlineStr"/>
+      <c r="K607" t="inlineStr"/>
+      <c r="L607" t="n">
+        <v>1</v>
+      </c>
+      <c r="M607" t="inlineStr"/>
+    </row>
+    <row r="608">
+      <c r="A608" s="1" t="n">
+        <v>606</v>
+      </c>
+      <c r="B608" t="n">
+        <v>191200</v>
+      </c>
+      <c r="C608" t="n">
         <v>191100</v>
       </c>
-      <c r="J582" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K582" t="inlineStr">
+      <c r="D608" t="n">
+        <v>191200</v>
+      </c>
+      <c r="E608" t="n">
+        <v>191100</v>
+      </c>
+      <c r="F608" t="n">
+        <v>1.021</v>
+      </c>
+      <c r="G608" t="n">
+        <v>-46434.60590135123</v>
+      </c>
+      <c r="H608" t="n">
+        <v>0</v>
+      </c>
+      <c r="I608" t="inlineStr"/>
+      <c r="J608" t="inlineStr"/>
+      <c r="K608" t="inlineStr"/>
+      <c r="L608" t="n">
+        <v>1</v>
+      </c>
+      <c r="M608" t="inlineStr"/>
+    </row>
+    <row r="609">
+      <c r="A609" s="1" t="n">
+        <v>607</v>
+      </c>
+      <c r="B609" t="n">
+        <v>191100</v>
+      </c>
+      <c r="C609" t="n">
+        <v>191100</v>
+      </c>
+      <c r="D609" t="n">
+        <v>191100</v>
+      </c>
+      <c r="E609" t="n">
+        <v>191100</v>
+      </c>
+      <c r="F609" t="n">
+        <v>93.7938</v>
+      </c>
+      <c r="G609" t="n">
+        <v>-46434.60590135123</v>
+      </c>
+      <c r="H609" t="n">
+        <v>0</v>
+      </c>
+      <c r="I609" t="inlineStr"/>
+      <c r="J609" t="inlineStr"/>
+      <c r="K609" t="inlineStr"/>
+      <c r="L609" t="n">
+        <v>1</v>
+      </c>
+      <c r="M609" t="inlineStr"/>
+    </row>
+    <row r="610">
+      <c r="A610" s="1" t="n">
+        <v>608</v>
+      </c>
+      <c r="B610" t="n">
+        <v>191000</v>
+      </c>
+      <c r="C610" t="n">
+        <v>191000</v>
+      </c>
+      <c r="D610" t="n">
+        <v>191000</v>
+      </c>
+      <c r="E610" t="n">
+        <v>191000</v>
+      </c>
+      <c r="F610" t="n">
+        <v>20.3526</v>
+      </c>
+      <c r="G610" t="n">
+        <v>-46454.95850135123</v>
+      </c>
+      <c r="H610" t="n">
+        <v>0</v>
+      </c>
+      <c r="I610" t="inlineStr"/>
+      <c r="J610" t="inlineStr"/>
+      <c r="K610" t="inlineStr"/>
+      <c r="L610" t="n">
+        <v>1</v>
+      </c>
+      <c r="M610" t="inlineStr"/>
+    </row>
+    <row r="611">
+      <c r="A611" s="1" t="n">
+        <v>609</v>
+      </c>
+      <c r="B611" t="n">
+        <v>191100</v>
+      </c>
+      <c r="C611" t="n">
+        <v>190900</v>
+      </c>
+      <c r="D611" t="n">
+        <v>191200</v>
+      </c>
+      <c r="E611" t="n">
+        <v>190900</v>
+      </c>
+      <c r="F611" t="n">
+        <v>57.5279</v>
+      </c>
+      <c r="G611" t="n">
+        <v>-46512.48640135123</v>
+      </c>
+      <c r="H611" t="n">
+        <v>0</v>
+      </c>
+      <c r="I611" t="inlineStr"/>
+      <c r="J611" t="inlineStr"/>
+      <c r="K611" t="inlineStr"/>
+      <c r="L611" t="n">
+        <v>1</v>
+      </c>
+      <c r="M611" t="inlineStr"/>
+    </row>
+    <row r="612">
+      <c r="A612" s="1" t="n">
+        <v>610</v>
+      </c>
+      <c r="B612" t="n">
+        <v>190900</v>
+      </c>
+      <c r="C612" t="n">
+        <v>190900</v>
+      </c>
+      <c r="D612" t="n">
+        <v>190900</v>
+      </c>
+      <c r="E612" t="n">
+        <v>190900</v>
+      </c>
+      <c r="F612" t="n">
+        <v>67.05719999999999</v>
+      </c>
+      <c r="G612" t="n">
+        <v>-46512.48640135123</v>
+      </c>
+      <c r="H612" t="n">
+        <v>0</v>
+      </c>
+      <c r="I612" t="inlineStr"/>
+      <c r="J612" t="inlineStr"/>
+      <c r="K612" t="inlineStr"/>
+      <c r="L612" t="n">
+        <v>1</v>
+      </c>
+      <c r="M612" t="inlineStr"/>
+    </row>
+    <row r="613">
+      <c r="A613" s="1" t="n">
+        <v>611</v>
+      </c>
+      <c r="B613" t="n">
+        <v>190800</v>
+      </c>
+      <c r="C613" t="n">
+        <v>190900</v>
+      </c>
+      <c r="D613" t="n">
+        <v>190900</v>
+      </c>
+      <c r="E613" t="n">
+        <v>190700</v>
+      </c>
+      <c r="F613" t="n">
+        <v>18.516</v>
+      </c>
+      <c r="G613" t="n">
+        <v>-46512.48640135123</v>
+      </c>
+      <c r="H613" t="n">
+        <v>0</v>
+      </c>
+      <c r="I613" t="inlineStr"/>
+      <c r="J613" t="inlineStr"/>
+      <c r="K613" t="inlineStr"/>
+      <c r="L613" t="n">
+        <v>1</v>
+      </c>
+      <c r="M613" t="inlineStr"/>
+    </row>
+    <row r="614">
+      <c r="A614" s="1" t="n">
+        <v>612</v>
+      </c>
+      <c r="B614" t="n">
+        <v>190700</v>
+      </c>
+      <c r="C614" t="n">
+        <v>190600</v>
+      </c>
+      <c r="D614" t="n">
+        <v>190700</v>
+      </c>
+      <c r="E614" t="n">
+        <v>190600</v>
+      </c>
+      <c r="F614" t="n">
+        <v>2.173</v>
+      </c>
+      <c r="G614" t="n">
+        <v>-46514.65940135124</v>
+      </c>
+      <c r="H614" t="n">
+        <v>0</v>
+      </c>
+      <c r="I614" t="inlineStr"/>
+      <c r="J614" t="inlineStr"/>
+      <c r="K614" t="inlineStr"/>
+      <c r="L614" t="n">
+        <v>1</v>
+      </c>
+      <c r="M614" t="inlineStr"/>
+    </row>
+    <row r="615">
+      <c r="A615" s="1" t="n">
+        <v>613</v>
+      </c>
+      <c r="B615" t="n">
+        <v>190700</v>
+      </c>
+      <c r="C615" t="n">
+        <v>190700</v>
+      </c>
+      <c r="D615" t="n">
+        <v>190700</v>
+      </c>
+      <c r="E615" t="n">
+        <v>190400</v>
+      </c>
+      <c r="F615" t="n">
+        <v>46.212</v>
+      </c>
+      <c r="G615" t="n">
+        <v>-46468.44740135124</v>
+      </c>
+      <c r="H615" t="n">
+        <v>0</v>
+      </c>
+      <c r="I615" t="inlineStr"/>
+      <c r="J615" t="inlineStr"/>
+      <c r="K615" t="inlineStr"/>
+      <c r="L615" t="n">
+        <v>1</v>
+      </c>
+      <c r="M615" t="inlineStr"/>
+    </row>
+    <row r="616">
+      <c r="A616" s="1" t="n">
+        <v>614</v>
+      </c>
+      <c r="B616" t="n">
+        <v>190500</v>
+      </c>
+      <c r="C616" t="n">
+        <v>190400</v>
+      </c>
+      <c r="D616" t="n">
+        <v>190500</v>
+      </c>
+      <c r="E616" t="n">
+        <v>190300</v>
+      </c>
+      <c r="F616" t="n">
+        <v>110.8867</v>
+      </c>
+      <c r="G616" t="n">
+        <v>-46579.33410135124</v>
+      </c>
+      <c r="H616" t="n">
+        <v>0</v>
+      </c>
+      <c r="I616" t="inlineStr"/>
+      <c r="J616" t="inlineStr"/>
+      <c r="K616" t="inlineStr"/>
+      <c r="L616" t="n">
+        <v>1</v>
+      </c>
+      <c r="M616" t="inlineStr"/>
+    </row>
+    <row r="617">
+      <c r="A617" s="1" t="n">
+        <v>615</v>
+      </c>
+      <c r="B617" t="n">
+        <v>190300</v>
+      </c>
+      <c r="C617" t="n">
+        <v>190500</v>
+      </c>
+      <c r="D617" t="n">
+        <v>190500</v>
+      </c>
+      <c r="E617" t="n">
+        <v>190300</v>
+      </c>
+      <c r="F617" t="n">
+        <v>43.4204</v>
+      </c>
+      <c r="G617" t="n">
+        <v>-46535.91370135124</v>
+      </c>
+      <c r="H617" t="n">
+        <v>0</v>
+      </c>
+      <c r="I617" t="inlineStr"/>
+      <c r="J617" t="inlineStr"/>
+      <c r="K617" t="inlineStr"/>
+      <c r="L617" t="n">
+        <v>1</v>
+      </c>
+      <c r="M617" t="inlineStr"/>
+    </row>
+    <row r="618">
+      <c r="A618" s="1" t="n">
+        <v>616</v>
+      </c>
+      <c r="B618" t="n">
+        <v>190400</v>
+      </c>
+      <c r="C618" t="n">
+        <v>190400</v>
+      </c>
+      <c r="D618" t="n">
+        <v>190400</v>
+      </c>
+      <c r="E618" t="n">
+        <v>190400</v>
+      </c>
+      <c r="F618" t="n">
+        <v>5</v>
+      </c>
+      <c r="G618" t="n">
+        <v>-46540.91370135124</v>
+      </c>
+      <c r="H618" t="n">
+        <v>0</v>
+      </c>
+      <c r="I618" t="inlineStr"/>
+      <c r="J618" t="inlineStr"/>
+      <c r="K618" t="inlineStr"/>
+      <c r="L618" t="n">
+        <v>1</v>
+      </c>
+      <c r="M618" t="inlineStr"/>
+    </row>
+    <row r="619">
+      <c r="A619" s="1" t="n">
+        <v>617</v>
+      </c>
+      <c r="B619" t="n">
+        <v>190400</v>
+      </c>
+      <c r="C619" t="n">
+        <v>190300</v>
+      </c>
+      <c r="D619" t="n">
+        <v>190400</v>
+      </c>
+      <c r="E619" t="n">
+        <v>190300</v>
+      </c>
+      <c r="F619" t="n">
+        <v>2.173</v>
+      </c>
+      <c r="G619" t="n">
+        <v>-46543.08670135124</v>
+      </c>
+      <c r="H619" t="n">
+        <v>0</v>
+      </c>
+      <c r="I619" t="inlineStr"/>
+      <c r="J619" t="inlineStr"/>
+      <c r="K619" t="inlineStr"/>
+      <c r="L619" t="n">
+        <v>1</v>
+      </c>
+      <c r="M619" t="inlineStr"/>
+    </row>
+    <row r="620">
+      <c r="A620" s="1" t="n">
+        <v>618</v>
+      </c>
+      <c r="B620" t="n">
+        <v>190300</v>
+      </c>
+      <c r="C620" t="n">
+        <v>190300</v>
+      </c>
+      <c r="D620" t="n">
+        <v>190300</v>
+      </c>
+      <c r="E620" t="n">
+        <v>190300</v>
+      </c>
+      <c r="F620" t="n">
+        <v>0.343</v>
+      </c>
+      <c r="G620" t="n">
+        <v>-46543.08670135124</v>
+      </c>
+      <c r="H620" t="n">
+        <v>0</v>
+      </c>
+      <c r="I620" t="inlineStr"/>
+      <c r="J620" t="inlineStr"/>
+      <c r="K620" t="inlineStr"/>
+      <c r="L620" t="n">
+        <v>1</v>
+      </c>
+      <c r="M620" t="inlineStr"/>
+    </row>
+    <row r="621">
+      <c r="A621" s="1" t="n">
+        <v>619</v>
+      </c>
+      <c r="B621" t="n">
+        <v>190400</v>
+      </c>
+      <c r="C621" t="n">
+        <v>190400</v>
+      </c>
+      <c r="D621" t="n">
+        <v>190400</v>
+      </c>
+      <c r="E621" t="n">
+        <v>190400</v>
+      </c>
+      <c r="F621" t="n">
+        <v>12.9439</v>
+      </c>
+      <c r="G621" t="n">
+        <v>-46530.14280135124</v>
+      </c>
+      <c r="H621" t="n">
+        <v>0</v>
+      </c>
+      <c r="I621" t="inlineStr"/>
+      <c r="J621" t="inlineStr"/>
+      <c r="K621" t="inlineStr"/>
+      <c r="L621" t="n">
+        <v>1</v>
+      </c>
+      <c r="M621" t="inlineStr"/>
+    </row>
+    <row r="622">
+      <c r="A622" s="1" t="n">
+        <v>620</v>
+      </c>
+      <c r="B622" t="n">
+        <v>190500</v>
+      </c>
+      <c r="C622" t="n">
+        <v>190400</v>
+      </c>
+      <c r="D622" t="n">
+        <v>190500</v>
+      </c>
+      <c r="E622" t="n">
+        <v>190400</v>
+      </c>
+      <c r="F622" t="n">
+        <v>0.5843</v>
+      </c>
+      <c r="G622" t="n">
+        <v>-46530.14280135124</v>
+      </c>
+      <c r="H622" t="n">
+        <v>0</v>
+      </c>
+      <c r="I622" t="inlineStr"/>
+      <c r="J622" t="inlineStr"/>
+      <c r="K622" t="inlineStr"/>
+      <c r="L622" t="n">
+        <v>1</v>
+      </c>
+      <c r="M622" t="inlineStr"/>
+    </row>
+    <row r="623">
+      <c r="A623" s="1" t="n">
+        <v>621</v>
+      </c>
+      <c r="B623" t="n">
+        <v>190400</v>
+      </c>
+      <c r="C623" t="n">
+        <v>190300</v>
+      </c>
+      <c r="D623" t="n">
+        <v>190400</v>
+      </c>
+      <c r="E623" t="n">
+        <v>190300</v>
+      </c>
+      <c r="F623" t="n">
+        <v>0.8006</v>
+      </c>
+      <c r="G623" t="n">
+        <v>-46530.94340135124</v>
+      </c>
+      <c r="H623" t="n">
+        <v>0</v>
+      </c>
+      <c r="I623" t="inlineStr"/>
+      <c r="J623" t="inlineStr"/>
+      <c r="K623" t="inlineStr"/>
+      <c r="L623" t="n">
+        <v>1</v>
+      </c>
+      <c r="M623" t="inlineStr"/>
+    </row>
+    <row r="624">
+      <c r="A624" s="1" t="n">
+        <v>622</v>
+      </c>
+      <c r="B624" t="n">
+        <v>190300</v>
+      </c>
+      <c r="C624" t="n">
+        <v>190300</v>
+      </c>
+      <c r="D624" t="n">
+        <v>190300</v>
+      </c>
+      <c r="E624" t="n">
+        <v>190300</v>
+      </c>
+      <c r="F624" t="n">
+        <v>0.6587</v>
+      </c>
+      <c r="G624" t="n">
+        <v>-46530.94340135124</v>
+      </c>
+      <c r="H624" t="n">
+        <v>1</v>
+      </c>
+      <c r="I624" t="n">
+        <v>190300</v>
+      </c>
+      <c r="J624" t="n">
+        <v>190300</v>
+      </c>
+      <c r="K624" t="inlineStr"/>
+      <c r="L624" t="n">
+        <v>1</v>
+      </c>
+      <c r="M624" t="inlineStr"/>
+    </row>
+    <row r="625">
+      <c r="A625" s="1" t="n">
+        <v>623</v>
+      </c>
+      <c r="B625" t="n">
+        <v>190200</v>
+      </c>
+      <c r="C625" t="n">
+        <v>190400</v>
+      </c>
+      <c r="D625" t="n">
+        <v>190400</v>
+      </c>
+      <c r="E625" t="n">
+        <v>190200</v>
+      </c>
+      <c r="F625" t="n">
+        <v>12.5697</v>
+      </c>
+      <c r="G625" t="n">
+        <v>-46518.37370135124</v>
+      </c>
+      <c r="H625" t="n">
+        <v>0</v>
+      </c>
+      <c r="I625" t="inlineStr"/>
+      <c r="J625" t="n">
+        <v>190300</v>
+      </c>
+      <c r="K625" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L582" t="n">
-        <v>1</v>
-      </c>
-      <c r="M582" t="inlineStr"/>
-    </row>
-    <row r="583">
-      <c r="A583" s="1" t="n">
-        <v>581</v>
-      </c>
-      <c r="B583" t="n">
-        <v>191500</v>
-      </c>
-      <c r="C583" t="n">
-        <v>191500</v>
-      </c>
-      <c r="D583" t="n">
-        <v>191500</v>
-      </c>
-      <c r="E583" t="n">
-        <v>191400</v>
-      </c>
-      <c r="F583" t="n">
-        <v>12.0039</v>
-      </c>
-      <c r="G583" t="n">
-        <v>-46576.91735406343</v>
-      </c>
-      <c r="H583" t="n">
-        <v>1</v>
-      </c>
-      <c r="I583" t="n">
-        <v>191400</v>
-      </c>
-      <c r="J583" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K583" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L583" t="n">
-        <v>1</v>
-      </c>
-      <c r="M583" t="inlineStr"/>
-    </row>
-    <row r="584">
-      <c r="A584" s="1" t="n">
-        <v>582</v>
-      </c>
-      <c r="B584" t="n">
-        <v>191500</v>
-      </c>
-      <c r="C584" t="n">
-        <v>191700</v>
-      </c>
-      <c r="D584" t="n">
-        <v>191700</v>
-      </c>
-      <c r="E584" t="n">
-        <v>191500</v>
-      </c>
-      <c r="F584" t="n">
-        <v>186.7480984334204</v>
-      </c>
-      <c r="G584" t="n">
-        <v>-46390.16925563001</v>
-      </c>
-      <c r="H584" t="n">
-        <v>0</v>
-      </c>
-      <c r="I584" t="inlineStr"/>
-      <c r="J584" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K584" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L584" t="n">
-        <v>1</v>
-      </c>
-      <c r="M584" t="inlineStr"/>
-    </row>
-    <row r="585">
-      <c r="A585" s="1" t="n">
-        <v>583</v>
-      </c>
-      <c r="B585" t="n">
-        <v>191600</v>
-      </c>
-      <c r="C585" t="n">
-        <v>191300</v>
-      </c>
-      <c r="D585" t="n">
-        <v>191600</v>
-      </c>
-      <c r="E585" t="n">
-        <v>191300</v>
-      </c>
-      <c r="F585" t="n">
-        <v>25.7841</v>
-      </c>
-      <c r="G585" t="n">
-        <v>-46415.95335563001</v>
-      </c>
-      <c r="H585" t="n">
-        <v>0</v>
-      </c>
-      <c r="I585" t="inlineStr"/>
-      <c r="J585" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K585" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L585" t="n">
-        <v>1</v>
-      </c>
-      <c r="M585" t="inlineStr"/>
-    </row>
-    <row r="586">
-      <c r="A586" s="1" t="n">
-        <v>584</v>
-      </c>
-      <c r="B586" t="n">
-        <v>191500</v>
-      </c>
-      <c r="C586" t="n">
-        <v>191500</v>
-      </c>
-      <c r="D586" t="n">
-        <v>191500</v>
-      </c>
-      <c r="E586" t="n">
-        <v>191500</v>
-      </c>
-      <c r="F586" t="n">
-        <v>42.5544</v>
-      </c>
-      <c r="G586" t="n">
-        <v>-46373.39895563001</v>
-      </c>
-      <c r="H586" t="n">
-        <v>0</v>
-      </c>
-      <c r="I586" t="inlineStr"/>
-      <c r="J586" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K586" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L586" t="n">
-        <v>1</v>
-      </c>
-      <c r="M586" t="inlineStr"/>
-    </row>
-    <row r="587">
-      <c r="A587" s="1" t="n">
-        <v>585</v>
-      </c>
-      <c r="B587" t="n">
-        <v>191500</v>
-      </c>
-      <c r="C587" t="n">
-        <v>191600</v>
-      </c>
-      <c r="D587" t="n">
-        <v>191600</v>
-      </c>
-      <c r="E587" t="n">
-        <v>191300</v>
-      </c>
-      <c r="F587" t="n">
-        <v>12.7684</v>
-      </c>
-      <c r="G587" t="n">
-        <v>-46360.63055563001</v>
-      </c>
-      <c r="H587" t="n">
-        <v>0</v>
-      </c>
-      <c r="I587" t="inlineStr"/>
-      <c r="J587" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K587" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L587" t="n">
-        <v>1</v>
-      </c>
-      <c r="M587" t="inlineStr"/>
-    </row>
-    <row r="588">
-      <c r="A588" s="1" t="n">
-        <v>586</v>
-      </c>
-      <c r="B588" t="n">
-        <v>191400</v>
-      </c>
-      <c r="C588" t="n">
-        <v>191500</v>
-      </c>
-      <c r="D588" t="n">
-        <v>191500</v>
-      </c>
-      <c r="E588" t="n">
-        <v>191400</v>
-      </c>
-      <c r="F588" t="n">
-        <v>1.0022</v>
-      </c>
-      <c r="G588" t="n">
-        <v>-46361.63275563001</v>
-      </c>
-      <c r="H588" t="n">
-        <v>0</v>
-      </c>
-      <c r="I588" t="inlineStr"/>
-      <c r="J588" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K588" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L588" t="n">
-        <v>1</v>
-      </c>
-      <c r="M588" t="inlineStr"/>
-    </row>
-    <row r="589">
-      <c r="A589" s="1" t="n">
-        <v>587</v>
-      </c>
-      <c r="B589" t="n">
-        <v>191500</v>
-      </c>
-      <c r="C589" t="n">
-        <v>191500</v>
-      </c>
-      <c r="D589" t="n">
-        <v>191600</v>
-      </c>
-      <c r="E589" t="n">
-        <v>191500</v>
-      </c>
-      <c r="F589" t="n">
-        <v>24.0861</v>
-      </c>
-      <c r="G589" t="n">
-        <v>-46361.63275563001</v>
-      </c>
-      <c r="H589" t="n">
-        <v>0</v>
-      </c>
-      <c r="I589" t="inlineStr"/>
-      <c r="J589" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K589" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L589" t="n">
-        <v>1</v>
-      </c>
-      <c r="M589" t="inlineStr"/>
-    </row>
-    <row r="590">
-      <c r="A590" s="1" t="n">
-        <v>588</v>
-      </c>
-      <c r="B590" t="n">
-        <v>191600</v>
-      </c>
-      <c r="C590" t="n">
-        <v>191500</v>
-      </c>
-      <c r="D590" t="n">
-        <v>191600</v>
-      </c>
-      <c r="E590" t="n">
-        <v>191500</v>
-      </c>
-      <c r="F590" t="n">
-        <v>38.7169</v>
-      </c>
-      <c r="G590" t="n">
-        <v>-46361.63275563001</v>
-      </c>
-      <c r="H590" t="n">
-        <v>0</v>
-      </c>
-      <c r="I590" t="inlineStr"/>
-      <c r="J590" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K590" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L590" t="n">
-        <v>1</v>
-      </c>
-      <c r="M590" t="inlineStr"/>
-    </row>
-    <row r="591">
-      <c r="A591" s="1" t="n">
-        <v>589</v>
-      </c>
-      <c r="B591" t="n">
-        <v>191500</v>
-      </c>
-      <c r="C591" t="n">
-        <v>191400</v>
-      </c>
-      <c r="D591" t="n">
-        <v>191500</v>
-      </c>
-      <c r="E591" t="n">
-        <v>191400</v>
-      </c>
-      <c r="F591" t="n">
-        <v>8.0456</v>
-      </c>
-      <c r="G591" t="n">
-        <v>-46369.67835563001</v>
-      </c>
-      <c r="H591" t="n">
-        <v>0</v>
-      </c>
-      <c r="I591" t="inlineStr"/>
-      <c r="J591" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K591" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L591" t="n">
-        <v>1</v>
-      </c>
-      <c r="M591" t="inlineStr"/>
-    </row>
-    <row r="592">
-      <c r="A592" s="1" t="n">
-        <v>590</v>
-      </c>
-      <c r="B592" t="n">
-        <v>191500</v>
-      </c>
-      <c r="C592" t="n">
-        <v>191500</v>
-      </c>
-      <c r="D592" t="n">
-        <v>191500</v>
-      </c>
-      <c r="E592" t="n">
-        <v>191500</v>
-      </c>
-      <c r="F592" t="n">
-        <v>16.0936</v>
-      </c>
-      <c r="G592" t="n">
-        <v>-46353.58475563001</v>
-      </c>
-      <c r="H592" t="n">
-        <v>0</v>
-      </c>
-      <c r="I592" t="inlineStr"/>
-      <c r="J592" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K592" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L592" t="n">
-        <v>1</v>
-      </c>
-      <c r="M592" t="inlineStr"/>
-    </row>
-    <row r="593">
-      <c r="A593" s="1" t="n">
-        <v>591</v>
-      </c>
-      <c r="B593" t="n">
-        <v>191500</v>
-      </c>
-      <c r="C593" t="n">
-        <v>191400</v>
-      </c>
-      <c r="D593" t="n">
-        <v>191500</v>
-      </c>
-      <c r="E593" t="n">
-        <v>191400</v>
-      </c>
-      <c r="F593" t="n">
-        <v>5</v>
-      </c>
-      <c r="G593" t="n">
-        <v>-46358.58475563001</v>
-      </c>
-      <c r="H593" t="n">
-        <v>0</v>
-      </c>
-      <c r="I593" t="inlineStr"/>
-      <c r="J593" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K593" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L593" t="n">
-        <v>1</v>
-      </c>
-      <c r="M593" t="inlineStr"/>
-    </row>
-    <row r="594">
-      <c r="A594" s="1" t="n">
-        <v>592</v>
-      </c>
-      <c r="B594" t="n">
-        <v>191600</v>
-      </c>
-      <c r="C594" t="n">
-        <v>191600</v>
-      </c>
-      <c r="D594" t="n">
-        <v>191600</v>
-      </c>
-      <c r="E594" t="n">
-        <v>191600</v>
-      </c>
-      <c r="F594" t="n">
-        <v>0.4989</v>
-      </c>
-      <c r="G594" t="n">
-        <v>-46358.08585563001</v>
-      </c>
-      <c r="H594" t="n">
-        <v>1</v>
-      </c>
-      <c r="I594" t="n">
-        <v>191400</v>
-      </c>
-      <c r="J594" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K594" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L594" t="n">
-        <v>1</v>
-      </c>
-      <c r="M594" t="inlineStr"/>
-    </row>
-    <row r="595">
-      <c r="A595" s="1" t="n">
-        <v>593</v>
-      </c>
-      <c r="B595" t="n">
-        <v>191600</v>
-      </c>
-      <c r="C595" t="n">
-        <v>191600</v>
-      </c>
-      <c r="D595" t="n">
-        <v>191600</v>
-      </c>
-      <c r="E595" t="n">
-        <v>191600</v>
-      </c>
-      <c r="F595" t="n">
-        <v>17.4737</v>
-      </c>
-      <c r="G595" t="n">
-        <v>-46358.08585563001</v>
-      </c>
-      <c r="H595" t="n">
-        <v>0</v>
-      </c>
-      <c r="I595" t="inlineStr"/>
-      <c r="J595" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K595" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L595" t="n">
-        <v>1</v>
-      </c>
-      <c r="M595" t="inlineStr"/>
-    </row>
-    <row r="596">
-      <c r="A596" s="1" t="n">
-        <v>594</v>
-      </c>
-      <c r="B596" t="n">
-        <v>191600</v>
-      </c>
-      <c r="C596" t="n">
-        <v>191700</v>
-      </c>
-      <c r="D596" t="n">
-        <v>191700</v>
-      </c>
-      <c r="E596" t="n">
-        <v>191600</v>
-      </c>
-      <c r="F596" t="n">
-        <v>5.0087</v>
-      </c>
-      <c r="G596" t="n">
-        <v>-46353.07715563001</v>
-      </c>
-      <c r="H596" t="n">
-        <v>1</v>
-      </c>
-      <c r="I596" t="n">
-        <v>191600</v>
-      </c>
-      <c r="J596" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K596" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L596" t="n">
-        <v>1</v>
-      </c>
-      <c r="M596" t="inlineStr"/>
-    </row>
-    <row r="597">
-      <c r="A597" s="1" t="n">
-        <v>595</v>
-      </c>
-      <c r="B597" t="n">
-        <v>191500</v>
-      </c>
-      <c r="C597" t="n">
-        <v>191700</v>
-      </c>
-      <c r="D597" t="n">
-        <v>191700</v>
-      </c>
-      <c r="E597" t="n">
-        <v>191500</v>
-      </c>
-      <c r="F597" t="n">
-        <v>1.2302</v>
-      </c>
-      <c r="G597" t="n">
-        <v>-46353.07715563001</v>
-      </c>
-      <c r="H597" t="n">
-        <v>1</v>
-      </c>
-      <c r="I597" t="n">
-        <v>191700</v>
-      </c>
-      <c r="J597" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K597" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L597" t="n">
-        <v>1</v>
-      </c>
-      <c r="M597" t="inlineStr"/>
-    </row>
-    <row r="598">
-      <c r="A598" s="1" t="n">
-        <v>596</v>
-      </c>
-      <c r="B598" t="n">
-        <v>191700</v>
-      </c>
-      <c r="C598" t="n">
-        <v>191400</v>
-      </c>
-      <c r="D598" t="n">
-        <v>191900</v>
-      </c>
-      <c r="E598" t="n">
-        <v>191400</v>
-      </c>
-      <c r="F598" t="n">
-        <v>34.81966612819177</v>
-      </c>
-      <c r="G598" t="n">
-        <v>-46387.8968217582</v>
-      </c>
-      <c r="H598" t="n">
-        <v>1</v>
-      </c>
-      <c r="I598" t="n">
-        <v>191700</v>
-      </c>
-      <c r="J598" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K598" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L598" t="n">
-        <v>1</v>
-      </c>
-      <c r="M598" t="inlineStr"/>
-    </row>
-    <row r="599">
-      <c r="A599" s="1" t="n">
-        <v>597</v>
-      </c>
-      <c r="B599" t="n">
-        <v>191500</v>
-      </c>
-      <c r="C599" t="n">
-        <v>191400</v>
-      </c>
-      <c r="D599" t="n">
-        <v>191500</v>
-      </c>
-      <c r="E599" t="n">
-        <v>191400</v>
-      </c>
-      <c r="F599" t="n">
-        <v>1.2718</v>
-      </c>
-      <c r="G599" t="n">
-        <v>-46387.8968217582</v>
-      </c>
-      <c r="H599" t="n">
-        <v>0</v>
-      </c>
-      <c r="I599" t="inlineStr"/>
-      <c r="J599" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K599" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L599" t="n">
-        <v>1</v>
-      </c>
-      <c r="M599" t="inlineStr"/>
-    </row>
-    <row r="600">
-      <c r="A600" s="1" t="n">
-        <v>598</v>
-      </c>
-      <c r="B600" t="n">
-        <v>191400</v>
-      </c>
-      <c r="C600" t="n">
-        <v>191400</v>
-      </c>
-      <c r="D600" t="n">
-        <v>191400</v>
-      </c>
-      <c r="E600" t="n">
-        <v>191400</v>
-      </c>
-      <c r="F600" t="n">
-        <v>18</v>
-      </c>
-      <c r="G600" t="n">
-        <v>-46387.8968217582</v>
-      </c>
-      <c r="H600" t="n">
-        <v>1</v>
-      </c>
-      <c r="I600" t="n">
-        <v>191400</v>
-      </c>
-      <c r="J600" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K600" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L600" t="n">
-        <v>1</v>
-      </c>
-      <c r="M600" t="inlineStr"/>
-    </row>
-    <row r="601">
-      <c r="A601" s="1" t="n">
-        <v>599</v>
-      </c>
-      <c r="B601" t="n">
-        <v>191500</v>
-      </c>
-      <c r="C601" t="n">
-        <v>191500</v>
-      </c>
-      <c r="D601" t="n">
-        <v>191500</v>
-      </c>
-      <c r="E601" t="n">
-        <v>191500</v>
-      </c>
-      <c r="F601" t="n">
-        <v>31.70869973890339</v>
-      </c>
-      <c r="G601" t="n">
-        <v>-46356.1881220193</v>
-      </c>
-      <c r="H601" t="n">
-        <v>1</v>
-      </c>
-      <c r="I601" t="n">
-        <v>191400</v>
-      </c>
-      <c r="J601" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K601" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L601" t="n">
-        <v>1</v>
-      </c>
-      <c r="M601" t="inlineStr"/>
-    </row>
-    <row r="602">
-      <c r="A602" s="1" t="n">
-        <v>600</v>
-      </c>
-      <c r="B602" t="n">
-        <v>191500</v>
-      </c>
-      <c r="C602" t="n">
-        <v>191500</v>
-      </c>
-      <c r="D602" t="n">
-        <v>191500</v>
-      </c>
-      <c r="E602" t="n">
-        <v>191500</v>
-      </c>
-      <c r="F602" t="n">
-        <v>6.9698</v>
-      </c>
-      <c r="G602" t="n">
-        <v>-46356.1881220193</v>
-      </c>
-      <c r="H602" t="n">
-        <v>1</v>
-      </c>
-      <c r="I602" t="n">
-        <v>191500</v>
-      </c>
-      <c r="J602" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K602" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L602" t="n">
-        <v>1</v>
-      </c>
-      <c r="M602" t="inlineStr"/>
-    </row>
-    <row r="603">
-      <c r="A603" s="1" t="n">
-        <v>601</v>
-      </c>
-      <c r="B603" t="n">
-        <v>191500</v>
-      </c>
-      <c r="C603" t="n">
-        <v>191500</v>
-      </c>
-      <c r="D603" t="n">
-        <v>191500</v>
-      </c>
-      <c r="E603" t="n">
-        <v>191500</v>
-      </c>
-      <c r="F603" t="n">
-        <v>3.619000261096606</v>
-      </c>
-      <c r="G603" t="n">
-        <v>-46356.1881220193</v>
-      </c>
-      <c r="H603" t="n">
-        <v>1</v>
-      </c>
-      <c r="I603" t="n">
-        <v>191500</v>
-      </c>
-      <c r="J603" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K603" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L603" t="n">
-        <v>1</v>
-      </c>
-      <c r="M603" t="inlineStr"/>
-    </row>
-    <row r="604">
-      <c r="A604" s="1" t="n">
-        <v>602</v>
-      </c>
-      <c r="B604" t="n">
-        <v>191500</v>
-      </c>
-      <c r="C604" t="n">
-        <v>191500</v>
-      </c>
-      <c r="D604" t="n">
-        <v>191500</v>
-      </c>
-      <c r="E604" t="n">
-        <v>191500</v>
-      </c>
-      <c r="F604" t="n">
-        <v>3.6573</v>
-      </c>
-      <c r="G604" t="n">
-        <v>-46356.1881220193</v>
-      </c>
-      <c r="H604" t="n">
-        <v>1</v>
-      </c>
-      <c r="I604" t="n">
-        <v>191500</v>
-      </c>
-      <c r="J604" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K604" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L604" t="n">
-        <v>1</v>
-      </c>
-      <c r="M604" t="inlineStr"/>
-    </row>
-    <row r="605">
-      <c r="A605" s="1" t="n">
-        <v>603</v>
-      </c>
-      <c r="B605" t="n">
-        <v>191400</v>
-      </c>
-      <c r="C605" t="n">
-        <v>191600</v>
-      </c>
-      <c r="D605" t="n">
-        <v>191600</v>
-      </c>
-      <c r="E605" t="n">
-        <v>191400</v>
-      </c>
-      <c r="F605" t="n">
-        <v>3.954020668058455</v>
-      </c>
-      <c r="G605" t="n">
-        <v>-46352.23410135123</v>
-      </c>
-      <c r="H605" t="n">
-        <v>0</v>
-      </c>
-      <c r="I605" t="inlineStr"/>
-      <c r="J605" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K605" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L605" t="n">
-        <v>1</v>
-      </c>
-      <c r="M605" t="inlineStr"/>
-    </row>
-    <row r="606">
-      <c r="A606" s="1" t="n">
-        <v>604</v>
-      </c>
-      <c r="B606" t="n">
-        <v>191500</v>
-      </c>
-      <c r="C606" t="n">
-        <v>191500</v>
-      </c>
-      <c r="D606" t="n">
-        <v>191500</v>
-      </c>
-      <c r="E606" t="n">
-        <v>191500</v>
-      </c>
-      <c r="F606" t="n">
-        <v>10.1815</v>
-      </c>
-      <c r="G606" t="n">
-        <v>-46362.41560135123</v>
-      </c>
-      <c r="H606" t="n">
-        <v>1</v>
-      </c>
-      <c r="I606" t="n">
-        <v>191600</v>
-      </c>
-      <c r="J606" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K606" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L606" t="n">
-        <v>1</v>
-      </c>
-      <c r="M606" t="inlineStr"/>
-    </row>
-    <row r="607">
-      <c r="A607" s="1" t="n">
-        <v>605</v>
-      </c>
-      <c r="B607" t="n">
-        <v>191400</v>
-      </c>
-      <c r="C607" t="n">
-        <v>191300</v>
-      </c>
-      <c r="D607" t="n">
-        <v>191400</v>
-      </c>
-      <c r="E607" t="n">
-        <v>191300</v>
-      </c>
-      <c r="F607" t="n">
-        <v>71.16930000000001</v>
-      </c>
-      <c r="G607" t="n">
-        <v>-46433.58490135123</v>
-      </c>
-      <c r="H607" t="n">
-        <v>0</v>
-      </c>
-      <c r="I607" t="inlineStr"/>
-      <c r="J607" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K607" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L607" t="n">
-        <v>1</v>
-      </c>
-      <c r="M607" t="inlineStr"/>
-    </row>
-    <row r="608">
-      <c r="A608" s="1" t="n">
-        <v>606</v>
-      </c>
-      <c r="B608" t="n">
-        <v>191200</v>
-      </c>
-      <c r="C608" t="n">
-        <v>191100</v>
-      </c>
-      <c r="D608" t="n">
-        <v>191200</v>
-      </c>
-      <c r="E608" t="n">
-        <v>191100</v>
-      </c>
-      <c r="F608" t="n">
-        <v>1.021</v>
-      </c>
-      <c r="G608" t="n">
-        <v>-46434.60590135123</v>
-      </c>
-      <c r="H608" t="n">
-        <v>1</v>
-      </c>
-      <c r="I608" t="n">
-        <v>191300</v>
-      </c>
-      <c r="J608" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K608" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L608" t="n">
-        <v>1</v>
-      </c>
-      <c r="M608" t="inlineStr"/>
-    </row>
-    <row r="609">
-      <c r="A609" s="1" t="n">
-        <v>607</v>
-      </c>
-      <c r="B609" t="n">
-        <v>191100</v>
-      </c>
-      <c r="C609" t="n">
-        <v>191100</v>
-      </c>
-      <c r="D609" t="n">
-        <v>191100</v>
-      </c>
-      <c r="E609" t="n">
-        <v>191100</v>
-      </c>
-      <c r="F609" t="n">
-        <v>93.7938</v>
-      </c>
-      <c r="G609" t="n">
-        <v>-46434.60590135123</v>
-      </c>
-      <c r="H609" t="n">
-        <v>1</v>
-      </c>
-      <c r="I609" t="n">
-        <v>191100</v>
-      </c>
-      <c r="J609" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K609" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L609" t="n">
-        <v>1</v>
-      </c>
-      <c r="M609" t="inlineStr"/>
-    </row>
-    <row r="610">
-      <c r="A610" s="1" t="n">
-        <v>608</v>
-      </c>
-      <c r="B610" t="n">
-        <v>191000</v>
-      </c>
-      <c r="C610" t="n">
-        <v>191000</v>
-      </c>
-      <c r="D610" t="n">
-        <v>191000</v>
-      </c>
-      <c r="E610" t="n">
-        <v>191000</v>
-      </c>
-      <c r="F610" t="n">
-        <v>20.3526</v>
-      </c>
-      <c r="G610" t="n">
-        <v>-46454.95850135123</v>
-      </c>
-      <c r="H610" t="n">
-        <v>1</v>
-      </c>
-      <c r="I610" t="n">
-        <v>191100</v>
-      </c>
-      <c r="J610" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K610" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L610" t="n">
-        <v>1</v>
-      </c>
-      <c r="M610" t="inlineStr"/>
-    </row>
-    <row r="611">
-      <c r="A611" s="1" t="n">
-        <v>609</v>
-      </c>
-      <c r="B611" t="n">
-        <v>191100</v>
-      </c>
-      <c r="C611" t="n">
-        <v>190900</v>
-      </c>
-      <c r="D611" t="n">
-        <v>191200</v>
-      </c>
-      <c r="E611" t="n">
-        <v>190900</v>
-      </c>
-      <c r="F611" t="n">
-        <v>57.5279</v>
-      </c>
-      <c r="G611" t="n">
-        <v>-46512.48640135123</v>
-      </c>
-      <c r="H611" t="n">
-        <v>1</v>
-      </c>
-      <c r="I611" t="n">
-        <v>191000</v>
-      </c>
-      <c r="J611" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K611" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L611" t="n">
-        <v>1</v>
-      </c>
-      <c r="M611" t="inlineStr"/>
-    </row>
-    <row r="612">
-      <c r="A612" s="1" t="n">
-        <v>610</v>
-      </c>
-      <c r="B612" t="n">
-        <v>190900</v>
-      </c>
-      <c r="C612" t="n">
-        <v>190900</v>
-      </c>
-      <c r="D612" t="n">
-        <v>190900</v>
-      </c>
-      <c r="E612" t="n">
-        <v>190900</v>
-      </c>
-      <c r="F612" t="n">
-        <v>67.05719999999999</v>
-      </c>
-      <c r="G612" t="n">
-        <v>-46512.48640135123</v>
-      </c>
-      <c r="H612" t="n">
-        <v>1</v>
-      </c>
-      <c r="I612" t="n">
-        <v>190900</v>
-      </c>
-      <c r="J612" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K612" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L612" t="n">
-        <v>1</v>
-      </c>
-      <c r="M612" t="inlineStr"/>
-    </row>
-    <row r="613">
-      <c r="A613" s="1" t="n">
-        <v>611</v>
-      </c>
-      <c r="B613" t="n">
-        <v>190800</v>
-      </c>
-      <c r="C613" t="n">
-        <v>190900</v>
-      </c>
-      <c r="D613" t="n">
-        <v>190900</v>
-      </c>
-      <c r="E613" t="n">
-        <v>190700</v>
-      </c>
-      <c r="F613" t="n">
-        <v>18.516</v>
-      </c>
-      <c r="G613" t="n">
-        <v>-46512.48640135123</v>
-      </c>
-      <c r="H613" t="n">
-        <v>1</v>
-      </c>
-      <c r="I613" t="n">
-        <v>190900</v>
-      </c>
-      <c r="J613" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K613" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L613" t="n">
-        <v>1</v>
-      </c>
-      <c r="M613" t="inlineStr"/>
-    </row>
-    <row r="614">
-      <c r="A614" s="1" t="n">
-        <v>612</v>
-      </c>
-      <c r="B614" t="n">
-        <v>190700</v>
-      </c>
-      <c r="C614" t="n">
-        <v>190600</v>
-      </c>
-      <c r="D614" t="n">
-        <v>190700</v>
-      </c>
-      <c r="E614" t="n">
-        <v>190600</v>
-      </c>
-      <c r="F614" t="n">
-        <v>2.173</v>
-      </c>
-      <c r="G614" t="n">
-        <v>-46514.65940135124</v>
-      </c>
-      <c r="H614" t="n">
-        <v>1</v>
-      </c>
-      <c r="I614" t="n">
-        <v>190900</v>
-      </c>
-      <c r="J614" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K614" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L614" t="n">
-        <v>1</v>
-      </c>
-      <c r="M614" t="inlineStr"/>
-    </row>
-    <row r="615">
-      <c r="A615" s="1" t="n">
-        <v>613</v>
-      </c>
-      <c r="B615" t="n">
-        <v>190700</v>
-      </c>
-      <c r="C615" t="n">
-        <v>190700</v>
-      </c>
-      <c r="D615" t="n">
-        <v>190700</v>
-      </c>
-      <c r="E615" t="n">
-        <v>190400</v>
-      </c>
-      <c r="F615" t="n">
-        <v>46.212</v>
-      </c>
-      <c r="G615" t="n">
-        <v>-46468.44740135124</v>
-      </c>
-      <c r="H615" t="n">
-        <v>1</v>
-      </c>
-      <c r="I615" t="n">
-        <v>190600</v>
-      </c>
-      <c r="J615" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K615" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L615" t="n">
-        <v>1</v>
-      </c>
-      <c r="M615" t="inlineStr"/>
-    </row>
-    <row r="616">
-      <c r="A616" s="1" t="n">
-        <v>614</v>
-      </c>
-      <c r="B616" t="n">
-        <v>190500</v>
-      </c>
-      <c r="C616" t="n">
-        <v>190400</v>
-      </c>
-      <c r="D616" t="n">
-        <v>190500</v>
-      </c>
-      <c r="E616" t="n">
-        <v>190300</v>
-      </c>
-      <c r="F616" t="n">
-        <v>110.8867</v>
-      </c>
-      <c r="G616" t="n">
-        <v>-46579.33410135124</v>
-      </c>
-      <c r="H616" t="n">
-        <v>1</v>
-      </c>
-      <c r="I616" t="n">
-        <v>190700</v>
-      </c>
-      <c r="J616" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K616" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L616" t="n">
-        <v>1</v>
-      </c>
-      <c r="M616" t="inlineStr"/>
-    </row>
-    <row r="617">
-      <c r="A617" s="1" t="n">
-        <v>615</v>
-      </c>
-      <c r="B617" t="n">
-        <v>190300</v>
-      </c>
-      <c r="C617" t="n">
-        <v>190500</v>
-      </c>
-      <c r="D617" t="n">
-        <v>190500</v>
-      </c>
-      <c r="E617" t="n">
-        <v>190300</v>
-      </c>
-      <c r="F617" t="n">
-        <v>43.4204</v>
-      </c>
-      <c r="G617" t="n">
-        <v>-46535.91370135124</v>
-      </c>
-      <c r="H617" t="n">
-        <v>1</v>
-      </c>
-      <c r="I617" t="n">
-        <v>190400</v>
-      </c>
-      <c r="J617" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K617" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L617" t="n">
-        <v>1</v>
-      </c>
-      <c r="M617" t="inlineStr"/>
-    </row>
-    <row r="618">
-      <c r="A618" s="1" t="n">
-        <v>616</v>
-      </c>
-      <c r="B618" t="n">
-        <v>190400</v>
-      </c>
-      <c r="C618" t="n">
-        <v>190400</v>
-      </c>
-      <c r="D618" t="n">
-        <v>190400</v>
-      </c>
-      <c r="E618" t="n">
-        <v>190400</v>
-      </c>
-      <c r="F618" t="n">
-        <v>5</v>
-      </c>
-      <c r="G618" t="n">
-        <v>-46540.91370135124</v>
-      </c>
-      <c r="H618" t="n">
-        <v>1</v>
-      </c>
-      <c r="I618" t="n">
-        <v>190500</v>
-      </c>
-      <c r="J618" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K618" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L618" t="n">
-        <v>1</v>
-      </c>
-      <c r="M618" t="inlineStr"/>
-    </row>
-    <row r="619">
-      <c r="A619" s="1" t="n">
-        <v>617</v>
-      </c>
-      <c r="B619" t="n">
-        <v>190400</v>
-      </c>
-      <c r="C619" t="n">
-        <v>190300</v>
-      </c>
-      <c r="D619" t="n">
-        <v>190400</v>
-      </c>
-      <c r="E619" t="n">
-        <v>190300</v>
-      </c>
-      <c r="F619" t="n">
-        <v>2.173</v>
-      </c>
-      <c r="G619" t="n">
-        <v>-46543.08670135124</v>
-      </c>
-      <c r="H619" t="n">
-        <v>1</v>
-      </c>
-      <c r="I619" t="n">
-        <v>190400</v>
-      </c>
-      <c r="J619" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K619" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L619" t="n">
-        <v>1</v>
-      </c>
-      <c r="M619" t="inlineStr"/>
-    </row>
-    <row r="620">
-      <c r="A620" s="1" t="n">
-        <v>618</v>
-      </c>
-      <c r="B620" t="n">
-        <v>190300</v>
-      </c>
-      <c r="C620" t="n">
-        <v>190300</v>
-      </c>
-      <c r="D620" t="n">
-        <v>190300</v>
-      </c>
-      <c r="E620" t="n">
-        <v>190300</v>
-      </c>
-      <c r="F620" t="n">
-        <v>0.343</v>
-      </c>
-      <c r="G620" t="n">
-        <v>-46543.08670135124</v>
-      </c>
-      <c r="H620" t="n">
-        <v>1</v>
-      </c>
-      <c r="I620" t="n">
-        <v>190300</v>
-      </c>
-      <c r="J620" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K620" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L620" t="n">
-        <v>1</v>
-      </c>
-      <c r="M620" t="inlineStr"/>
-    </row>
-    <row r="621">
-      <c r="A621" s="1" t="n">
-        <v>619</v>
-      </c>
-      <c r="B621" t="n">
-        <v>190400</v>
-      </c>
-      <c r="C621" t="n">
-        <v>190400</v>
-      </c>
-      <c r="D621" t="n">
-        <v>190400</v>
-      </c>
-      <c r="E621" t="n">
-        <v>190400</v>
-      </c>
-      <c r="F621" t="n">
-        <v>12.9439</v>
-      </c>
-      <c r="G621" t="n">
-        <v>-46530.14280135124</v>
-      </c>
-      <c r="H621" t="n">
-        <v>1</v>
-      </c>
-      <c r="I621" t="n">
-        <v>190300</v>
-      </c>
-      <c r="J621" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K621" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L621" t="n">
-        <v>1</v>
-      </c>
-      <c r="M621" t="inlineStr"/>
-    </row>
-    <row r="622">
-      <c r="A622" s="1" t="n">
-        <v>620</v>
-      </c>
-      <c r="B622" t="n">
-        <v>190500</v>
-      </c>
-      <c r="C622" t="n">
-        <v>190400</v>
-      </c>
-      <c r="D622" t="n">
-        <v>190500</v>
-      </c>
-      <c r="E622" t="n">
-        <v>190400</v>
-      </c>
-      <c r="F622" t="n">
-        <v>0.5843</v>
-      </c>
-      <c r="G622" t="n">
-        <v>-46530.14280135124</v>
-      </c>
-      <c r="H622" t="n">
-        <v>1</v>
-      </c>
-      <c r="I622" t="n">
-        <v>190400</v>
-      </c>
-      <c r="J622" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K622" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L622" t="n">
-        <v>1</v>
-      </c>
-      <c r="M622" t="inlineStr"/>
-    </row>
-    <row r="623">
-      <c r="A623" s="1" t="n">
-        <v>621</v>
-      </c>
-      <c r="B623" t="n">
-        <v>190400</v>
-      </c>
-      <c r="C623" t="n">
-        <v>190300</v>
-      </c>
-      <c r="D623" t="n">
-        <v>190400</v>
-      </c>
-      <c r="E623" t="n">
-        <v>190300</v>
-      </c>
-      <c r="F623" t="n">
-        <v>0.8006</v>
-      </c>
-      <c r="G623" t="n">
-        <v>-46530.94340135124</v>
-      </c>
-      <c r="H623" t="n">
-        <v>1</v>
-      </c>
-      <c r="I623" t="n">
-        <v>190400</v>
-      </c>
-      <c r="J623" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K623" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L623" t="n">
-        <v>1</v>
-      </c>
-      <c r="M623" t="inlineStr"/>
-    </row>
-    <row r="624">
-      <c r="A624" s="1" t="n">
-        <v>622</v>
-      </c>
-      <c r="B624" t="n">
-        <v>190300</v>
-      </c>
-      <c r="C624" t="n">
-        <v>190300</v>
-      </c>
-      <c r="D624" t="n">
-        <v>190300</v>
-      </c>
-      <c r="E624" t="n">
-        <v>190300</v>
-      </c>
-      <c r="F624" t="n">
-        <v>0.6587</v>
-      </c>
-      <c r="G624" t="n">
-        <v>-46530.94340135124</v>
-      </c>
-      <c r="H624" t="n">
-        <v>1</v>
-      </c>
-      <c r="I624" t="n">
-        <v>190300</v>
-      </c>
-      <c r="J624" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K624" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L624" t="n">
-        <v>1</v>
-      </c>
-      <c r="M624" t="inlineStr"/>
-    </row>
-    <row r="625">
-      <c r="A625" s="1" t="n">
-        <v>623</v>
-      </c>
-      <c r="B625" t="n">
-        <v>190200</v>
-      </c>
-      <c r="C625" t="n">
-        <v>190400</v>
-      </c>
-      <c r="D625" t="n">
-        <v>190400</v>
-      </c>
-      <c r="E625" t="n">
-        <v>190200</v>
-      </c>
-      <c r="F625" t="n">
-        <v>12.5697</v>
-      </c>
-      <c r="G625" t="n">
-        <v>-46518.37370135124</v>
-      </c>
-      <c r="H625" t="n">
-        <v>1</v>
-      </c>
-      <c r="I625" t="n">
-        <v>190300</v>
-      </c>
-      <c r="J625" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K625" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -21371,13 +21053,11 @@
         <v>-46379.48730135124</v>
       </c>
       <c r="H626" t="n">
-        <v>1</v>
-      </c>
-      <c r="I626" t="n">
-        <v>190400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I626" t="inlineStr"/>
       <c r="J626" t="n">
-        <v>191500</v>
+        <v>190300</v>
       </c>
       <c r="K626" t="inlineStr">
         <is>
@@ -21412,13 +21092,11 @@
         <v>-46379.48730135124</v>
       </c>
       <c r="H627" t="n">
-        <v>1</v>
-      </c>
-      <c r="I627" t="n">
-        <v>190500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I627" t="inlineStr"/>
       <c r="J627" t="n">
-        <v>191500</v>
+        <v>190300</v>
       </c>
       <c r="K627" t="inlineStr">
         <is>
@@ -21453,13 +21131,11 @@
         <v>-46383.82730135124</v>
       </c>
       <c r="H628" t="n">
-        <v>1</v>
-      </c>
-      <c r="I628" t="n">
-        <v>190500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I628" t="inlineStr"/>
       <c r="J628" t="n">
-        <v>191500</v>
+        <v>190300</v>
       </c>
       <c r="K628" t="inlineStr">
         <is>
@@ -21494,13 +21170,11 @@
         <v>-46389.19537698149</v>
       </c>
       <c r="H629" t="n">
-        <v>1</v>
-      </c>
-      <c r="I629" t="n">
+        <v>0</v>
+      </c>
+      <c r="I629" t="inlineStr"/>
+      <c r="J629" t="n">
         <v>190300</v>
-      </c>
-      <c r="J629" t="n">
-        <v>191500</v>
       </c>
       <c r="K629" t="inlineStr">
         <is>
@@ -21535,13 +21209,11 @@
         <v>-46333.03137698149</v>
       </c>
       <c r="H630" t="n">
-        <v>1</v>
-      </c>
-      <c r="I630" t="n">
-        <v>190200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I630" t="inlineStr"/>
       <c r="J630" t="n">
-        <v>191500</v>
+        <v>190300</v>
       </c>
       <c r="K630" t="inlineStr">
         <is>
@@ -21576,13 +21248,11 @@
         <v>-46421.89497698149</v>
       </c>
       <c r="H631" t="n">
-        <v>1</v>
-      </c>
-      <c r="I631" t="n">
-        <v>190600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I631" t="inlineStr"/>
       <c r="J631" t="n">
-        <v>191500</v>
+        <v>190300</v>
       </c>
       <c r="K631" t="inlineStr">
         <is>
@@ -21617,13 +21287,11 @@
         <v>-46420.55537698149</v>
       </c>
       <c r="H632" t="n">
-        <v>1</v>
-      </c>
-      <c r="I632" t="n">
+        <v>0</v>
+      </c>
+      <c r="I632" t="inlineStr"/>
+      <c r="J632" t="n">
         <v>190300</v>
-      </c>
-      <c r="J632" t="n">
-        <v>191500</v>
       </c>
       <c r="K632" t="inlineStr">
         <is>
@@ -21658,13 +21326,11 @@
         <v>-46430.68477698148</v>
       </c>
       <c r="H633" t="n">
-        <v>1</v>
-      </c>
-      <c r="I633" t="n">
-        <v>190600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I633" t="inlineStr"/>
       <c r="J633" t="n">
-        <v>191500</v>
+        <v>190300</v>
       </c>
       <c r="K633" t="inlineStr">
         <is>
@@ -21699,13 +21365,11 @@
         <v>-46430.68477698148</v>
       </c>
       <c r="H634" t="n">
-        <v>1</v>
-      </c>
-      <c r="I634" t="n">
-        <v>190500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I634" t="inlineStr"/>
       <c r="J634" t="n">
-        <v>191500</v>
+        <v>190300</v>
       </c>
       <c r="K634" t="inlineStr">
         <is>
@@ -21740,13 +21404,11 @@
         <v>-46473.35007698149</v>
       </c>
       <c r="H635" t="n">
-        <v>1</v>
-      </c>
-      <c r="I635" t="n">
-        <v>190500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I635" t="inlineStr"/>
       <c r="J635" t="n">
-        <v>191500</v>
+        <v>190300</v>
       </c>
       <c r="K635" t="inlineStr">
         <is>
@@ -21781,13 +21443,11 @@
         <v>-46433.22737698149</v>
       </c>
       <c r="H636" t="n">
-        <v>1</v>
-      </c>
-      <c r="I636" t="n">
+        <v>0</v>
+      </c>
+      <c r="I636" t="inlineStr"/>
+      <c r="J636" t="n">
         <v>190300</v>
-      </c>
-      <c r="J636" t="n">
-        <v>191500</v>
       </c>
       <c r="K636" t="inlineStr">
         <is>
@@ -21822,13 +21482,11 @@
         <v>-46438.74877698148</v>
       </c>
       <c r="H637" t="n">
-        <v>1</v>
-      </c>
-      <c r="I637" t="n">
-        <v>190700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I637" t="inlineStr"/>
       <c r="J637" t="n">
-        <v>191500</v>
+        <v>190300</v>
       </c>
       <c r="K637" t="inlineStr">
         <is>
@@ -21863,13 +21521,11 @@
         <v>-46438.27867698148</v>
       </c>
       <c r="H638" t="n">
-        <v>1</v>
-      </c>
-      <c r="I638" t="n">
-        <v>190600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I638" t="inlineStr"/>
       <c r="J638" t="n">
-        <v>191500</v>
+        <v>190300</v>
       </c>
       <c r="K638" t="inlineStr">
         <is>
@@ -21908,7 +21564,7 @@
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="n">
-        <v>191500</v>
+        <v>190300</v>
       </c>
       <c r="K639" t="inlineStr">
         <is>
@@ -21947,7 +21603,7 @@
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="n">
-        <v>191500</v>
+        <v>190300</v>
       </c>
       <c r="K640" t="inlineStr">
         <is>
@@ -21986,7 +21642,7 @@
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="n">
-        <v>191500</v>
+        <v>190300</v>
       </c>
       <c r="K641" t="inlineStr">
         <is>
@@ -22025,7 +21681,7 @@
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="n">
-        <v>191500</v>
+        <v>190300</v>
       </c>
       <c r="K642" t="inlineStr">
         <is>
@@ -22060,11 +21716,13 @@
         <v>-46444.9985278183</v>
       </c>
       <c r="H643" t="n">
-        <v>0</v>
-      </c>
-      <c r="I643" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I643" t="n">
+        <v>191200</v>
+      </c>
       <c r="J643" t="n">
-        <v>191500</v>
+        <v>190300</v>
       </c>
       <c r="K643" t="inlineStr">
         <is>
@@ -22105,7 +21763,7 @@
         <v>190800</v>
       </c>
       <c r="J644" t="n">
-        <v>191500</v>
+        <v>190300</v>
       </c>
       <c r="K644" t="inlineStr">
         <is>
@@ -22146,7 +21804,7 @@
         <v>190500</v>
       </c>
       <c r="J645" t="n">
-        <v>191500</v>
+        <v>190300</v>
       </c>
       <c r="K645" t="inlineStr">
         <is>
@@ -22187,7 +21845,7 @@
         <v>190800</v>
       </c>
       <c r="J646" t="n">
-        <v>191500</v>
+        <v>190300</v>
       </c>
       <c r="K646" t="inlineStr">
         <is>
@@ -22228,7 +21886,7 @@
         <v>190300</v>
       </c>
       <c r="J647" t="n">
-        <v>191500</v>
+        <v>190300</v>
       </c>
       <c r="K647" t="inlineStr">
         <is>
@@ -22269,7 +21927,7 @@
         <v>190400</v>
       </c>
       <c r="J648" t="n">
-        <v>191500</v>
+        <v>190300</v>
       </c>
       <c r="K648" t="inlineStr">
         <is>
@@ -22310,7 +21968,7 @@
         <v>190200</v>
       </c>
       <c r="J649" t="n">
-        <v>191500</v>
+        <v>190300</v>
       </c>
       <c r="K649" t="inlineStr">
         <is>
@@ -22345,13 +22003,11 @@
         <v>-46368.5050278183</v>
       </c>
       <c r="H650" t="n">
-        <v>1</v>
-      </c>
-      <c r="I650" t="n">
-        <v>190400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I650" t="inlineStr"/>
       <c r="J650" t="n">
-        <v>191500</v>
+        <v>190300</v>
       </c>
       <c r="K650" t="inlineStr">
         <is>
@@ -22392,7 +22048,7 @@
         <v>190700</v>
       </c>
       <c r="J651" t="n">
-        <v>191500</v>
+        <v>190300</v>
       </c>
       <c r="K651" t="inlineStr">
         <is>
@@ -22427,13 +22083,11 @@
         <v>-46379.2245278183</v>
       </c>
       <c r="H652" t="n">
-        <v>1</v>
-      </c>
-      <c r="I652" t="n">
-        <v>190600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I652" t="inlineStr"/>
       <c r="J652" t="n">
-        <v>191500</v>
+        <v>190300</v>
       </c>
       <c r="K652" t="inlineStr">
         <is>
@@ -22472,7 +22126,7 @@
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="n">
-        <v>191500</v>
+        <v>190300</v>
       </c>
       <c r="K653" t="inlineStr">
         <is>
@@ -22507,13 +22161,11 @@
         <v>-46393.8008278183</v>
       </c>
       <c r="H654" t="n">
-        <v>1</v>
-      </c>
-      <c r="I654" t="n">
-        <v>190400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I654" t="inlineStr"/>
       <c r="J654" t="n">
-        <v>191500</v>
+        <v>190300</v>
       </c>
       <c r="K654" t="inlineStr">
         <is>
@@ -22548,13 +22200,11 @@
         <v>-46388.19152781831</v>
       </c>
       <c r="H655" t="n">
-        <v>1</v>
-      </c>
-      <c r="I655" t="n">
-        <v>190500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I655" t="inlineStr"/>
       <c r="J655" t="n">
-        <v>191500</v>
+        <v>190300</v>
       </c>
       <c r="K655" t="inlineStr">
         <is>
@@ -22593,7 +22243,7 @@
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="n">
-        <v>191500</v>
+        <v>190300</v>
       </c>
       <c r="K656" t="inlineStr">
         <is>
@@ -22634,7 +22284,7 @@
         <v>190300</v>
       </c>
       <c r="J657" t="n">
-        <v>191500</v>
+        <v>190300</v>
       </c>
       <c r="K657" t="inlineStr">
         <is>
@@ -22669,13 +22319,11 @@
         <v>-46383.83532781831</v>
       </c>
       <c r="H658" t="n">
-        <v>1</v>
-      </c>
-      <c r="I658" t="n">
-        <v>190500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I658" t="inlineStr"/>
       <c r="J658" t="n">
-        <v>191500</v>
+        <v>190300</v>
       </c>
       <c r="K658" t="inlineStr">
         <is>
@@ -22716,7 +22364,7 @@
         <v>190300</v>
       </c>
       <c r="J659" t="n">
-        <v>191500</v>
+        <v>190300</v>
       </c>
       <c r="K659" t="inlineStr">
         <is>
@@ -22757,7 +22405,7 @@
         <v>190500</v>
       </c>
       <c r="J660" t="n">
-        <v>191500</v>
+        <v>190300</v>
       </c>
       <c r="K660" t="inlineStr">
         <is>
@@ -22798,7 +22446,7 @@
         <v>190300</v>
       </c>
       <c r="J661" t="n">
-        <v>191500</v>
+        <v>190300</v>
       </c>
       <c r="K661" t="inlineStr">
         <is>
@@ -22833,13 +22481,11 @@
         <v>-46315.51452676843</v>
       </c>
       <c r="H662" t="n">
-        <v>1</v>
-      </c>
-      <c r="I662" t="n">
-        <v>190600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I662" t="inlineStr"/>
       <c r="J662" t="n">
-        <v>191500</v>
+        <v>190300</v>
       </c>
       <c r="K662" t="inlineStr">
         <is>
@@ -22878,7 +22524,7 @@
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="n">
-        <v>191500</v>
+        <v>190300</v>
       </c>
       <c r="K663" t="inlineStr">
         <is>
@@ -22917,7 +22563,7 @@
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="n">
-        <v>191500</v>
+        <v>190300</v>
       </c>
       <c r="K664" t="inlineStr">
         <is>
@@ -22956,7 +22602,7 @@
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="n">
-        <v>191500</v>
+        <v>190300</v>
       </c>
       <c r="K665" t="inlineStr">
         <is>
@@ -22991,21 +22637,19 @@
         <v>-46314.70672676844</v>
       </c>
       <c r="H666" t="n">
-        <v>1</v>
-      </c>
-      <c r="I666" t="n">
-        <v>190500</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I666" t="inlineStr"/>
       <c r="J666" t="n">
-        <v>191500</v>
+        <v>190300</v>
       </c>
       <c r="K666" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L666" t="n">
-        <v>1</v>
+        <v>0.9955254860746191</v>
       </c>
       <c r="M666" t="inlineStr"/>
     </row>
@@ -23032,19 +22676,11 @@
         <v>-46305.20576727211</v>
       </c>
       <c r="H667" t="n">
-        <v>1</v>
-      </c>
-      <c r="I667" t="n">
-        <v>190400</v>
-      </c>
-      <c r="J667" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K667" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I667" t="inlineStr"/>
+      <c r="J667" t="inlineStr"/>
+      <c r="K667" t="inlineStr"/>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -23073,19 +22709,11 @@
         <v>-46293.91920932769</v>
       </c>
       <c r="H668" t="n">
-        <v>1</v>
-      </c>
-      <c r="I668" t="n">
-        <v>190600</v>
-      </c>
-      <c r="J668" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K668" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I668" t="inlineStr"/>
+      <c r="J668" t="inlineStr"/>
+      <c r="K668" t="inlineStr"/>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -23117,14 +22745,8 @@
         <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
-      <c r="J669" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K669" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J669" t="inlineStr"/>
+      <c r="K669" t="inlineStr"/>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -23153,19 +22775,11 @@
         <v>-46281.2622093277</v>
       </c>
       <c r="H670" t="n">
-        <v>1</v>
-      </c>
-      <c r="I670" t="n">
-        <v>190400</v>
-      </c>
-      <c r="J670" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K670" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I670" t="inlineStr"/>
+      <c r="J670" t="inlineStr"/>
+      <c r="K670" t="inlineStr"/>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -23197,14 +22811,8 @@
         <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
-      <c r="J671" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K671" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J671" t="inlineStr"/>
+      <c r="K671" t="inlineStr"/>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -23236,14 +22844,8 @@
         <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
-      <c r="J672" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K672" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J672" t="inlineStr"/>
+      <c r="K672" t="inlineStr"/>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -23275,14 +22877,8 @@
         <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
-      <c r="J673" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K673" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J673" t="inlineStr"/>
+      <c r="K673" t="inlineStr"/>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -23314,14 +22910,8 @@
         <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
-      <c r="J674" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K674" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J674" t="inlineStr"/>
+      <c r="K674" t="inlineStr"/>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -23353,14 +22943,8 @@
         <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
-      <c r="J675" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K675" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J675" t="inlineStr"/>
+      <c r="K675" t="inlineStr"/>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -23392,14 +22976,8 @@
         <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
-      <c r="J676" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K676" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J676" t="inlineStr"/>
+      <c r="K676" t="inlineStr"/>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -23428,19 +23006,11 @@
         <v>-46465.1840093277</v>
       </c>
       <c r="H677" t="n">
-        <v>1</v>
-      </c>
-      <c r="I677" t="n">
-        <v>190300</v>
-      </c>
-      <c r="J677" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K677" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I677" t="inlineStr"/>
+      <c r="J677" t="inlineStr"/>
+      <c r="K677" t="inlineStr"/>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -23469,19 +23039,11 @@
         <v>-46461.1115093277</v>
       </c>
       <c r="H678" t="n">
-        <v>1</v>
-      </c>
-      <c r="I678" t="n">
-        <v>190400</v>
-      </c>
-      <c r="J678" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K678" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I678" t="inlineStr"/>
+      <c r="J678" t="inlineStr"/>
+      <c r="K678" t="inlineStr"/>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -23510,19 +23072,11 @@
         <v>-46432.01570932769</v>
       </c>
       <c r="H679" t="n">
-        <v>1</v>
-      </c>
-      <c r="I679" t="n">
-        <v>190500</v>
-      </c>
-      <c r="J679" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K679" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I679" t="inlineStr"/>
+      <c r="J679" t="inlineStr"/>
+      <c r="K679" t="inlineStr"/>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -23551,19 +23105,11 @@
         <v>-46403.74180932769</v>
       </c>
       <c r="H680" t="n">
-        <v>1</v>
-      </c>
-      <c r="I680" t="n">
-        <v>190700</v>
-      </c>
-      <c r="J680" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K680" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I680" t="inlineStr"/>
+      <c r="J680" t="inlineStr"/>
+      <c r="K680" t="inlineStr"/>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -23595,14 +23141,8 @@
         <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
-      <c r="J681" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K681" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J681" t="inlineStr"/>
+      <c r="K681" t="inlineStr"/>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -23634,14 +23174,8 @@
         <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
-      <c r="J682" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K682" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J682" t="inlineStr"/>
+      <c r="K682" t="inlineStr"/>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -23673,14 +23207,8 @@
         <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
-      <c r="J683" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K683" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J683" t="inlineStr"/>
+      <c r="K683" t="inlineStr"/>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -23712,14 +23240,8 @@
         <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
-      <c r="J684" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K684" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J684" t="inlineStr"/>
+      <c r="K684" t="inlineStr"/>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -23751,14 +23273,8 @@
         <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
-      <c r="J685" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K685" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J685" t="inlineStr"/>
+      <c r="K685" t="inlineStr"/>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -23790,14 +23306,8 @@
         <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
-      <c r="J686" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K686" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J686" t="inlineStr"/>
+      <c r="K686" t="inlineStr"/>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -23829,14 +23339,8 @@
         <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
-      <c r="J687" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K687" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J687" t="inlineStr"/>
+      <c r="K687" t="inlineStr"/>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -23868,14 +23372,8 @@
         <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
-      <c r="J688" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K688" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J688" t="inlineStr"/>
+      <c r="K688" t="inlineStr"/>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -23907,14 +23405,8 @@
         <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
-      <c r="J689" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K689" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J689" t="inlineStr"/>
+      <c r="K689" t="inlineStr"/>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -23946,14 +23438,8 @@
         <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
-      <c r="J690" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K690" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J690" t="inlineStr"/>
+      <c r="K690" t="inlineStr"/>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -23985,14 +23471,8 @@
         <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
-      <c r="J691" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K691" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J691" t="inlineStr"/>
+      <c r="K691" t="inlineStr"/>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -24024,14 +23504,8 @@
         <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
-      <c r="J692" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K692" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J692" t="inlineStr"/>
+      <c r="K692" t="inlineStr"/>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -24063,14 +23537,8 @@
         <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
-      <c r="J693" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K693" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J693" t="inlineStr"/>
+      <c r="K693" t="inlineStr"/>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -24102,14 +23570,8 @@
         <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
-      <c r="J694" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K694" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J694" t="inlineStr"/>
+      <c r="K694" t="inlineStr"/>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -24141,14 +23603,8 @@
         <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
-      <c r="J695" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K695" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J695" t="inlineStr"/>
+      <c r="K695" t="inlineStr"/>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -24180,14 +23636,8 @@
         <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
-      <c r="J696" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K696" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J696" t="inlineStr"/>
+      <c r="K696" t="inlineStr"/>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -24219,14 +23669,8 @@
         <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
-      <c r="J697" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K697" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J697" t="inlineStr"/>
+      <c r="K697" t="inlineStr"/>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -24258,14 +23702,8 @@
         <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
-      <c r="J698" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K698" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J698" t="inlineStr"/>
+      <c r="K698" t="inlineStr"/>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -24297,14 +23735,8 @@
         <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
-      <c r="J699" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K699" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J699" t="inlineStr"/>
+      <c r="K699" t="inlineStr"/>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -24336,14 +23768,8 @@
         <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
-      <c r="J700" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K700" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J700" t="inlineStr"/>
+      <c r="K700" t="inlineStr"/>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -24372,19 +23798,11 @@
         <v>-46286.80040723346</v>
       </c>
       <c r="H701" t="n">
-        <v>1</v>
-      </c>
-      <c r="I701" t="n">
-        <v>190500</v>
-      </c>
-      <c r="J701" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K701" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I701" t="inlineStr"/>
+      <c r="J701" t="inlineStr"/>
+      <c r="K701" t="inlineStr"/>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -24413,19 +23831,11 @@
         <v>-46252.48410723346</v>
       </c>
       <c r="H702" t="n">
-        <v>1</v>
-      </c>
-      <c r="I702" t="n">
-        <v>190500</v>
-      </c>
-      <c r="J702" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K702" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I702" t="inlineStr"/>
+      <c r="J702" t="inlineStr"/>
+      <c r="K702" t="inlineStr"/>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -24454,19 +23864,11 @@
         <v>-46252.48410723346</v>
       </c>
       <c r="H703" t="n">
-        <v>1</v>
-      </c>
-      <c r="I703" t="n">
-        <v>190700</v>
-      </c>
-      <c r="J703" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K703" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I703" t="inlineStr"/>
+      <c r="J703" t="inlineStr"/>
+      <c r="K703" t="inlineStr"/>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -24495,19 +23897,11 @@
         <v>-46252.85970723346</v>
       </c>
       <c r="H704" t="n">
-        <v>1</v>
-      </c>
-      <c r="I704" t="n">
-        <v>190700</v>
-      </c>
-      <c r="J704" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K704" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I704" t="inlineStr"/>
+      <c r="J704" t="inlineStr"/>
+      <c r="K704" t="inlineStr"/>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -24536,19 +23930,11 @@
         <v>-46252.85970723346</v>
       </c>
       <c r="H705" t="n">
-        <v>1</v>
-      </c>
-      <c r="I705" t="n">
-        <v>190600</v>
-      </c>
-      <c r="J705" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K705" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I705" t="inlineStr"/>
+      <c r="J705" t="inlineStr"/>
+      <c r="K705" t="inlineStr"/>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -24577,19 +23963,11 @@
         <v>-46245.11930723346</v>
       </c>
       <c r="H706" t="n">
-        <v>1</v>
-      </c>
-      <c r="I706" t="n">
-        <v>190600</v>
-      </c>
-      <c r="J706" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K706" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I706" t="inlineStr"/>
+      <c r="J706" t="inlineStr"/>
+      <c r="K706" t="inlineStr"/>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -24618,19 +23996,11 @@
         <v>-46245.11930723346</v>
       </c>
       <c r="H707" t="n">
-        <v>1</v>
-      </c>
-      <c r="I707" t="n">
-        <v>190700</v>
-      </c>
-      <c r="J707" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K707" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I707" t="inlineStr"/>
+      <c r="J707" t="inlineStr"/>
+      <c r="K707" t="inlineStr"/>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -24659,19 +24029,11 @@
         <v>-46329.97340723345</v>
       </c>
       <c r="H708" t="n">
-        <v>1</v>
-      </c>
-      <c r="I708" t="n">
-        <v>190700</v>
-      </c>
-      <c r="J708" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K708" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I708" t="inlineStr"/>
+      <c r="J708" t="inlineStr"/>
+      <c r="K708" t="inlineStr"/>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -24700,19 +24062,11 @@
         <v>-46329.97340723345</v>
       </c>
       <c r="H709" t="n">
-        <v>1</v>
-      </c>
-      <c r="I709" t="n">
-        <v>190600</v>
-      </c>
-      <c r="J709" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K709" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I709" t="inlineStr"/>
+      <c r="J709" t="inlineStr"/>
+      <c r="K709" t="inlineStr"/>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -24741,19 +24095,11 @@
         <v>-46344.88450723345</v>
       </c>
       <c r="H710" t="n">
-        <v>1</v>
-      </c>
-      <c r="I710" t="n">
-        <v>190600</v>
-      </c>
-      <c r="J710" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K710" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I710" t="inlineStr"/>
+      <c r="J710" t="inlineStr"/>
+      <c r="K710" t="inlineStr"/>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -24782,19 +24128,11 @@
         <v>-46344.88450723345</v>
       </c>
       <c r="H711" t="n">
-        <v>1</v>
-      </c>
-      <c r="I711" t="n">
-        <v>190500</v>
-      </c>
-      <c r="J711" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K711" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I711" t="inlineStr"/>
+      <c r="J711" t="inlineStr"/>
+      <c r="K711" t="inlineStr"/>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -24823,19 +24161,11 @@
         <v>-46342.26912705516</v>
       </c>
       <c r="H712" t="n">
-        <v>1</v>
-      </c>
-      <c r="I712" t="n">
-        <v>190500</v>
-      </c>
-      <c r="J712" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K712" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I712" t="inlineStr"/>
+      <c r="J712" t="inlineStr"/>
+      <c r="K712" t="inlineStr"/>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -24867,14 +24197,8 @@
         <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
-      <c r="J713" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K713" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J713" t="inlineStr"/>
+      <c r="K713" t="inlineStr"/>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -24903,19 +24227,11 @@
         <v>-46344.64842705516</v>
       </c>
       <c r="H714" t="n">
-        <v>1</v>
-      </c>
-      <c r="I714" t="n">
-        <v>190600</v>
-      </c>
-      <c r="J714" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K714" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I714" t="inlineStr"/>
+      <c r="J714" t="inlineStr"/>
+      <c r="K714" t="inlineStr"/>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -24944,19 +24260,11 @@
         <v>-46346.47242705516</v>
       </c>
       <c r="H715" t="n">
-        <v>1</v>
-      </c>
-      <c r="I715" t="n">
-        <v>190500</v>
-      </c>
-      <c r="J715" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K715" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I715" t="inlineStr"/>
+      <c r="J715" t="inlineStr"/>
+      <c r="K715" t="inlineStr"/>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -24985,19 +24293,11 @@
         <v>-46346.47242705516</v>
       </c>
       <c r="H716" t="n">
-        <v>1</v>
-      </c>
-      <c r="I716" t="n">
-        <v>190400</v>
-      </c>
-      <c r="J716" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K716" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I716" t="inlineStr"/>
+      <c r="J716" t="inlineStr"/>
+      <c r="K716" t="inlineStr"/>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -25026,19 +24326,11 @@
         <v>-46327.34072705516</v>
       </c>
       <c r="H717" t="n">
-        <v>1</v>
-      </c>
-      <c r="I717" t="n">
-        <v>190400</v>
-      </c>
-      <c r="J717" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K717" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I717" t="inlineStr"/>
+      <c r="J717" t="inlineStr"/>
+      <c r="K717" t="inlineStr"/>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -25067,19 +24359,11 @@
         <v>-46326.53802705516</v>
       </c>
       <c r="H718" t="n">
-        <v>1</v>
-      </c>
-      <c r="I718" t="n">
-        <v>190500</v>
-      </c>
-      <c r="J718" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K718" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I718" t="inlineStr"/>
+      <c r="J718" t="inlineStr"/>
+      <c r="K718" t="inlineStr"/>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -25108,19 +24392,11 @@
         <v>-46326.87522705516</v>
       </c>
       <c r="H719" t="n">
-        <v>1</v>
-      </c>
-      <c r="I719" t="n">
-        <v>190700</v>
-      </c>
-      <c r="J719" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K719" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I719" t="inlineStr"/>
+      <c r="J719" t="inlineStr"/>
+      <c r="K719" t="inlineStr"/>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -25149,19 +24425,11 @@
         <v>-46345.01982705516</v>
       </c>
       <c r="H720" t="n">
-        <v>1</v>
-      </c>
-      <c r="I720" t="n">
-        <v>190600</v>
-      </c>
-      <c r="J720" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K720" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I720" t="inlineStr"/>
+      <c r="J720" t="inlineStr"/>
+      <c r="K720" t="inlineStr"/>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -25190,19 +24458,11 @@
         <v>-46345.01982705516</v>
       </c>
       <c r="H721" t="n">
-        <v>1</v>
-      </c>
-      <c r="I721" t="n">
-        <v>190500</v>
-      </c>
-      <c r="J721" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K721" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I721" t="inlineStr"/>
+      <c r="J721" t="inlineStr"/>
+      <c r="K721" t="inlineStr"/>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -25231,19 +24491,11 @@
         <v>-46345.01982705516</v>
       </c>
       <c r="H722" t="n">
-        <v>1</v>
-      </c>
-      <c r="I722" t="n">
-        <v>190500</v>
-      </c>
-      <c r="J722" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K722" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I722" t="inlineStr"/>
+      <c r="J722" t="inlineStr"/>
+      <c r="K722" t="inlineStr"/>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -25272,19 +24524,11 @@
         <v>-46345.01982705516</v>
       </c>
       <c r="H723" t="n">
-        <v>1</v>
-      </c>
-      <c r="I723" t="n">
-        <v>190500</v>
-      </c>
-      <c r="J723" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K723" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I723" t="inlineStr"/>
+      <c r="J723" t="inlineStr"/>
+      <c r="K723" t="inlineStr"/>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -25313,19 +24557,11 @@
         <v>-46345.01982705516</v>
       </c>
       <c r="H724" t="n">
-        <v>1</v>
-      </c>
-      <c r="I724" t="n">
-        <v>190500</v>
-      </c>
-      <c r="J724" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K724" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I724" t="inlineStr"/>
+      <c r="J724" t="inlineStr"/>
+      <c r="K724" t="inlineStr"/>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -25354,19 +24590,11 @@
         <v>-46345.01982705516</v>
       </c>
       <c r="H725" t="n">
-        <v>1</v>
-      </c>
-      <c r="I725" t="n">
-        <v>190500</v>
-      </c>
-      <c r="J725" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K725" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I725" t="inlineStr"/>
+      <c r="J725" t="inlineStr"/>
+      <c r="K725" t="inlineStr"/>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -25395,19 +24623,11 @@
         <v>-46345.01982705516</v>
       </c>
       <c r="H726" t="n">
-        <v>1</v>
-      </c>
-      <c r="I726" t="n">
-        <v>190500</v>
-      </c>
-      <c r="J726" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K726" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I726" t="inlineStr"/>
+      <c r="J726" t="inlineStr"/>
+      <c r="K726" t="inlineStr"/>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -25436,19 +24656,11 @@
         <v>-46345.01982705516</v>
       </c>
       <c r="H727" t="n">
-        <v>1</v>
-      </c>
-      <c r="I727" t="n">
-        <v>190500</v>
-      </c>
-      <c r="J727" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K727" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I727" t="inlineStr"/>
+      <c r="J727" t="inlineStr"/>
+      <c r="K727" t="inlineStr"/>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -25477,19 +24689,11 @@
         <v>-46336.56152705516</v>
       </c>
       <c r="H728" t="n">
-        <v>1</v>
-      </c>
-      <c r="I728" t="n">
-        <v>190500</v>
-      </c>
-      <c r="J728" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K728" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I728" t="inlineStr"/>
+      <c r="J728" t="inlineStr"/>
+      <c r="K728" t="inlineStr"/>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -25518,19 +24722,11 @@
         <v>-46350.58322705516</v>
       </c>
       <c r="H729" t="n">
-        <v>1</v>
-      </c>
-      <c r="I729" t="n">
-        <v>190700</v>
-      </c>
-      <c r="J729" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K729" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I729" t="inlineStr"/>
+      <c r="J729" t="inlineStr"/>
+      <c r="K729" t="inlineStr"/>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -25559,19 +24755,11 @@
         <v>-46171.70219598769</v>
       </c>
       <c r="H730" t="n">
-        <v>1</v>
-      </c>
-      <c r="I730" t="n">
-        <v>190400</v>
-      </c>
-      <c r="J730" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K730" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I730" t="inlineStr"/>
+      <c r="J730" t="inlineStr"/>
+      <c r="K730" t="inlineStr"/>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -25600,19 +24788,11 @@
         <v>-46185.24309598769</v>
       </c>
       <c r="H731" t="n">
-        <v>1</v>
-      </c>
-      <c r="I731" t="n">
-        <v>190900</v>
-      </c>
-      <c r="J731" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K731" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I731" t="inlineStr"/>
+      <c r="J731" t="inlineStr"/>
+      <c r="K731" t="inlineStr"/>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -25641,19 +24821,11 @@
         <v>-46185.24309598769</v>
       </c>
       <c r="H732" t="n">
-        <v>1</v>
-      </c>
-      <c r="I732" t="n">
-        <v>190200</v>
-      </c>
-      <c r="J732" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K732" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I732" t="inlineStr"/>
+      <c r="J732" t="inlineStr"/>
+      <c r="K732" t="inlineStr"/>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -25682,19 +24854,11 @@
         <v>-46201.21959598768</v>
       </c>
       <c r="H733" t="n">
-        <v>1</v>
-      </c>
-      <c r="I733" t="n">
-        <v>190200</v>
-      </c>
-      <c r="J733" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K733" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I733" t="inlineStr"/>
+      <c r="J733" t="inlineStr"/>
+      <c r="K733" t="inlineStr"/>
       <c r="L733" t="n">
         <v>1</v>
       </c>
@@ -25723,19 +24887,11 @@
         <v>-46225.03569598768</v>
       </c>
       <c r="H734" t="n">
-        <v>1</v>
-      </c>
-      <c r="I734" t="n">
-        <v>190100</v>
-      </c>
-      <c r="J734" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K734" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I734" t="inlineStr"/>
+      <c r="J734" t="inlineStr"/>
+      <c r="K734" t="inlineStr"/>
       <c r="L734" t="n">
         <v>1</v>
       </c>
@@ -25764,19 +24920,11 @@
         <v>-46143.46079598768</v>
       </c>
       <c r="H735" t="n">
-        <v>1</v>
-      </c>
-      <c r="I735" t="n">
-        <v>190000</v>
-      </c>
-      <c r="J735" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K735" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I735" t="inlineStr"/>
+      <c r="J735" t="inlineStr"/>
+      <c r="K735" t="inlineStr"/>
       <c r="L735" t="n">
         <v>1</v>
       </c>
@@ -25805,19 +24953,11 @@
         <v>-46202.27019598768</v>
       </c>
       <c r="H736" t="n">
-        <v>1</v>
-      </c>
-      <c r="I736" t="n">
-        <v>190200</v>
-      </c>
-      <c r="J736" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K736" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I736" t="inlineStr"/>
+      <c r="J736" t="inlineStr"/>
+      <c r="K736" t="inlineStr"/>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -25846,19 +24986,11 @@
         <v>-46202.27019598768</v>
       </c>
       <c r="H737" t="n">
-        <v>1</v>
-      </c>
-      <c r="I737" t="n">
-        <v>190000</v>
-      </c>
-      <c r="J737" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K737" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I737" t="inlineStr"/>
+      <c r="J737" t="inlineStr"/>
+      <c r="K737" t="inlineStr"/>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -25887,19 +25019,11 @@
         <v>-46202.27019598768</v>
       </c>
       <c r="H738" t="n">
-        <v>1</v>
-      </c>
-      <c r="I738" t="n">
-        <v>190000</v>
-      </c>
-      <c r="J738" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K738" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I738" t="inlineStr"/>
+      <c r="J738" t="inlineStr"/>
+      <c r="K738" t="inlineStr"/>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -25928,19 +25052,11 @@
         <v>-46181.48449598768</v>
       </c>
       <c r="H739" t="n">
-        <v>1</v>
-      </c>
-      <c r="I739" t="n">
-        <v>190000</v>
-      </c>
-      <c r="J739" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K739" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I739" t="inlineStr"/>
+      <c r="J739" t="inlineStr"/>
+      <c r="K739" t="inlineStr"/>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -25969,19 +25085,11 @@
         <v>-46222.29859598768</v>
       </c>
       <c r="H740" t="n">
-        <v>1</v>
-      </c>
-      <c r="I740" t="n">
-        <v>190200</v>
-      </c>
-      <c r="J740" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K740" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I740" t="inlineStr"/>
+      <c r="J740" t="inlineStr"/>
+      <c r="K740" t="inlineStr"/>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -26010,19 +25118,11 @@
         <v>-46222.29859598768</v>
       </c>
       <c r="H741" t="n">
-        <v>1</v>
-      </c>
-      <c r="I741" t="n">
-        <v>189900</v>
-      </c>
-      <c r="J741" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K741" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I741" t="inlineStr"/>
+      <c r="J741" t="inlineStr"/>
+      <c r="K741" t="inlineStr"/>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -26051,19 +25151,11 @@
         <v>-46223.61219598768</v>
       </c>
       <c r="H742" t="n">
-        <v>1</v>
-      </c>
-      <c r="I742" t="n">
-        <v>189900</v>
-      </c>
-      <c r="J742" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K742" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I742" t="inlineStr"/>
+      <c r="J742" t="inlineStr"/>
+      <c r="K742" t="inlineStr"/>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -26092,19 +25184,11 @@
         <v>-46220.52479598769</v>
       </c>
       <c r="H743" t="n">
-        <v>1</v>
-      </c>
-      <c r="I743" t="n">
-        <v>189800</v>
-      </c>
-      <c r="J743" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K743" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I743" t="inlineStr"/>
+      <c r="J743" t="inlineStr"/>
+      <c r="K743" t="inlineStr"/>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -26133,19 +25217,11 @@
         <v>-46302.45409598769</v>
       </c>
       <c r="H744" t="n">
-        <v>1</v>
-      </c>
-      <c r="I744" t="n">
-        <v>189900</v>
-      </c>
-      <c r="J744" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K744" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I744" t="inlineStr"/>
+      <c r="J744" t="inlineStr"/>
+      <c r="K744" t="inlineStr"/>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -26174,19 +25250,11 @@
         <v>-46295.58079598769</v>
       </c>
       <c r="H745" t="n">
-        <v>1</v>
-      </c>
-      <c r="I745" t="n">
-        <v>189800</v>
-      </c>
-      <c r="J745" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K745" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I745" t="inlineStr"/>
+      <c r="J745" t="inlineStr"/>
+      <c r="K745" t="inlineStr"/>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -26215,19 +25283,11 @@
         <v>-46293.46339598769</v>
       </c>
       <c r="H746" t="n">
-        <v>1</v>
-      </c>
-      <c r="I746" t="n">
-        <v>189900</v>
-      </c>
-      <c r="J746" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K746" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I746" t="inlineStr"/>
+      <c r="J746" t="inlineStr"/>
+      <c r="K746" t="inlineStr"/>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -26256,19 +25316,11 @@
         <v>-46293.46339598769</v>
       </c>
       <c r="H747" t="n">
-        <v>1</v>
-      </c>
-      <c r="I747" t="n">
-        <v>190100</v>
-      </c>
-      <c r="J747" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K747" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I747" t="inlineStr"/>
+      <c r="J747" t="inlineStr"/>
+      <c r="K747" t="inlineStr"/>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -26303,13 +25355,9 @@
         <v>190100</v>
       </c>
       <c r="J748" t="n">
-        <v>191500</v>
-      </c>
-      <c r="K748" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>190100</v>
+      </c>
+      <c r="K748" t="inlineStr"/>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -26338,17 +25386,15 @@
         <v>-46254.01219598769</v>
       </c>
       <c r="H749" t="n">
-        <v>1</v>
-      </c>
-      <c r="I749" t="n">
-        <v>190100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I749" t="inlineStr"/>
       <c r="J749" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K749" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L749" t="n">
@@ -26379,13 +25425,11 @@
         <v>-46254.01219598769</v>
       </c>
       <c r="H750" t="n">
-        <v>1</v>
-      </c>
-      <c r="I750" t="n">
-        <v>190200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I750" t="inlineStr"/>
       <c r="J750" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K750" t="inlineStr">
         <is>
@@ -26426,7 +25470,7 @@
         <v>190200</v>
       </c>
       <c r="J751" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K751" t="inlineStr">
         <is>
@@ -26461,13 +25505,11 @@
         <v>-46245.76661016091</v>
       </c>
       <c r="H752" t="n">
-        <v>1</v>
-      </c>
-      <c r="I752" t="n">
-        <v>190500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I752" t="inlineStr"/>
       <c r="J752" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K752" t="inlineStr">
         <is>
@@ -26502,13 +25544,11 @@
         <v>-46247.76661016091</v>
       </c>
       <c r="H753" t="n">
-        <v>1</v>
-      </c>
-      <c r="I753" t="n">
-        <v>190400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I753" t="inlineStr"/>
       <c r="J753" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K753" t="inlineStr">
         <is>
@@ -26543,13 +25583,11 @@
         <v>-46252.18061016091</v>
       </c>
       <c r="H754" t="n">
-        <v>1</v>
-      </c>
-      <c r="I754" t="n">
-        <v>190300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I754" t="inlineStr"/>
       <c r="J754" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K754" t="inlineStr">
         <is>
@@ -26584,13 +25622,11 @@
         <v>-46256.18061016091</v>
       </c>
       <c r="H755" t="n">
-        <v>1</v>
-      </c>
-      <c r="I755" t="n">
-        <v>190100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I755" t="inlineStr"/>
       <c r="J755" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K755" t="inlineStr">
         <is>
@@ -26625,13 +25661,11 @@
         <v>-46256.18061016091</v>
       </c>
       <c r="H756" t="n">
-        <v>1</v>
-      </c>
-      <c r="I756" t="n">
-        <v>190000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I756" t="inlineStr"/>
       <c r="J756" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K756" t="inlineStr">
         <is>
@@ -26666,13 +25700,11 @@
         <v>-46248.23351762674</v>
       </c>
       <c r="H757" t="n">
-        <v>1</v>
-      </c>
-      <c r="I757" t="n">
-        <v>190000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I757" t="inlineStr"/>
       <c r="J757" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K757" t="inlineStr">
         <is>
@@ -26707,13 +25739,11 @@
         <v>-46253.19591762673</v>
       </c>
       <c r="H758" t="n">
-        <v>1</v>
-      </c>
-      <c r="I758" t="n">
-        <v>190200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I758" t="inlineStr"/>
       <c r="J758" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K758" t="inlineStr">
         <is>
@@ -26748,13 +25778,11 @@
         <v>-46318.63891762673</v>
       </c>
       <c r="H759" t="n">
-        <v>1</v>
-      </c>
-      <c r="I759" t="n">
-        <v>190100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I759" t="inlineStr"/>
       <c r="J759" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K759" t="inlineStr">
         <is>
@@ -26789,13 +25817,11 @@
         <v>-46318.63891762673</v>
       </c>
       <c r="H760" t="n">
-        <v>1</v>
-      </c>
-      <c r="I760" t="n">
-        <v>190000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I760" t="inlineStr"/>
       <c r="J760" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K760" t="inlineStr">
         <is>
@@ -26830,13 +25856,11 @@
         <v>-46467.99231762673</v>
       </c>
       <c r="H761" t="n">
-        <v>1</v>
-      </c>
-      <c r="I761" t="n">
-        <v>190000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I761" t="inlineStr"/>
       <c r="J761" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K761" t="inlineStr">
         <is>
@@ -26871,13 +25895,11 @@
         <v>-46467.99231762673</v>
       </c>
       <c r="H762" t="n">
-        <v>1</v>
-      </c>
-      <c r="I762" t="n">
-        <v>189800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I762" t="inlineStr"/>
       <c r="J762" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K762" t="inlineStr">
         <is>
@@ -26912,13 +25934,11 @@
         <v>-46380.49731762673</v>
       </c>
       <c r="H763" t="n">
-        <v>1</v>
-      </c>
-      <c r="I763" t="n">
-        <v>189800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I763" t="inlineStr"/>
       <c r="J763" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K763" t="inlineStr">
         <is>
@@ -26953,13 +25973,11 @@
         <v>-46380.49731762673</v>
       </c>
       <c r="H764" t="n">
-        <v>1</v>
-      </c>
-      <c r="I764" t="n">
-        <v>190000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I764" t="inlineStr"/>
       <c r="J764" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K764" t="inlineStr">
         <is>
@@ -26994,13 +26012,11 @@
         <v>-46367.99501762673</v>
       </c>
       <c r="H765" t="n">
-        <v>1</v>
-      </c>
-      <c r="I765" t="n">
-        <v>190000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I765" t="inlineStr"/>
       <c r="J765" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K765" t="inlineStr">
         <is>
@@ -27035,13 +26051,11 @@
         <v>-46346.63701762673</v>
       </c>
       <c r="H766" t="n">
-        <v>1</v>
-      </c>
-      <c r="I766" t="n">
-        <v>190100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I766" t="inlineStr"/>
       <c r="J766" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K766" t="inlineStr">
         <is>
@@ -27076,13 +26090,11 @@
         <v>-46347.60361762673</v>
       </c>
       <c r="H767" t="n">
-        <v>1</v>
-      </c>
-      <c r="I767" t="n">
-        <v>190200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I767" t="inlineStr"/>
       <c r="J767" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K767" t="inlineStr">
         <is>
@@ -27123,7 +26135,7 @@
         <v>190000</v>
       </c>
       <c r="J768" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K768" t="inlineStr">
         <is>
@@ -27158,13 +26170,11 @@
         <v>-46333.47383995989</v>
       </c>
       <c r="H769" t="n">
-        <v>1</v>
-      </c>
-      <c r="I769" t="n">
-        <v>190300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I769" t="inlineStr"/>
       <c r="J769" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K769" t="inlineStr">
         <is>
@@ -27203,7 +26213,7 @@
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K770" t="inlineStr">
         <is>
@@ -27242,7 +26252,7 @@
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K771" t="inlineStr">
         <is>
@@ -27281,7 +26291,7 @@
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K772" t="inlineStr">
         <is>
@@ -27320,7 +26330,7 @@
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K773" t="inlineStr">
         <is>
@@ -27359,7 +26369,7 @@
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K774" t="inlineStr">
         <is>
@@ -27398,7 +26408,7 @@
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K775" t="inlineStr">
         <is>
@@ -27437,7 +26447,7 @@
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K776" t="inlineStr">
         <is>
@@ -27476,7 +26486,7 @@
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K777" t="inlineStr">
         <is>
@@ -27515,7 +26525,7 @@
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K778" t="inlineStr">
         <is>
@@ -27554,7 +26564,7 @@
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K779" t="inlineStr">
         <is>
@@ -27593,7 +26603,7 @@
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K780" t="inlineStr">
         <is>
@@ -27632,7 +26642,7 @@
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K781" t="inlineStr">
         <is>
@@ -27671,7 +26681,7 @@
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K782" t="inlineStr">
         <is>
@@ -27710,7 +26720,7 @@
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K783" t="inlineStr">
         <is>
@@ -27749,7 +26759,7 @@
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K784" t="inlineStr">
         <is>
@@ -27788,7 +26798,7 @@
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K785" t="inlineStr">
         <is>
@@ -27827,7 +26837,7 @@
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K786" t="inlineStr">
         <is>
@@ -27866,7 +26876,7 @@
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K787" t="inlineStr">
         <is>
@@ -27905,7 +26915,7 @@
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K788" t="inlineStr">
         <is>
@@ -27944,7 +26954,7 @@
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K789" t="inlineStr">
         <is>
@@ -27983,7 +26993,7 @@
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K790" t="inlineStr">
         <is>
@@ -28022,7 +27032,7 @@
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K791" t="inlineStr">
         <is>
@@ -28061,7 +27071,7 @@
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K792" t="inlineStr">
         <is>
@@ -28100,7 +27110,7 @@
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K793" t="inlineStr">
         <is>
@@ -28139,7 +27149,7 @@
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K794" t="inlineStr">
         <is>
@@ -28178,7 +27188,7 @@
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K795" t="inlineStr">
         <is>
@@ -28217,7 +27227,7 @@
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K796" t="inlineStr">
         <is>
@@ -28256,7 +27266,7 @@
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K797" t="inlineStr">
         <is>
@@ -28295,7 +27305,7 @@
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K798" t="inlineStr">
         <is>
@@ -28334,7 +27344,7 @@
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K799" t="inlineStr">
         <is>
@@ -28373,7 +27383,7 @@
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K800" t="inlineStr">
         <is>
@@ -28412,7 +27422,7 @@
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K801" t="inlineStr">
         <is>
@@ -28451,7 +27461,7 @@
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K802" t="inlineStr">
         <is>
@@ -28490,7 +27500,7 @@
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K803" t="inlineStr">
         <is>
@@ -28529,7 +27539,7 @@
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K804" t="inlineStr">
         <is>
@@ -28568,7 +27578,7 @@
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K805" t="inlineStr">
         <is>
@@ -28607,7 +27617,7 @@
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K806" t="inlineStr">
         <is>
@@ -28646,7 +27656,7 @@
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K807" t="inlineStr">
         <is>
@@ -28685,7 +27695,7 @@
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K808" t="inlineStr">
         <is>
@@ -28720,13 +27730,11 @@
         <v>-46313.49850347766</v>
       </c>
       <c r="H809" t="n">
-        <v>1</v>
-      </c>
-      <c r="I809" t="n">
-        <v>190600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I809" t="inlineStr"/>
       <c r="J809" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K809" t="inlineStr">
         <is>
@@ -28761,13 +27769,11 @@
         <v>-46313.32910347766</v>
       </c>
       <c r="H810" t="n">
-        <v>1</v>
-      </c>
-      <c r="I810" t="n">
-        <v>190600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I810" t="inlineStr"/>
       <c r="J810" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K810" t="inlineStr">
         <is>
@@ -28802,13 +27808,11 @@
         <v>-46305.32910347766</v>
       </c>
       <c r="H811" t="n">
-        <v>1</v>
-      </c>
-      <c r="I811" t="n">
-        <v>190700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I811" t="inlineStr"/>
       <c r="J811" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K811" t="inlineStr">
         <is>
@@ -28847,7 +27851,7 @@
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K812" t="inlineStr">
         <is>
@@ -28886,7 +27890,7 @@
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K813" t="inlineStr">
         <is>
@@ -28925,7 +27929,7 @@
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K814" t="inlineStr">
         <is>
@@ -28964,7 +27968,7 @@
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K815" t="inlineStr">
         <is>
@@ -29003,7 +28007,7 @@
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K816" t="inlineStr">
         <is>
@@ -29042,7 +28046,7 @@
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K817" t="inlineStr">
         <is>
@@ -29077,13 +28081,11 @@
         <v>-46049.46999108653</v>
       </c>
       <c r="H818" t="n">
-        <v>1</v>
-      </c>
-      <c r="I818" t="n">
-        <v>191300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I818" t="inlineStr"/>
       <c r="J818" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K818" t="inlineStr">
         <is>
@@ -29122,7 +28124,7 @@
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K819" t="inlineStr">
         <is>
@@ -29161,7 +28163,7 @@
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K820" t="inlineStr">
         <is>
@@ -29196,13 +28198,11 @@
         <v>-45961.33276646552</v>
       </c>
       <c r="H821" t="n">
-        <v>1</v>
-      </c>
-      <c r="I821" t="n">
-        <v>191400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I821" t="inlineStr"/>
       <c r="J821" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K821" t="inlineStr">
         <is>
@@ -29237,13 +28237,11 @@
         <v>-45964.19916646551</v>
       </c>
       <c r="H822" t="n">
-        <v>1</v>
-      </c>
-      <c r="I822" t="n">
-        <v>191400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I822" t="inlineStr"/>
       <c r="J822" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K822" t="inlineStr">
         <is>
@@ -29278,13 +28276,11 @@
         <v>-45964.19916646551</v>
       </c>
       <c r="H823" t="n">
-        <v>1</v>
-      </c>
-      <c r="I823" t="n">
-        <v>191100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I823" t="inlineStr"/>
       <c r="J823" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K823" t="inlineStr">
         <is>
@@ -29323,7 +28319,7 @@
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K824" t="inlineStr">
         <is>
@@ -29362,7 +28358,7 @@
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K825" t="inlineStr">
         <is>
@@ -29401,7 +28397,7 @@
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K826" t="inlineStr">
         <is>
@@ -29440,7 +28436,7 @@
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K827" t="inlineStr">
         <is>
@@ -29479,7 +28475,7 @@
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K828" t="inlineStr">
         <is>
@@ -29518,7 +28514,7 @@
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K829" t="inlineStr">
         <is>
@@ -29557,7 +28553,7 @@
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K830" t="inlineStr">
         <is>
@@ -29592,13 +28588,11 @@
         <v>-45939.48032991488</v>
       </c>
       <c r="H831" t="n">
-        <v>1</v>
-      </c>
-      <c r="I831" t="n">
-        <v>191100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I831" t="inlineStr"/>
       <c r="J831" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K831" t="inlineStr">
         <is>
@@ -29633,13 +28627,11 @@
         <v>-46039.93762991488</v>
       </c>
       <c r="H832" t="n">
-        <v>1</v>
-      </c>
-      <c r="I832" t="n">
-        <v>191100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I832" t="inlineStr"/>
       <c r="J832" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K832" t="inlineStr">
         <is>
@@ -29674,13 +28666,11 @@
         <v>-45961.64472991488</v>
       </c>
       <c r="H833" t="n">
-        <v>1</v>
-      </c>
-      <c r="I833" t="n">
-        <v>190900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I833" t="inlineStr"/>
       <c r="J833" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K833" t="inlineStr">
         <is>
@@ -29715,13 +28705,11 @@
         <v>-45979.21892991488</v>
       </c>
       <c r="H834" t="n">
-        <v>1</v>
-      </c>
-      <c r="I834" t="n">
-        <v>191200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I834" t="inlineStr"/>
       <c r="J834" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K834" t="inlineStr">
         <is>
@@ -29756,13 +28744,11 @@
         <v>-45978.73582991488</v>
       </c>
       <c r="H835" t="n">
-        <v>1</v>
-      </c>
-      <c r="I835" t="n">
-        <v>190600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I835" t="inlineStr"/>
       <c r="J835" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K835" t="inlineStr">
         <is>
@@ -29797,13 +28783,11 @@
         <v>-45978.73582991488</v>
       </c>
       <c r="H836" t="n">
-        <v>1</v>
-      </c>
-      <c r="I836" t="n">
-        <v>190700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I836" t="inlineStr"/>
       <c r="J836" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K836" t="inlineStr">
         <is>
@@ -29838,13 +28822,11 @@
         <v>-46092.21672991489</v>
       </c>
       <c r="H837" t="n">
-        <v>1</v>
-      </c>
-      <c r="I837" t="n">
-        <v>190700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I837" t="inlineStr"/>
       <c r="J837" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K837" t="inlineStr">
         <is>
@@ -29879,13 +28861,11 @@
         <v>-46031.60222991488</v>
       </c>
       <c r="H838" t="n">
-        <v>1</v>
-      </c>
-      <c r="I838" t="n">
-        <v>190300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I838" t="inlineStr"/>
       <c r="J838" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K838" t="inlineStr">
         <is>
@@ -29920,13 +28900,11 @@
         <v>-46031.60222991488</v>
       </c>
       <c r="H839" t="n">
-        <v>1</v>
-      </c>
-      <c r="I839" t="n">
-        <v>190500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I839" t="inlineStr"/>
       <c r="J839" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K839" t="inlineStr">
         <is>
@@ -29961,13 +28939,11 @@
         <v>-46057.38332991488</v>
       </c>
       <c r="H840" t="n">
-        <v>1</v>
-      </c>
-      <c r="I840" t="n">
-        <v>190500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I840" t="inlineStr"/>
       <c r="J840" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K840" t="inlineStr">
         <is>
@@ -30002,13 +28978,11 @@
         <v>-46061.65572991488</v>
       </c>
       <c r="H841" t="n">
-        <v>1</v>
-      </c>
-      <c r="I841" t="n">
-        <v>190400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I841" t="inlineStr"/>
       <c r="J841" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K841" t="inlineStr">
         <is>
@@ -30043,13 +29017,11 @@
         <v>-46049.2944679401</v>
       </c>
       <c r="H842" t="n">
-        <v>1</v>
-      </c>
-      <c r="I842" t="n">
-        <v>190300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I842" t="inlineStr"/>
       <c r="J842" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K842" t="inlineStr">
         <is>
@@ -30084,13 +29056,11 @@
         <v>-46119.9471679401</v>
       </c>
       <c r="H843" t="n">
-        <v>1</v>
-      </c>
-      <c r="I843" t="n">
-        <v>190400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I843" t="inlineStr"/>
       <c r="J843" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K843" t="inlineStr">
         <is>
@@ -30125,13 +29095,11 @@
         <v>-46255.3598679401</v>
       </c>
       <c r="H844" t="n">
-        <v>1</v>
-      </c>
-      <c r="I844" t="n">
-        <v>190100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I844" t="inlineStr"/>
       <c r="J844" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K844" t="inlineStr">
         <is>
@@ -30166,13 +29134,11 @@
         <v>-46250.3598679401</v>
       </c>
       <c r="H845" t="n">
-        <v>1</v>
-      </c>
-      <c r="I845" t="n">
-        <v>190000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I845" t="inlineStr"/>
       <c r="J845" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K845" t="inlineStr">
         <is>
@@ -30207,13 +29173,11 @@
         <v>-46182.2863679401</v>
       </c>
       <c r="H846" t="n">
-        <v>1</v>
-      </c>
-      <c r="I846" t="n">
-        <v>190100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I846" t="inlineStr"/>
       <c r="J846" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K846" t="inlineStr">
         <is>
@@ -30248,13 +29212,11 @@
         <v>-46229.3627679401</v>
       </c>
       <c r="H847" t="n">
-        <v>1</v>
-      </c>
-      <c r="I847" t="n">
-        <v>190300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I847" t="inlineStr"/>
       <c r="J847" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K847" t="inlineStr">
         <is>
@@ -30289,13 +29251,11 @@
         <v>-46201.29720607035</v>
       </c>
       <c r="H848" t="n">
-        <v>1</v>
-      </c>
-      <c r="I848" t="n">
-        <v>190100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I848" t="inlineStr"/>
       <c r="J848" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K848" t="inlineStr">
         <is>
@@ -30330,13 +29290,11 @@
         <v>-46200.53960607035</v>
       </c>
       <c r="H849" t="n">
-        <v>1</v>
-      </c>
-      <c r="I849" t="n">
-        <v>190200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I849" t="inlineStr"/>
       <c r="J849" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K849" t="inlineStr">
         <is>
@@ -30371,13 +29329,11 @@
         <v>-46188.37356804514</v>
       </c>
       <c r="H850" t="n">
-        <v>1</v>
-      </c>
-      <c r="I850" t="n">
-        <v>190400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I850" t="inlineStr"/>
       <c r="J850" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K850" t="inlineStr">
         <is>
@@ -30412,13 +29368,11 @@
         <v>-46188.37356804514</v>
       </c>
       <c r="H851" t="n">
-        <v>1</v>
-      </c>
-      <c r="I851" t="n">
-        <v>190600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I851" t="inlineStr"/>
       <c r="J851" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K851" t="inlineStr">
         <is>
@@ -30453,13 +29407,11 @@
         <v>-46195.19096804514</v>
       </c>
       <c r="H852" t="n">
-        <v>1</v>
-      </c>
-      <c r="I852" t="n">
-        <v>190600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I852" t="inlineStr"/>
       <c r="J852" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K852" t="inlineStr">
         <is>
@@ -30494,13 +29446,11 @@
         <v>-46195.19096804514</v>
       </c>
       <c r="H853" t="n">
-        <v>1</v>
-      </c>
-      <c r="I853" t="n">
-        <v>190400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I853" t="inlineStr"/>
       <c r="J853" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K853" t="inlineStr">
         <is>
@@ -30535,13 +29485,11 @@
         <v>-46191.19096804514</v>
       </c>
       <c r="H854" t="n">
-        <v>1</v>
-      </c>
-      <c r="I854" t="n">
-        <v>190400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I854" t="inlineStr"/>
       <c r="J854" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K854" t="inlineStr">
         <is>
@@ -30576,13 +29524,11 @@
         <v>-46191.19096804514</v>
       </c>
       <c r="H855" t="n">
-        <v>1</v>
-      </c>
-      <c r="I855" t="n">
-        <v>190500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I855" t="inlineStr"/>
       <c r="J855" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K855" t="inlineStr">
         <is>
@@ -30617,13 +29563,11 @@
         <v>-46190.47116804514</v>
       </c>
       <c r="H856" t="n">
-        <v>1</v>
-      </c>
-      <c r="I856" t="n">
-        <v>190500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I856" t="inlineStr"/>
       <c r="J856" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K856" t="inlineStr">
         <is>
@@ -30658,13 +29602,11 @@
         <v>-46134.39816804515</v>
       </c>
       <c r="H857" t="n">
-        <v>1</v>
-      </c>
-      <c r="I857" t="n">
-        <v>190600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I857" t="inlineStr"/>
       <c r="J857" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K857" t="inlineStr">
         <is>
@@ -30703,7 +29645,7 @@
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K858" t="inlineStr">
         <is>
@@ -30742,7 +29684,7 @@
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K859" t="inlineStr">
         <is>
@@ -30781,7 +29723,7 @@
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K860" t="inlineStr">
         <is>
@@ -30820,7 +29762,7 @@
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K861" t="inlineStr">
         <is>
@@ -30859,7 +29801,7 @@
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K862" t="inlineStr">
         <is>
@@ -30898,7 +29840,7 @@
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K863" t="inlineStr">
         <is>
@@ -30937,7 +29879,7 @@
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K864" t="inlineStr">
         <is>
@@ -30976,7 +29918,7 @@
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K865" t="inlineStr">
         <is>
@@ -31011,13 +29953,11 @@
         <v>-46203.63836804515</v>
       </c>
       <c r="H866" t="n">
-        <v>1</v>
-      </c>
-      <c r="I866" t="n">
-        <v>190600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I866" t="inlineStr"/>
       <c r="J866" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K866" t="inlineStr">
         <is>
@@ -31056,7 +29996,7 @@
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K867" t="inlineStr">
         <is>
@@ -31091,13 +30031,11 @@
         <v>-46254.79416804515</v>
       </c>
       <c r="H868" t="n">
-        <v>1</v>
-      </c>
-      <c r="I868" t="n">
-        <v>190800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I868" t="inlineStr"/>
       <c r="J868" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K868" t="inlineStr">
         <is>
@@ -31132,13 +30070,11 @@
         <v>-46252.07546804515</v>
       </c>
       <c r="H869" t="n">
-        <v>1</v>
-      </c>
-      <c r="I869" t="n">
-        <v>190800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I869" t="inlineStr"/>
       <c r="J869" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K869" t="inlineStr">
         <is>
@@ -31177,7 +30113,7 @@
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K870" t="inlineStr">
         <is>
@@ -31216,7 +30152,7 @@
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K871" t="inlineStr">
         <is>
@@ -31255,7 +30191,7 @@
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K872" t="inlineStr">
         <is>
@@ -31294,7 +30230,7 @@
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K873" t="inlineStr">
         <is>
@@ -31333,7 +30269,7 @@
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K874" t="inlineStr">
         <is>
@@ -31368,13 +30304,11 @@
         <v>-46288.87686804515</v>
       </c>
       <c r="H875" t="n">
-        <v>1</v>
-      </c>
-      <c r="I875" t="n">
-        <v>190500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I875" t="inlineStr"/>
       <c r="J875" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K875" t="inlineStr">
         <is>
@@ -31409,13 +30343,11 @@
         <v>-46242.16376804515</v>
       </c>
       <c r="H876" t="n">
-        <v>1</v>
-      </c>
-      <c r="I876" t="n">
-        <v>190600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I876" t="inlineStr"/>
       <c r="J876" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K876" t="inlineStr">
         <is>
@@ -31454,7 +30386,7 @@
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K877" t="inlineStr">
         <is>
@@ -31493,7 +30425,7 @@
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K878" t="inlineStr">
         <is>
@@ -31532,7 +30464,7 @@
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K879" t="inlineStr">
         <is>
@@ -31571,7 +30503,7 @@
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K880" t="inlineStr">
         <is>
@@ -31610,7 +30542,7 @@
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K881" t="inlineStr">
         <is>
@@ -31649,7 +30581,7 @@
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K882" t="inlineStr">
         <is>
@@ -31688,7 +30620,7 @@
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K883" t="inlineStr">
         <is>
@@ -31727,7 +30659,7 @@
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K884" t="inlineStr">
         <is>
@@ -31766,7 +30698,7 @@
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K885" t="inlineStr">
         <is>
@@ -31805,7 +30737,7 @@
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K886" t="inlineStr">
         <is>
@@ -31844,7 +30776,7 @@
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K887" t="inlineStr">
         <is>
@@ -31883,7 +30815,7 @@
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K888" t="inlineStr">
         <is>
@@ -31922,7 +30854,7 @@
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K889" t="inlineStr">
         <is>
@@ -31961,7 +30893,7 @@
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K890" t="inlineStr">
         <is>
@@ -32000,7 +30932,7 @@
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K891" t="inlineStr">
         <is>
@@ -32039,7 +30971,7 @@
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K892" t="inlineStr">
         <is>
@@ -32078,7 +31010,7 @@
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K893" t="inlineStr">
         <is>
@@ -32117,7 +31049,7 @@
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K894" t="inlineStr">
         <is>
@@ -32156,7 +31088,7 @@
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K895" t="inlineStr">
         <is>
@@ -32195,7 +31127,7 @@
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K896" t="inlineStr">
         <is>
@@ -32230,13 +31162,11 @@
         <v>-46038.10586804515</v>
       </c>
       <c r="H897" t="n">
-        <v>1</v>
-      </c>
-      <c r="I897" t="n">
-        <v>191700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I897" t="inlineStr"/>
       <c r="J897" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K897" t="inlineStr">
         <is>
@@ -32271,13 +31201,11 @@
         <v>-46038.10586804515</v>
       </c>
       <c r="H898" t="n">
-        <v>1</v>
-      </c>
-      <c r="I898" t="n">
-        <v>191900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I898" t="inlineStr"/>
       <c r="J898" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K898" t="inlineStr">
         <is>
@@ -32312,13 +31240,11 @@
         <v>-45966.01593963724</v>
       </c>
       <c r="H899" t="n">
-        <v>1</v>
-      </c>
-      <c r="I899" t="n">
-        <v>191900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I899" t="inlineStr"/>
       <c r="J899" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K899" t="inlineStr">
         <is>
@@ -32353,13 +31279,11 @@
         <v>-45984.68083963724</v>
       </c>
       <c r="H900" t="n">
-        <v>1</v>
-      </c>
-      <c r="I900" t="n">
-        <v>192200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I900" t="inlineStr"/>
       <c r="J900" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K900" t="inlineStr">
         <is>
@@ -32394,13 +31318,11 @@
         <v>-45984.57553963724</v>
       </c>
       <c r="H901" t="n">
-        <v>1</v>
-      </c>
-      <c r="I901" t="n">
-        <v>191900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I901" t="inlineStr"/>
       <c r="J901" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K901" t="inlineStr">
         <is>
@@ -32435,13 +31357,11 @@
         <v>-45974.70408987467</v>
       </c>
       <c r="H902" t="n">
-        <v>1</v>
-      </c>
-      <c r="I902" t="n">
-        <v>192000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I902" t="inlineStr"/>
       <c r="J902" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K902" t="inlineStr">
         <is>
@@ -32480,7 +31400,7 @@
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K903" t="inlineStr">
         <is>
@@ -32519,7 +31439,7 @@
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K904" t="inlineStr">
         <is>
@@ -32558,7 +31478,7 @@
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K905" t="inlineStr">
         <is>
@@ -32597,7 +31517,7 @@
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K906" t="inlineStr">
         <is>
@@ -32636,7 +31556,7 @@
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K907" t="inlineStr">
         <is>
@@ -32675,7 +31595,7 @@
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K908" t="inlineStr">
         <is>
@@ -32714,7 +31634,7 @@
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K909" t="inlineStr">
         <is>
@@ -32753,7 +31673,7 @@
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K910" t="inlineStr">
         <is>
@@ -32792,7 +31712,7 @@
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K911" t="inlineStr">
         <is>
@@ -32831,7 +31751,7 @@
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K912" t="inlineStr">
         <is>
@@ -32870,7 +31790,7 @@
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K913" t="inlineStr">
         <is>
@@ -32909,7 +31829,7 @@
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K914" t="inlineStr">
         <is>
@@ -32948,7 +31868,7 @@
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K915" t="inlineStr">
         <is>
@@ -32987,7 +31907,7 @@
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K916" t="inlineStr">
         <is>
@@ -33026,7 +31946,7 @@
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K917" t="inlineStr">
         <is>
@@ -33065,7 +31985,7 @@
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K918" t="inlineStr">
         <is>
@@ -33104,7 +32024,7 @@
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K919" t="inlineStr">
         <is>
@@ -33143,7 +32063,7 @@
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K920" t="inlineStr">
         <is>
@@ -33182,7 +32102,7 @@
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K921" t="inlineStr">
         <is>
@@ -33221,7 +32141,7 @@
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K922" t="inlineStr">
         <is>
@@ -33260,7 +32180,7 @@
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K923" t="inlineStr">
         <is>
@@ -33299,7 +32219,7 @@
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K924" t="inlineStr">
         <is>
@@ -33338,7 +32258,7 @@
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K925" t="inlineStr">
         <is>
@@ -33377,7 +32297,7 @@
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K926" t="inlineStr">
         <is>
@@ -33416,7 +32336,7 @@
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K927" t="inlineStr">
         <is>
@@ -33455,7 +32375,7 @@
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K928" t="inlineStr">
         <is>
@@ -33494,7 +32414,7 @@
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K929" t="inlineStr">
         <is>
@@ -33533,7 +32453,7 @@
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K930" t="inlineStr">
         <is>
@@ -33572,7 +32492,7 @@
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K931" t="inlineStr">
         <is>
@@ -33611,7 +32531,7 @@
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K932" t="inlineStr">
         <is>
@@ -33650,7 +32570,7 @@
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K933" t="inlineStr">
         <is>
@@ -33689,7 +32609,7 @@
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K934" t="inlineStr">
         <is>
@@ -33728,7 +32648,7 @@
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K935" t="inlineStr">
         <is>
@@ -33767,7 +32687,7 @@
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K936" t="inlineStr">
         <is>
@@ -33806,7 +32726,7 @@
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K937" t="inlineStr">
         <is>
@@ -33845,7 +32765,7 @@
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K938" t="inlineStr">
         <is>
@@ -33884,7 +32804,7 @@
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K939" t="inlineStr">
         <is>
@@ -33923,7 +32843,7 @@
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K940" t="inlineStr">
         <is>
@@ -33962,7 +32882,7 @@
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K941" t="inlineStr">
         <is>
@@ -34001,7 +32921,7 @@
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K942" t="inlineStr">
         <is>
@@ -34040,7 +32960,7 @@
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K943" t="inlineStr">
         <is>
@@ -34079,7 +32999,7 @@
       </c>
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K944" t="inlineStr">
         <is>
@@ -34118,7 +33038,7 @@
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K945" t="inlineStr">
         <is>
@@ -34157,7 +33077,7 @@
       </c>
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K946" t="inlineStr">
         <is>
@@ -34196,7 +33116,7 @@
       </c>
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K947" t="inlineStr">
         <is>
@@ -34235,7 +33155,7 @@
       </c>
       <c r="I948" t="inlineStr"/>
       <c r="J948" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K948" t="inlineStr">
         <is>
@@ -34274,7 +33194,7 @@
       </c>
       <c r="I949" t="inlineStr"/>
       <c r="J949" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K949" t="inlineStr">
         <is>
@@ -34313,7 +33233,7 @@
       </c>
       <c r="I950" t="inlineStr"/>
       <c r="J950" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K950" t="inlineStr">
         <is>
@@ -34352,7 +33272,7 @@
       </c>
       <c r="I951" t="inlineStr"/>
       <c r="J951" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K951" t="inlineStr">
         <is>
@@ -34391,7 +33311,7 @@
       </c>
       <c r="I952" t="inlineStr"/>
       <c r="J952" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K952" t="inlineStr">
         <is>
@@ -34430,7 +33350,7 @@
       </c>
       <c r="I953" t="inlineStr"/>
       <c r="J953" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K953" t="inlineStr">
         <is>
@@ -34469,7 +33389,7 @@
       </c>
       <c r="I954" t="inlineStr"/>
       <c r="J954" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K954" t="inlineStr">
         <is>
@@ -34508,7 +33428,7 @@
       </c>
       <c r="I955" t="inlineStr"/>
       <c r="J955" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K955" t="inlineStr">
         <is>
@@ -34547,7 +33467,7 @@
       </c>
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K956" t="inlineStr">
         <is>
@@ -34586,7 +33506,7 @@
       </c>
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K957" t="inlineStr">
         <is>
@@ -34625,7 +33545,7 @@
       </c>
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K958" t="inlineStr">
         <is>
@@ -34664,7 +33584,7 @@
       </c>
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K959" t="inlineStr">
         <is>
@@ -34703,7 +33623,7 @@
       </c>
       <c r="I960" t="inlineStr"/>
       <c r="J960" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K960" t="inlineStr">
         <is>
@@ -34742,7 +33662,7 @@
       </c>
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K961" t="inlineStr">
         <is>
@@ -34781,7 +33701,7 @@
       </c>
       <c r="I962" t="inlineStr"/>
       <c r="J962" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K962" t="inlineStr">
         <is>
@@ -34820,7 +33740,7 @@
       </c>
       <c r="I963" t="inlineStr"/>
       <c r="J963" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K963" t="inlineStr">
         <is>
@@ -34859,7 +33779,7 @@
       </c>
       <c r="I964" t="inlineStr"/>
       <c r="J964" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K964" t="inlineStr">
         <is>
@@ -34898,7 +33818,7 @@
       </c>
       <c r="I965" t="inlineStr"/>
       <c r="J965" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K965" t="inlineStr">
         <is>
@@ -34937,7 +33857,7 @@
       </c>
       <c r="I966" t="inlineStr"/>
       <c r="J966" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K966" t="inlineStr">
         <is>
@@ -34976,7 +33896,7 @@
       </c>
       <c r="I967" t="inlineStr"/>
       <c r="J967" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K967" t="inlineStr">
         <is>
@@ -35015,7 +33935,7 @@
       </c>
       <c r="I968" t="inlineStr"/>
       <c r="J968" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K968" t="inlineStr">
         <is>
@@ -35054,7 +33974,7 @@
       </c>
       <c r="I969" t="inlineStr"/>
       <c r="J969" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K969" t="inlineStr">
         <is>
@@ -35093,7 +34013,7 @@
       </c>
       <c r="I970" t="inlineStr"/>
       <c r="J970" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K970" t="inlineStr">
         <is>
@@ -35132,7 +34052,7 @@
       </c>
       <c r="I971" t="inlineStr"/>
       <c r="J971" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K971" t="inlineStr">
         <is>
@@ -35171,7 +34091,7 @@
       </c>
       <c r="I972" t="inlineStr"/>
       <c r="J972" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K972" t="inlineStr">
         <is>
@@ -35210,7 +34130,7 @@
       </c>
       <c r="I973" t="inlineStr"/>
       <c r="J973" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K973" t="inlineStr">
         <is>
@@ -35249,7 +34169,7 @@
       </c>
       <c r="I974" t="inlineStr"/>
       <c r="J974" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K974" t="inlineStr">
         <is>
@@ -35288,7 +34208,7 @@
       </c>
       <c r="I975" t="inlineStr"/>
       <c r="J975" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K975" t="inlineStr">
         <is>
@@ -35327,7 +34247,7 @@
       </c>
       <c r="I976" t="inlineStr"/>
       <c r="J976" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K976" t="inlineStr">
         <is>
@@ -35366,7 +34286,7 @@
       </c>
       <c r="I977" t="inlineStr"/>
       <c r="J977" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K977" t="inlineStr">
         <is>
@@ -35405,7 +34325,7 @@
       </c>
       <c r="I978" t="inlineStr"/>
       <c r="J978" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K978" t="inlineStr">
         <is>
@@ -35444,7 +34364,7 @@
       </c>
       <c r="I979" t="inlineStr"/>
       <c r="J979" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K979" t="inlineStr">
         <is>
@@ -35483,7 +34403,7 @@
       </c>
       <c r="I980" t="inlineStr"/>
       <c r="J980" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K980" t="inlineStr">
         <is>
@@ -35522,7 +34442,7 @@
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K981" t="inlineStr">
         <is>
@@ -35561,7 +34481,7 @@
       </c>
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K982" t="inlineStr">
         <is>
@@ -35600,7 +34520,7 @@
       </c>
       <c r="I983" t="inlineStr"/>
       <c r="J983" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K983" t="inlineStr">
         <is>
@@ -35639,7 +34559,7 @@
       </c>
       <c r="I984" t="inlineStr"/>
       <c r="J984" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K984" t="inlineStr">
         <is>
@@ -35678,7 +34598,7 @@
       </c>
       <c r="I985" t="inlineStr"/>
       <c r="J985" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K985" t="inlineStr">
         <is>
@@ -35713,13 +34633,11 @@
         <v>-45614.05734223765</v>
       </c>
       <c r="H986" t="n">
-        <v>1</v>
-      </c>
-      <c r="I986" t="n">
-        <v>191500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I986" t="inlineStr"/>
       <c r="J986" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K986" t="inlineStr">
         <is>
@@ -35754,13 +34672,11 @@
         <v>-45632.73554223765</v>
       </c>
       <c r="H987" t="n">
-        <v>1</v>
-      </c>
-      <c r="I987" t="n">
-        <v>191400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I987" t="inlineStr"/>
       <c r="J987" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K987" t="inlineStr">
         <is>
@@ -35795,13 +34711,11 @@
         <v>-45632.54354223765</v>
       </c>
       <c r="H988" t="n">
-        <v>1</v>
-      </c>
-      <c r="I988" t="n">
-        <v>191200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I988" t="inlineStr"/>
       <c r="J988" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K988" t="inlineStr">
         <is>
@@ -35836,13 +34750,11 @@
         <v>-45634.61674223765</v>
       </c>
       <c r="H989" t="n">
-        <v>1</v>
-      </c>
-      <c r="I989" t="n">
-        <v>191400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I989" t="inlineStr"/>
       <c r="J989" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K989" t="inlineStr">
         <is>
@@ -35877,13 +34789,11 @@
         <v>-45613.20694223764</v>
       </c>
       <c r="H990" t="n">
-        <v>1</v>
-      </c>
-      <c r="I990" t="n">
-        <v>191100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I990" t="inlineStr"/>
       <c r="J990" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K990" t="inlineStr">
         <is>
@@ -35918,13 +34828,11 @@
         <v>-45616.38804223765</v>
       </c>
       <c r="H991" t="n">
-        <v>1</v>
-      </c>
-      <c r="I991" t="n">
-        <v>191200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I991" t="inlineStr"/>
       <c r="J991" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K991" t="inlineStr">
         <is>
@@ -35959,13 +34867,11 @@
         <v>-45611.95414223764</v>
       </c>
       <c r="H992" t="n">
-        <v>1</v>
-      </c>
-      <c r="I992" t="n">
-        <v>191100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I992" t="inlineStr"/>
       <c r="J992" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K992" t="inlineStr">
         <is>
@@ -36000,13 +34906,11 @@
         <v>-45619.99164223764</v>
       </c>
       <c r="H993" t="n">
-        <v>1</v>
-      </c>
-      <c r="I993" t="n">
-        <v>191500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I993" t="inlineStr"/>
       <c r="J993" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K993" t="inlineStr">
         <is>
@@ -36041,13 +34945,11 @@
         <v>-45613.20122857758</v>
       </c>
       <c r="H994" t="n">
-        <v>1</v>
-      </c>
-      <c r="I994" t="n">
-        <v>191200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I994" t="inlineStr"/>
       <c r="J994" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K994" t="inlineStr">
         <is>
@@ -36082,13 +34984,11 @@
         <v>-45617.20122857758</v>
       </c>
       <c r="H995" t="n">
-        <v>1</v>
-      </c>
-      <c r="I995" t="n">
-        <v>191800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I995" t="inlineStr"/>
       <c r="J995" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K995" t="inlineStr">
         <is>
@@ -36127,7 +35027,7 @@
       </c>
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K996" t="inlineStr">
         <is>
@@ -36166,7 +35066,7 @@
       </c>
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K997" t="inlineStr">
         <is>
@@ -36205,7 +35105,7 @@
       </c>
       <c r="I998" t="inlineStr"/>
       <c r="J998" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K998" t="inlineStr">
         <is>
@@ -36244,7 +35144,7 @@
       </c>
       <c r="I999" t="inlineStr"/>
       <c r="J999" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K999" t="inlineStr">
         <is>
@@ -36283,7 +35183,7 @@
       </c>
       <c r="I1000" t="inlineStr"/>
       <c r="J1000" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K1000" t="inlineStr">
         <is>
@@ -36322,7 +35222,7 @@
       </c>
       <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K1001" t="inlineStr">
         <is>
@@ -36361,7 +35261,7 @@
       </c>
       <c r="I1002" t="inlineStr"/>
       <c r="J1002" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K1002" t="inlineStr">
         <is>
@@ -36400,7 +35300,7 @@
       </c>
       <c r="I1003" t="inlineStr"/>
       <c r="J1003" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K1003" t="inlineStr">
         <is>
@@ -36439,7 +35339,7 @@
       </c>
       <c r="I1004" t="inlineStr"/>
       <c r="J1004" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K1004" t="inlineStr">
         <is>
@@ -36478,7 +35378,7 @@
       </c>
       <c r="I1005" t="inlineStr"/>
       <c r="J1005" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K1005" t="inlineStr">
         <is>
@@ -36517,7 +35417,7 @@
       </c>
       <c r="I1006" t="inlineStr"/>
       <c r="J1006" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K1006" t="inlineStr">
         <is>
@@ -36556,7 +35456,7 @@
       </c>
       <c r="I1007" t="inlineStr"/>
       <c r="J1007" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K1007" t="inlineStr">
         <is>
@@ -36595,7 +35495,7 @@
       </c>
       <c r="I1008" t="inlineStr"/>
       <c r="J1008" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K1008" t="inlineStr">
         <is>
@@ -36634,7 +35534,7 @@
       </c>
       <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K1009" t="inlineStr">
         <is>
@@ -36673,7 +35573,7 @@
       </c>
       <c r="I1010" t="inlineStr"/>
       <c r="J1010" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K1010" t="inlineStr">
         <is>
@@ -36712,7 +35612,7 @@
       </c>
       <c r="I1011" t="inlineStr"/>
       <c r="J1011" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K1011" t="inlineStr">
         <is>
@@ -36751,7 +35651,7 @@
       </c>
       <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K1012" t="inlineStr">
         <is>
@@ -36790,7 +35690,7 @@
       </c>
       <c r="I1013" t="inlineStr"/>
       <c r="J1013" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K1013" t="inlineStr">
         <is>
@@ -36829,7 +35729,7 @@
       </c>
       <c r="I1014" t="inlineStr"/>
       <c r="J1014" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K1014" t="inlineStr">
         <is>
@@ -36868,7 +35768,7 @@
       </c>
       <c r="I1015" t="inlineStr"/>
       <c r="J1015" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K1015" t="inlineStr">
         <is>
@@ -36907,7 +35807,7 @@
       </c>
       <c r="I1016" t="inlineStr"/>
       <c r="J1016" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K1016" t="inlineStr">
         <is>
@@ -36946,7 +35846,7 @@
       </c>
       <c r="I1017" t="inlineStr"/>
       <c r="J1017" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K1017" t="inlineStr">
         <is>
@@ -36985,7 +35885,7 @@
       </c>
       <c r="I1018" t="inlineStr"/>
       <c r="J1018" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K1018" t="inlineStr">
         <is>
@@ -37024,7 +35924,7 @@
       </c>
       <c r="I1019" t="inlineStr"/>
       <c r="J1019" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K1019" t="inlineStr">
         <is>
@@ -37063,7 +35963,7 @@
       </c>
       <c r="I1020" t="inlineStr"/>
       <c r="J1020" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K1020" t="inlineStr">
         <is>
@@ -37102,7 +36002,7 @@
       </c>
       <c r="I1021" t="inlineStr"/>
       <c r="J1021" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K1021" t="inlineStr">
         <is>
@@ -37141,7 +36041,7 @@
       </c>
       <c r="I1022" t="inlineStr"/>
       <c r="J1022" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K1022" t="inlineStr">
         <is>
@@ -37180,7 +36080,7 @@
       </c>
       <c r="I1023" t="inlineStr"/>
       <c r="J1023" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K1023" t="inlineStr">
         <is>
@@ -37219,7 +36119,7 @@
       </c>
       <c r="I1024" t="inlineStr"/>
       <c r="J1024" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K1024" t="inlineStr">
         <is>
@@ -37258,7 +36158,7 @@
       </c>
       <c r="I1025" t="inlineStr"/>
       <c r="J1025" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K1025" t="inlineStr">
         <is>
@@ -37297,7 +36197,7 @@
       </c>
       <c r="I1026" t="inlineStr"/>
       <c r="J1026" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K1026" t="inlineStr">
         <is>
@@ -37336,7 +36236,7 @@
       </c>
       <c r="I1027" t="inlineStr"/>
       <c r="J1027" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K1027" t="inlineStr">
         <is>
@@ -37375,7 +36275,7 @@
       </c>
       <c r="I1028" t="inlineStr"/>
       <c r="J1028" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K1028" t="inlineStr">
         <is>
@@ -37414,7 +36314,7 @@
       </c>
       <c r="I1029" t="inlineStr"/>
       <c r="J1029" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K1029" t="inlineStr">
         <is>
@@ -37453,7 +36353,7 @@
       </c>
       <c r="I1030" t="inlineStr"/>
       <c r="J1030" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K1030" t="inlineStr">
         <is>
@@ -37492,7 +36392,7 @@
       </c>
       <c r="I1031" t="inlineStr"/>
       <c r="J1031" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K1031" t="inlineStr">
         <is>
@@ -37531,7 +36431,7 @@
       </c>
       <c r="I1032" t="inlineStr"/>
       <c r="J1032" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K1032" t="inlineStr">
         <is>
@@ -37570,7 +36470,7 @@
       </c>
       <c r="I1033" t="inlineStr"/>
       <c r="J1033" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K1033" t="inlineStr">
         <is>
@@ -37609,7 +36509,7 @@
       </c>
       <c r="I1034" t="inlineStr"/>
       <c r="J1034" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K1034" t="inlineStr">
         <is>
@@ -37648,7 +36548,7 @@
       </c>
       <c r="I1035" t="inlineStr"/>
       <c r="J1035" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K1035" t="inlineStr">
         <is>
@@ -37687,7 +36587,7 @@
       </c>
       <c r="I1036" t="inlineStr"/>
       <c r="J1036" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K1036" t="inlineStr">
         <is>
@@ -37726,7 +36626,7 @@
       </c>
       <c r="I1037" t="inlineStr"/>
       <c r="J1037" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K1037" t="inlineStr">
         <is>
@@ -37765,7 +36665,7 @@
       </c>
       <c r="I1038" t="inlineStr"/>
       <c r="J1038" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K1038" t="inlineStr">
         <is>
@@ -37804,7 +36704,7 @@
       </c>
       <c r="I1039" t="inlineStr"/>
       <c r="J1039" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K1039" t="inlineStr">
         <is>
@@ -37843,7 +36743,7 @@
       </c>
       <c r="I1040" t="inlineStr"/>
       <c r="J1040" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K1040" t="inlineStr">
         <is>
@@ -37882,7 +36782,7 @@
       </c>
       <c r="I1041" t="inlineStr"/>
       <c r="J1041" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K1041" t="inlineStr">
         <is>
@@ -37921,7 +36821,7 @@
       </c>
       <c r="I1042" t="inlineStr"/>
       <c r="J1042" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K1042" t="inlineStr">
         <is>
@@ -37960,7 +36860,7 @@
       </c>
       <c r="I1043" t="inlineStr"/>
       <c r="J1043" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K1043" t="inlineStr">
         <is>
@@ -37999,7 +36899,7 @@
       </c>
       <c r="I1044" t="inlineStr"/>
       <c r="J1044" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K1044" t="inlineStr">
         <is>
@@ -38038,7 +36938,7 @@
       </c>
       <c r="I1045" t="inlineStr"/>
       <c r="J1045" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K1045" t="inlineStr">
         <is>
@@ -38077,7 +36977,7 @@
       </c>
       <c r="I1046" t="inlineStr"/>
       <c r="J1046" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K1046" t="inlineStr">
         <is>
@@ -38116,7 +37016,7 @@
       </c>
       <c r="I1047" t="inlineStr"/>
       <c r="J1047" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K1047" t="inlineStr">
         <is>
@@ -38155,7 +37055,7 @@
       </c>
       <c r="I1048" t="inlineStr"/>
       <c r="J1048" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K1048" t="inlineStr">
         <is>
@@ -38194,7 +37094,7 @@
       </c>
       <c r="I1049" t="inlineStr"/>
       <c r="J1049" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K1049" t="inlineStr">
         <is>
@@ -38233,7 +37133,7 @@
       </c>
       <c r="I1050" t="inlineStr"/>
       <c r="J1050" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K1050" t="inlineStr">
         <is>
@@ -38272,7 +37172,7 @@
       </c>
       <c r="I1051" t="inlineStr"/>
       <c r="J1051" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K1051" t="inlineStr">
         <is>
@@ -38311,7 +37211,7 @@
       </c>
       <c r="I1052" t="inlineStr"/>
       <c r="J1052" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K1052" t="inlineStr">
         <is>
@@ -38350,7 +37250,7 @@
       </c>
       <c r="I1053" t="inlineStr"/>
       <c r="J1053" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K1053" t="inlineStr">
         <is>
@@ -38389,7 +37289,7 @@
       </c>
       <c r="I1054" t="inlineStr"/>
       <c r="J1054" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K1054" t="inlineStr">
         <is>
@@ -38428,7 +37328,7 @@
       </c>
       <c r="I1055" t="inlineStr"/>
       <c r="J1055" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K1055" t="inlineStr">
         <is>
@@ -38467,7 +37367,7 @@
       </c>
       <c r="I1056" t="inlineStr"/>
       <c r="J1056" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K1056" t="inlineStr">
         <is>
@@ -38506,7 +37406,7 @@
       </c>
       <c r="I1057" t="inlineStr"/>
       <c r="J1057" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K1057" t="inlineStr">
         <is>
@@ -38545,7 +37445,7 @@
       </c>
       <c r="I1058" t="inlineStr"/>
       <c r="J1058" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K1058" t="inlineStr">
         <is>
@@ -38584,7 +37484,7 @@
       </c>
       <c r="I1059" t="inlineStr"/>
       <c r="J1059" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K1059" t="inlineStr">
         <is>
@@ -38623,7 +37523,7 @@
       </c>
       <c r="I1060" t="inlineStr"/>
       <c r="J1060" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K1060" t="inlineStr">
         <is>
@@ -38662,7 +37562,7 @@
       </c>
       <c r="I1061" t="inlineStr"/>
       <c r="J1061" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K1061" t="inlineStr">
         <is>
@@ -38701,7 +37601,7 @@
       </c>
       <c r="I1062" t="inlineStr"/>
       <c r="J1062" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K1062" t="inlineStr">
         <is>
@@ -38740,7 +37640,7 @@
       </c>
       <c r="I1063" t="inlineStr"/>
       <c r="J1063" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K1063" t="inlineStr">
         <is>
@@ -38779,7 +37679,7 @@
       </c>
       <c r="I1064" t="inlineStr"/>
       <c r="J1064" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K1064" t="inlineStr">
         <is>
@@ -38818,7 +37718,7 @@
       </c>
       <c r="I1065" t="inlineStr"/>
       <c r="J1065" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K1065" t="inlineStr">
         <is>
@@ -38857,7 +37757,7 @@
       </c>
       <c r="I1066" t="inlineStr"/>
       <c r="J1066" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K1066" t="inlineStr">
         <is>
@@ -38896,7 +37796,7 @@
       </c>
       <c r="I1067" t="inlineStr"/>
       <c r="J1067" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K1067" t="inlineStr">
         <is>
@@ -38935,7 +37835,7 @@
       </c>
       <c r="I1068" t="inlineStr"/>
       <c r="J1068" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K1068" t="inlineStr">
         <is>
@@ -38974,7 +37874,7 @@
       </c>
       <c r="I1069" t="inlineStr"/>
       <c r="J1069" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K1069" t="inlineStr">
         <is>
@@ -39013,7 +37913,7 @@
       </c>
       <c r="I1070" t="inlineStr"/>
       <c r="J1070" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K1070" t="inlineStr">
         <is>
@@ -39052,7 +37952,7 @@
       </c>
       <c r="I1071" t="inlineStr"/>
       <c r="J1071" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K1071" t="inlineStr">
         <is>
@@ -39091,7 +37991,7 @@
       </c>
       <c r="I1072" t="inlineStr"/>
       <c r="J1072" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K1072" t="inlineStr">
         <is>
@@ -39130,7 +38030,7 @@
       </c>
       <c r="I1073" t="inlineStr"/>
       <c r="J1073" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K1073" t="inlineStr">
         <is>
@@ -39169,7 +38069,7 @@
       </c>
       <c r="I1074" t="inlineStr"/>
       <c r="J1074" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K1074" t="inlineStr">
         <is>
@@ -39208,7 +38108,7 @@
       </c>
       <c r="I1075" t="inlineStr"/>
       <c r="J1075" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K1075" t="inlineStr">
         <is>
@@ -39247,7 +38147,7 @@
       </c>
       <c r="I1076" t="inlineStr"/>
       <c r="J1076" t="n">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="K1076" t="inlineStr">
         <is>
@@ -39260,6 +38160,6 @@
       <c r="M1076" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-22 BackTest ETH.xlsx
+++ b/BackTest/2020-01-22 BackTest ETH.xlsx
@@ -9130,7 +9130,7 @@
         <v>402.2229603076125</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>402.2229603076125</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>402.2229603076125</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>665.1845603076125</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>692.4955603076125</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>692.4955603076125</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>692.4955603076125</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>735.7689603076126</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>752.8120603076126</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>811.9845603076126</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>561.1315857100738</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>395.6860274159869</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>439.3187274159869</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>438.270627415987</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>438.5936274159869</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>449.9786274159869</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>364.4226120638443</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -14311,7 +14311,7 @@
         <v>131.9562789490338</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14344,7 +14344,7 @@
         <v>131.9562789490338</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
         <v>135.6533789490338</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14476,7 +14476,7 @@
         <v>135.2089789490338</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -15433,7 +15433,7 @@
         <v>363.5046270959605</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15466,7 +15466,7 @@
         <v>363.5046270959605</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -15499,7 +15499,7 @@
         <v>363.5046270959605</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
         <v>363.5046270959605</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -15565,7 +15565,7 @@
         <v>406.3888270959605</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -15598,7 +15598,7 @@
         <v>406.3888270959605</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -15631,7 +15631,7 @@
         <v>406.3888270959605</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -15664,7 +15664,7 @@
         <v>415.7855270959605</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
         <v>415.7855270959605</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -15730,7 +15730,7 @@
         <v>415.0524270959605</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -15763,7 +15763,7 @@
         <v>65.42222709596052</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -15796,7 +15796,7 @@
         <v>67.43342709596052</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -15829,7 +15829,7 @@
         <v>56.43592709596052</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
         <v>44.68232709596052</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -15895,7 +15895,7 @@
         <v>44.68232709596052</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -15928,7 +15928,7 @@
         <v>44.68232709596052</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -17941,7 +17941,7 @@
         <v>-46827.77253150597</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -17974,7 +17974,7 @@
         <v>-46827.77253150597</v>
       </c>
       <c r="H533" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -18073,7 +18073,7 @@
         <v>-46840.93223150597</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18106,7 +18106,7 @@
         <v>-46819.50793150597</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -18139,7 +18139,7 @@
         <v>-46819.50793150597</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -18172,7 +18172,7 @@
         <v>-46804.17943150597</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -18205,7 +18205,7 @@
         <v>-46804.17943150597</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -18238,7 +18238,7 @@
         <v>-46807.86700393783</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -18271,7 +18271,7 @@
         <v>-46807.52120393783</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -18304,7 +18304,7 @@
         <v>-46809.33760393783</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -20746,11 +20746,17 @@
         <v>-46535.91370135124</v>
       </c>
       <c r="H617" t="n">
-        <v>0</v>
-      </c>
-      <c r="I617" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I617" t="n">
+        <v>190400</v>
+      </c>
       <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -20779,11 +20785,17 @@
         <v>-46540.91370135124</v>
       </c>
       <c r="H618" t="n">
-        <v>0</v>
-      </c>
-      <c r="I618" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I618" t="n">
+        <v>190500</v>
+      </c>
       <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -20812,11 +20824,17 @@
         <v>-46543.08670135124</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
-      </c>
-      <c r="I619" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I619" t="n">
+        <v>190400</v>
+      </c>
       <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -20845,11 +20863,17 @@
         <v>-46543.08670135124</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
-      </c>
-      <c r="I620" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I620" t="n">
+        <v>190300</v>
+      </c>
       <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -20878,11 +20902,17 @@
         <v>-46530.14280135124</v>
       </c>
       <c r="H621" t="n">
-        <v>0</v>
-      </c>
-      <c r="I621" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I621" t="n">
+        <v>190300</v>
+      </c>
       <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -20915,7 +20945,11 @@
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -20948,7 +20982,11 @@
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -20977,15 +21015,15 @@
         <v>-46530.94340135124</v>
       </c>
       <c r="H624" t="n">
-        <v>1</v>
-      </c>
-      <c r="I624" t="n">
-        <v>190300</v>
-      </c>
-      <c r="J624" t="n">
-        <v>190300</v>
-      </c>
-      <c r="K624" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I624" t="inlineStr"/>
+      <c r="J624" t="inlineStr"/>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -21014,15 +21052,15 @@
         <v>-46518.37370135124</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
-      </c>
-      <c r="I625" t="inlineStr"/>
-      <c r="J625" t="n">
+        <v>1</v>
+      </c>
+      <c r="I625" t="n">
         <v>190300</v>
       </c>
+      <c r="J625" t="inlineStr"/>
       <c r="K625" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L625" t="n">
@@ -21053,12 +21091,12 @@
         <v>-46379.48730135124</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
-      </c>
-      <c r="I626" t="inlineStr"/>
-      <c r="J626" t="n">
-        <v>190300</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I626" t="n">
+        <v>190400</v>
+      </c>
+      <c r="J626" t="inlineStr"/>
       <c r="K626" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21092,12 +21130,12 @@
         <v>-46379.48730135124</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
-      </c>
-      <c r="I627" t="inlineStr"/>
-      <c r="J627" t="n">
-        <v>190300</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I627" t="n">
+        <v>190500</v>
+      </c>
+      <c r="J627" t="inlineStr"/>
       <c r="K627" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21134,9 +21172,7 @@
         <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="n">
-        <v>190300</v>
-      </c>
+      <c r="J628" t="inlineStr"/>
       <c r="K628" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21173,9 +21209,7 @@
         <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
-      <c r="J629" t="n">
-        <v>190300</v>
-      </c>
+      <c r="J629" t="inlineStr"/>
       <c r="K629" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21209,12 +21243,12 @@
         <v>-46333.03137698149</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
-      </c>
-      <c r="I630" t="inlineStr"/>
-      <c r="J630" t="n">
-        <v>190300</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I630" t="n">
+        <v>190200</v>
+      </c>
+      <c r="J630" t="inlineStr"/>
       <c r="K630" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21251,9 +21285,7 @@
         <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
-      <c r="J631" t="n">
-        <v>190300</v>
-      </c>
+      <c r="J631" t="inlineStr"/>
       <c r="K631" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21290,9 +21322,7 @@
         <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
-      <c r="J632" t="n">
-        <v>190300</v>
-      </c>
+      <c r="J632" t="inlineStr"/>
       <c r="K632" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21326,12 +21356,12 @@
         <v>-46430.68477698148</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
-      </c>
-      <c r="I633" t="inlineStr"/>
-      <c r="J633" t="n">
-        <v>190300</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I633" t="n">
+        <v>190600</v>
+      </c>
+      <c r="J633" t="inlineStr"/>
       <c r="K633" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21365,12 +21395,12 @@
         <v>-46430.68477698148</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
-      </c>
-      <c r="I634" t="inlineStr"/>
-      <c r="J634" t="n">
-        <v>190300</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I634" t="n">
+        <v>190500</v>
+      </c>
+      <c r="J634" t="inlineStr"/>
       <c r="K634" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21407,9 +21437,7 @@
         <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
-      <c r="J635" t="n">
-        <v>190300</v>
-      </c>
+      <c r="J635" t="inlineStr"/>
       <c r="K635" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21443,12 +21471,12 @@
         <v>-46433.22737698149</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
-      </c>
-      <c r="I636" t="inlineStr"/>
-      <c r="J636" t="n">
+        <v>1</v>
+      </c>
+      <c r="I636" t="n">
         <v>190300</v>
       </c>
+      <c r="J636" t="inlineStr"/>
       <c r="K636" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21485,9 +21513,7 @@
         <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
-      <c r="J637" t="n">
-        <v>190300</v>
-      </c>
+      <c r="J637" t="inlineStr"/>
       <c r="K637" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21524,9 +21550,7 @@
         <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
-      <c r="J638" t="n">
-        <v>190300</v>
-      </c>
+      <c r="J638" t="inlineStr"/>
       <c r="K638" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21563,9 +21587,7 @@
         <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
-      <c r="J639" t="n">
-        <v>190300</v>
-      </c>
+      <c r="J639" t="inlineStr"/>
       <c r="K639" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21602,9 +21624,7 @@
         <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
-      <c r="J640" t="n">
-        <v>190300</v>
-      </c>
+      <c r="J640" t="inlineStr"/>
       <c r="K640" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21641,9 +21661,7 @@
         <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
-      <c r="J641" t="n">
-        <v>190300</v>
-      </c>
+      <c r="J641" t="inlineStr"/>
       <c r="K641" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21680,9 +21698,7 @@
         <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
-      <c r="J642" t="n">
-        <v>190300</v>
-      </c>
+      <c r="J642" t="inlineStr"/>
       <c r="K642" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21716,14 +21732,10 @@
         <v>-46444.9985278183</v>
       </c>
       <c r="H643" t="n">
-        <v>1</v>
-      </c>
-      <c r="I643" t="n">
-        <v>191200</v>
-      </c>
-      <c r="J643" t="n">
-        <v>190300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I643" t="inlineStr"/>
+      <c r="J643" t="inlineStr"/>
       <c r="K643" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21757,14 +21769,10 @@
         <v>-46501.3808278183</v>
       </c>
       <c r="H644" t="n">
-        <v>1</v>
-      </c>
-      <c r="I644" t="n">
-        <v>190800</v>
-      </c>
-      <c r="J644" t="n">
-        <v>190300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I644" t="inlineStr"/>
+      <c r="J644" t="inlineStr"/>
       <c r="K644" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21798,14 +21806,10 @@
         <v>-46426.1454278183</v>
       </c>
       <c r="H645" t="n">
-        <v>1</v>
-      </c>
-      <c r="I645" t="n">
-        <v>190500</v>
-      </c>
-      <c r="J645" t="n">
-        <v>190300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I645" t="inlineStr"/>
+      <c r="J645" t="inlineStr"/>
       <c r="K645" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21839,14 +21843,10 @@
         <v>-46456.1845278183</v>
       </c>
       <c r="H646" t="n">
-        <v>1</v>
-      </c>
-      <c r="I646" t="n">
-        <v>190800</v>
-      </c>
-      <c r="J646" t="n">
-        <v>190300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I646" t="inlineStr"/>
+      <c r="J646" t="inlineStr"/>
       <c r="K646" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21880,14 +21880,10 @@
         <v>-46353.6869278183</v>
       </c>
       <c r="H647" t="n">
-        <v>1</v>
-      </c>
-      <c r="I647" t="n">
-        <v>190300</v>
-      </c>
-      <c r="J647" t="n">
-        <v>190300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I647" t="inlineStr"/>
+      <c r="J647" t="inlineStr"/>
       <c r="K647" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21921,14 +21917,10 @@
         <v>-46372.6889278183</v>
       </c>
       <c r="H648" t="n">
-        <v>1</v>
-      </c>
-      <c r="I648" t="n">
-        <v>190400</v>
-      </c>
-      <c r="J648" t="n">
-        <v>190300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I648" t="inlineStr"/>
+      <c r="J648" t="inlineStr"/>
       <c r="K648" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21962,14 +21954,10 @@
         <v>-46371.2372278183</v>
       </c>
       <c r="H649" t="n">
-        <v>1</v>
-      </c>
-      <c r="I649" t="n">
-        <v>190200</v>
-      </c>
-      <c r="J649" t="n">
-        <v>190300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I649" t="inlineStr"/>
+      <c r="J649" t="inlineStr"/>
       <c r="K649" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22006,9 +21994,7 @@
         <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
-      <c r="J650" t="n">
-        <v>190300</v>
-      </c>
+      <c r="J650" t="inlineStr"/>
       <c r="K650" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22042,14 +22028,10 @@
         <v>-46379.2245278183</v>
       </c>
       <c r="H651" t="n">
-        <v>1</v>
-      </c>
-      <c r="I651" t="n">
-        <v>190700</v>
-      </c>
-      <c r="J651" t="n">
-        <v>190300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I651" t="inlineStr"/>
+      <c r="J651" t="inlineStr"/>
       <c r="K651" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22086,9 +22068,7 @@
         <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
-      <c r="J652" t="n">
-        <v>190300</v>
-      </c>
+      <c r="J652" t="inlineStr"/>
       <c r="K652" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22125,9 +22105,7 @@
         <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
-      <c r="J653" t="n">
-        <v>190300</v>
-      </c>
+      <c r="J653" t="inlineStr"/>
       <c r="K653" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22164,9 +22142,7 @@
         <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
-      <c r="J654" t="n">
-        <v>190300</v>
-      </c>
+      <c r="J654" t="inlineStr"/>
       <c r="K654" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22203,9 +22179,7 @@
         <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
-      <c r="J655" t="n">
-        <v>190300</v>
-      </c>
+      <c r="J655" t="inlineStr"/>
       <c r="K655" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22242,9 +22216,7 @@
         <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
-      <c r="J656" t="n">
-        <v>190300</v>
-      </c>
+      <c r="J656" t="inlineStr"/>
       <c r="K656" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22278,14 +22250,10 @@
         <v>-46383.8198278183</v>
       </c>
       <c r="H657" t="n">
-        <v>1</v>
-      </c>
-      <c r="I657" t="n">
-        <v>190300</v>
-      </c>
-      <c r="J657" t="n">
-        <v>190300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I657" t="inlineStr"/>
+      <c r="J657" t="inlineStr"/>
       <c r="K657" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22322,9 +22290,7 @@
         <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
-      <c r="J658" t="n">
-        <v>190300</v>
-      </c>
+      <c r="J658" t="inlineStr"/>
       <c r="K658" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22358,14 +22324,10 @@
         <v>-46311.9805278183</v>
       </c>
       <c r="H659" t="n">
-        <v>1</v>
-      </c>
-      <c r="I659" t="n">
-        <v>190300</v>
-      </c>
-      <c r="J659" t="n">
-        <v>190300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I659" t="inlineStr"/>
+      <c r="J659" t="inlineStr"/>
       <c r="K659" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22399,14 +22361,10 @@
         <v>-46320.70452676844</v>
       </c>
       <c r="H660" t="n">
-        <v>1</v>
-      </c>
-      <c r="I660" t="n">
-        <v>190500</v>
-      </c>
-      <c r="J660" t="n">
-        <v>190300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I660" t="inlineStr"/>
+      <c r="J660" t="inlineStr"/>
       <c r="K660" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22440,14 +22398,10 @@
         <v>-46315.51452676843</v>
       </c>
       <c r="H661" t="n">
-        <v>1</v>
-      </c>
-      <c r="I661" t="n">
-        <v>190300</v>
-      </c>
-      <c r="J661" t="n">
-        <v>190300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I661" t="inlineStr"/>
+      <c r="J661" t="inlineStr"/>
       <c r="K661" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22484,9 +22438,7 @@
         <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
-      <c r="J662" t="n">
-        <v>190300</v>
-      </c>
+      <c r="J662" t="inlineStr"/>
       <c r="K662" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22523,9 +22475,7 @@
         <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
-      <c r="J663" t="n">
-        <v>190300</v>
-      </c>
+      <c r="J663" t="inlineStr"/>
       <c r="K663" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22562,9 +22512,7 @@
         <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
-      <c r="J664" t="n">
-        <v>190300</v>
-      </c>
+      <c r="J664" t="inlineStr"/>
       <c r="K664" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22601,9 +22549,7 @@
         <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
-      <c r="J665" t="n">
-        <v>190300</v>
-      </c>
+      <c r="J665" t="inlineStr"/>
       <c r="K665" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22637,19 +22583,17 @@
         <v>-46314.70672676844</v>
       </c>
       <c r="H666" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
-      <c r="J666" t="n">
-        <v>190300</v>
-      </c>
+      <c r="J666" t="inlineStr"/>
       <c r="K666" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L666" t="n">
-        <v>0.9955254860746191</v>
+        <v>1</v>
       </c>
       <c r="M666" t="inlineStr"/>
     </row>
@@ -22676,11 +22620,15 @@
         <v>-46305.20576727211</v>
       </c>
       <c r="H667" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr"/>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -22709,11 +22657,17 @@
         <v>-46293.91920932769</v>
       </c>
       <c r="H668" t="n">
-        <v>2</v>
-      </c>
-      <c r="I668" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I668" t="n">
+        <v>190600</v>
+      </c>
       <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr"/>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -22746,7 +22700,11 @@
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr"/>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -22775,11 +22733,17 @@
         <v>-46281.2622093277</v>
       </c>
       <c r="H670" t="n">
-        <v>0</v>
-      </c>
-      <c r="I670" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I670" t="n">
+        <v>190400</v>
+      </c>
       <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr"/>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -22808,11 +22772,17 @@
         <v>-46281.2572093277</v>
       </c>
       <c r="H671" t="n">
-        <v>0</v>
-      </c>
-      <c r="I671" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I671" t="n">
+        <v>190500</v>
+      </c>
       <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr"/>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -22845,7 +22815,11 @@
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr"/>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -22878,7 +22852,11 @@
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr"/>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -22907,11 +22885,17 @@
         <v>-46448.2503093277</v>
       </c>
       <c r="H674" t="n">
-        <v>0</v>
-      </c>
-      <c r="I674" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I674" t="n">
+        <v>190600</v>
+      </c>
       <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr"/>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -22940,11 +22924,17 @@
         <v>-46448.2503093277</v>
       </c>
       <c r="H675" t="n">
-        <v>0</v>
-      </c>
-      <c r="I675" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I675" t="n">
+        <v>190700</v>
+      </c>
       <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr"/>
+      <c r="K675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -22977,7 +22967,11 @@
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr"/>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -23006,11 +23000,17 @@
         <v>-46465.1840093277</v>
       </c>
       <c r="H677" t="n">
-        <v>0</v>
-      </c>
-      <c r="I677" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I677" t="n">
+        <v>190300</v>
+      </c>
       <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr"/>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -23039,11 +23039,17 @@
         <v>-46461.1115093277</v>
       </c>
       <c r="H678" t="n">
-        <v>0</v>
-      </c>
-      <c r="I678" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I678" t="n">
+        <v>190400</v>
+      </c>
       <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr"/>
+      <c r="K678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -23072,11 +23078,17 @@
         <v>-46432.01570932769</v>
       </c>
       <c r="H679" t="n">
-        <v>0</v>
-      </c>
-      <c r="I679" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I679" t="n">
+        <v>190500</v>
+      </c>
       <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr"/>
+      <c r="K679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -23109,7 +23121,11 @@
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr"/>
+      <c r="K680" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -23142,7 +23158,11 @@
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr"/>
+      <c r="K681" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -23175,7 +23195,11 @@
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr"/>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -23208,7 +23232,11 @@
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr"/>
+      <c r="K683" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -23241,7 +23269,11 @@
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr"/>
+      <c r="K684" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -23274,7 +23306,11 @@
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr"/>
+      <c r="K685" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -23307,7 +23343,11 @@
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr"/>
+      <c r="K686" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -23340,7 +23380,11 @@
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr"/>
+      <c r="K687" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -23373,7 +23417,11 @@
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr"/>
+      <c r="K688" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -23406,7 +23454,11 @@
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr"/>
+      <c r="K689" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -23439,7 +23491,11 @@
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr"/>
+      <c r="K690" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -23472,7 +23528,11 @@
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr"/>
+      <c r="K691" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -23505,7 +23565,11 @@
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr"/>
+      <c r="K692" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -23538,7 +23602,11 @@
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr"/>
+      <c r="K693" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -23571,7 +23639,11 @@
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr"/>
+      <c r="K694" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -23604,7 +23676,11 @@
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr"/>
+      <c r="K695" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -23637,7 +23713,11 @@
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr"/>
+      <c r="K696" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -23670,7 +23750,11 @@
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr"/>
+      <c r="K697" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -23703,7 +23787,11 @@
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr"/>
+      <c r="K698" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -23736,7 +23824,11 @@
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr"/>
+      <c r="K699" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -23769,7 +23861,11 @@
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr"/>
+      <c r="K700" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -23802,7 +23898,11 @@
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr"/>
+      <c r="K701" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -23831,11 +23931,17 @@
         <v>-46252.48410723346</v>
       </c>
       <c r="H702" t="n">
-        <v>0</v>
-      </c>
-      <c r="I702" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I702" t="n">
+        <v>190500</v>
+      </c>
       <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr"/>
+      <c r="K702" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -23864,11 +23970,17 @@
         <v>-46252.48410723346</v>
       </c>
       <c r="H703" t="n">
-        <v>0</v>
-      </c>
-      <c r="I703" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I703" t="n">
+        <v>190700</v>
+      </c>
       <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr"/>
+      <c r="K703" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -23901,7 +24013,11 @@
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr"/>
+      <c r="K704" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -23934,7 +24050,11 @@
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr"/>
+      <c r="K705" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -23967,7 +24087,11 @@
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr"/>
+      <c r="K706" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -23996,11 +24120,17 @@
         <v>-46245.11930723346</v>
       </c>
       <c r="H707" t="n">
-        <v>0</v>
-      </c>
-      <c r="I707" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I707" t="n">
+        <v>190700</v>
+      </c>
       <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr"/>
+      <c r="K707" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -24033,7 +24163,11 @@
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr"/>
+      <c r="K708" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -24062,11 +24196,17 @@
         <v>-46329.97340723345</v>
       </c>
       <c r="H709" t="n">
-        <v>0</v>
-      </c>
-      <c r="I709" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I709" t="n">
+        <v>190600</v>
+      </c>
       <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr"/>
+      <c r="K709" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -24095,11 +24235,17 @@
         <v>-46344.88450723345</v>
       </c>
       <c r="H710" t="n">
-        <v>0</v>
-      </c>
-      <c r="I710" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I710" t="n">
+        <v>190600</v>
+      </c>
       <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr"/>
+      <c r="K710" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -24128,11 +24274,17 @@
         <v>-46344.88450723345</v>
       </c>
       <c r="H711" t="n">
-        <v>0</v>
-      </c>
-      <c r="I711" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I711" t="n">
+        <v>190500</v>
+      </c>
       <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr"/>
+      <c r="K711" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -24161,11 +24313,17 @@
         <v>-46342.26912705516</v>
       </c>
       <c r="H712" t="n">
-        <v>0</v>
-      </c>
-      <c r="I712" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I712" t="n">
+        <v>190500</v>
+      </c>
       <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr"/>
+      <c r="K712" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -24198,7 +24356,11 @@
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr"/>
+      <c r="K713" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -24231,7 +24393,11 @@
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr"/>
+      <c r="K714" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -24260,11 +24426,17 @@
         <v>-46346.47242705516</v>
       </c>
       <c r="H715" t="n">
-        <v>0</v>
-      </c>
-      <c r="I715" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I715" t="n">
+        <v>190500</v>
+      </c>
       <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr"/>
+      <c r="K715" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -24293,11 +24465,17 @@
         <v>-46346.47242705516</v>
       </c>
       <c r="H716" t="n">
-        <v>0</v>
-      </c>
-      <c r="I716" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I716" t="n">
+        <v>190400</v>
+      </c>
       <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr"/>
+      <c r="K716" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -24326,11 +24504,17 @@
         <v>-46327.34072705516</v>
       </c>
       <c r="H717" t="n">
-        <v>0</v>
-      </c>
-      <c r="I717" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I717" t="n">
+        <v>190400</v>
+      </c>
       <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr"/>
+      <c r="K717" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -24359,11 +24543,17 @@
         <v>-46326.53802705516</v>
       </c>
       <c r="H718" t="n">
-        <v>0</v>
-      </c>
-      <c r="I718" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I718" t="n">
+        <v>190500</v>
+      </c>
       <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr"/>
+      <c r="K718" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -24392,11 +24582,17 @@
         <v>-46326.87522705516</v>
       </c>
       <c r="H719" t="n">
-        <v>0</v>
-      </c>
-      <c r="I719" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I719" t="n">
+        <v>190700</v>
+      </c>
       <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr"/>
+      <c r="K719" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -24425,11 +24621,17 @@
         <v>-46345.01982705516</v>
       </c>
       <c r="H720" t="n">
-        <v>0</v>
-      </c>
-      <c r="I720" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I720" t="n">
+        <v>190600</v>
+      </c>
       <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr"/>
+      <c r="K720" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -24458,11 +24660,17 @@
         <v>-46345.01982705516</v>
       </c>
       <c r="H721" t="n">
-        <v>0</v>
-      </c>
-      <c r="I721" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I721" t="n">
+        <v>190500</v>
+      </c>
       <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr"/>
+      <c r="K721" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -24491,11 +24699,17 @@
         <v>-46345.01982705516</v>
       </c>
       <c r="H722" t="n">
-        <v>0</v>
-      </c>
-      <c r="I722" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I722" t="n">
+        <v>190500</v>
+      </c>
       <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr"/>
+      <c r="K722" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -24524,11 +24738,17 @@
         <v>-46345.01982705516</v>
       </c>
       <c r="H723" t="n">
-        <v>0</v>
-      </c>
-      <c r="I723" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I723" t="n">
+        <v>190500</v>
+      </c>
       <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr"/>
+      <c r="K723" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -24557,11 +24777,17 @@
         <v>-46345.01982705516</v>
       </c>
       <c r="H724" t="n">
-        <v>0</v>
-      </c>
-      <c r="I724" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I724" t="n">
+        <v>190500</v>
+      </c>
       <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr"/>
+      <c r="K724" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -24594,7 +24820,11 @@
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr"/>
+      <c r="K725" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -24627,7 +24857,11 @@
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr"/>
+      <c r="K726" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -24656,11 +24890,17 @@
         <v>-46345.01982705516</v>
       </c>
       <c r="H727" t="n">
-        <v>0</v>
-      </c>
-      <c r="I727" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I727" t="n">
+        <v>190500</v>
+      </c>
       <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr"/>
+      <c r="K727" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -24689,11 +24929,17 @@
         <v>-46336.56152705516</v>
       </c>
       <c r="H728" t="n">
-        <v>0</v>
-      </c>
-      <c r="I728" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I728" t="n">
+        <v>190500</v>
+      </c>
       <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr"/>
+      <c r="K728" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -24722,11 +24968,17 @@
         <v>-46350.58322705516</v>
       </c>
       <c r="H729" t="n">
-        <v>0</v>
-      </c>
-      <c r="I729" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I729" t="n">
+        <v>190700</v>
+      </c>
       <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr"/>
+      <c r="K729" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -24755,11 +25007,17 @@
         <v>-46171.70219598769</v>
       </c>
       <c r="H730" t="n">
-        <v>0</v>
-      </c>
-      <c r="I730" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I730" t="n">
+        <v>190400</v>
+      </c>
       <c r="J730" t="inlineStr"/>
-      <c r="K730" t="inlineStr"/>
+      <c r="K730" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -24788,11 +25046,17 @@
         <v>-46185.24309598769</v>
       </c>
       <c r="H731" t="n">
-        <v>0</v>
-      </c>
-      <c r="I731" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I731" t="n">
+        <v>190900</v>
+      </c>
       <c r="J731" t="inlineStr"/>
-      <c r="K731" t="inlineStr"/>
+      <c r="K731" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -24821,11 +25085,17 @@
         <v>-46185.24309598769</v>
       </c>
       <c r="H732" t="n">
-        <v>0</v>
-      </c>
-      <c r="I732" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I732" t="n">
+        <v>190200</v>
+      </c>
       <c r="J732" t="inlineStr"/>
-      <c r="K732" t="inlineStr"/>
+      <c r="K732" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -24854,11 +25124,17 @@
         <v>-46201.21959598768</v>
       </c>
       <c r="H733" t="n">
-        <v>0</v>
-      </c>
-      <c r="I733" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I733" t="n">
+        <v>190200</v>
+      </c>
       <c r="J733" t="inlineStr"/>
-      <c r="K733" t="inlineStr"/>
+      <c r="K733" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L733" t="n">
         <v>1</v>
       </c>
@@ -24887,11 +25163,17 @@
         <v>-46225.03569598768</v>
       </c>
       <c r="H734" t="n">
-        <v>0</v>
-      </c>
-      <c r="I734" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I734" t="n">
+        <v>190100</v>
+      </c>
       <c r="J734" t="inlineStr"/>
-      <c r="K734" t="inlineStr"/>
+      <c r="K734" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L734" t="n">
         <v>1</v>
       </c>
@@ -24920,11 +25202,17 @@
         <v>-46143.46079598768</v>
       </c>
       <c r="H735" t="n">
-        <v>0</v>
-      </c>
-      <c r="I735" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I735" t="n">
+        <v>190000</v>
+      </c>
       <c r="J735" t="inlineStr"/>
-      <c r="K735" t="inlineStr"/>
+      <c r="K735" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L735" t="n">
         <v>1</v>
       </c>
@@ -24953,11 +25241,17 @@
         <v>-46202.27019598768</v>
       </c>
       <c r="H736" t="n">
-        <v>0</v>
-      </c>
-      <c r="I736" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I736" t="n">
+        <v>190200</v>
+      </c>
       <c r="J736" t="inlineStr"/>
-      <c r="K736" t="inlineStr"/>
+      <c r="K736" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -24986,11 +25280,17 @@
         <v>-46202.27019598768</v>
       </c>
       <c r="H737" t="n">
-        <v>0</v>
-      </c>
-      <c r="I737" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I737" t="n">
+        <v>190000</v>
+      </c>
       <c r="J737" t="inlineStr"/>
-      <c r="K737" t="inlineStr"/>
+      <c r="K737" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -25019,11 +25319,17 @@
         <v>-46202.27019598768</v>
       </c>
       <c r="H738" t="n">
-        <v>0</v>
-      </c>
-      <c r="I738" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I738" t="n">
+        <v>190000</v>
+      </c>
       <c r="J738" t="inlineStr"/>
-      <c r="K738" t="inlineStr"/>
+      <c r="K738" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -25052,11 +25358,17 @@
         <v>-46181.48449598768</v>
       </c>
       <c r="H739" t="n">
-        <v>0</v>
-      </c>
-      <c r="I739" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I739" t="n">
+        <v>190000</v>
+      </c>
       <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr"/>
+      <c r="K739" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -25085,11 +25397,17 @@
         <v>-46222.29859598768</v>
       </c>
       <c r="H740" t="n">
-        <v>0</v>
-      </c>
-      <c r="I740" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I740" t="n">
+        <v>190200</v>
+      </c>
       <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr"/>
+      <c r="K740" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -25118,11 +25436,17 @@
         <v>-46222.29859598768</v>
       </c>
       <c r="H741" t="n">
-        <v>0</v>
-      </c>
-      <c r="I741" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I741" t="n">
+        <v>189900</v>
+      </c>
       <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr"/>
+      <c r="K741" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -25151,11 +25475,17 @@
         <v>-46223.61219598768</v>
       </c>
       <c r="H742" t="n">
-        <v>0</v>
-      </c>
-      <c r="I742" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I742" t="n">
+        <v>189900</v>
+      </c>
       <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr"/>
+      <c r="K742" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -25184,11 +25514,17 @@
         <v>-46220.52479598769</v>
       </c>
       <c r="H743" t="n">
-        <v>0</v>
-      </c>
-      <c r="I743" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I743" t="n">
+        <v>189800</v>
+      </c>
       <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr"/>
+      <c r="K743" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -25217,11 +25553,17 @@
         <v>-46302.45409598769</v>
       </c>
       <c r="H744" t="n">
-        <v>0</v>
-      </c>
-      <c r="I744" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I744" t="n">
+        <v>189900</v>
+      </c>
       <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr"/>
+      <c r="K744" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -25250,11 +25592,17 @@
         <v>-46295.58079598769</v>
       </c>
       <c r="H745" t="n">
-        <v>0</v>
-      </c>
-      <c r="I745" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I745" t="n">
+        <v>189800</v>
+      </c>
       <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr"/>
+      <c r="K745" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -25283,11 +25631,17 @@
         <v>-46293.46339598769</v>
       </c>
       <c r="H746" t="n">
-        <v>0</v>
-      </c>
-      <c r="I746" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I746" t="n">
+        <v>189900</v>
+      </c>
       <c r="J746" t="inlineStr"/>
-      <c r="K746" t="inlineStr"/>
+      <c r="K746" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -25316,11 +25670,17 @@
         <v>-46293.46339598769</v>
       </c>
       <c r="H747" t="n">
-        <v>0</v>
-      </c>
-      <c r="I747" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I747" t="n">
+        <v>190100</v>
+      </c>
       <c r="J747" t="inlineStr"/>
-      <c r="K747" t="inlineStr"/>
+      <c r="K747" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -25354,10 +25714,12 @@
       <c r="I748" t="n">
         <v>190100</v>
       </c>
-      <c r="J748" t="n">
-        <v>190100</v>
-      </c>
-      <c r="K748" t="inlineStr"/>
+      <c r="J748" t="inlineStr"/>
+      <c r="K748" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -25386,15 +25748,15 @@
         <v>-46254.01219598769</v>
       </c>
       <c r="H749" t="n">
-        <v>0</v>
-      </c>
-      <c r="I749" t="inlineStr"/>
-      <c r="J749" t="n">
+        <v>1</v>
+      </c>
+      <c r="I749" t="n">
         <v>190100</v>
       </c>
+      <c r="J749" t="inlineStr"/>
       <c r="K749" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L749" t="n">
@@ -25425,12 +25787,12 @@
         <v>-46254.01219598769</v>
       </c>
       <c r="H750" t="n">
-        <v>0</v>
-      </c>
-      <c r="I750" t="inlineStr"/>
-      <c r="J750" t="n">
-        <v>190100</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I750" t="n">
+        <v>190200</v>
+      </c>
+      <c r="J750" t="inlineStr"/>
       <c r="K750" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25469,9 +25831,7 @@
       <c r="I751" t="n">
         <v>190200</v>
       </c>
-      <c r="J751" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J751" t="inlineStr"/>
       <c r="K751" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25505,12 +25865,12 @@
         <v>-46245.76661016091</v>
       </c>
       <c r="H752" t="n">
-        <v>0</v>
-      </c>
-      <c r="I752" t="inlineStr"/>
-      <c r="J752" t="n">
-        <v>190100</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I752" t="n">
+        <v>190500</v>
+      </c>
+      <c r="J752" t="inlineStr"/>
       <c r="K752" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25544,12 +25904,12 @@
         <v>-46247.76661016091</v>
       </c>
       <c r="H753" t="n">
-        <v>0</v>
-      </c>
-      <c r="I753" t="inlineStr"/>
-      <c r="J753" t="n">
-        <v>190100</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I753" t="n">
+        <v>190400</v>
+      </c>
+      <c r="J753" t="inlineStr"/>
       <c r="K753" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25583,12 +25943,12 @@
         <v>-46252.18061016091</v>
       </c>
       <c r="H754" t="n">
-        <v>0</v>
-      </c>
-      <c r="I754" t="inlineStr"/>
-      <c r="J754" t="n">
-        <v>190100</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I754" t="n">
+        <v>190300</v>
+      </c>
+      <c r="J754" t="inlineStr"/>
       <c r="K754" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25622,12 +25982,12 @@
         <v>-46256.18061016091</v>
       </c>
       <c r="H755" t="n">
-        <v>0</v>
-      </c>
-      <c r="I755" t="inlineStr"/>
-      <c r="J755" t="n">
+        <v>1</v>
+      </c>
+      <c r="I755" t="n">
         <v>190100</v>
       </c>
+      <c r="J755" t="inlineStr"/>
       <c r="K755" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25661,12 +26021,12 @@
         <v>-46256.18061016091</v>
       </c>
       <c r="H756" t="n">
-        <v>0</v>
-      </c>
-      <c r="I756" t="inlineStr"/>
-      <c r="J756" t="n">
-        <v>190100</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I756" t="n">
+        <v>190000</v>
+      </c>
+      <c r="J756" t="inlineStr"/>
       <c r="K756" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25700,12 +26060,12 @@
         <v>-46248.23351762674</v>
       </c>
       <c r="H757" t="n">
-        <v>0</v>
-      </c>
-      <c r="I757" t="inlineStr"/>
-      <c r="J757" t="n">
-        <v>190100</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I757" t="n">
+        <v>190000</v>
+      </c>
+      <c r="J757" t="inlineStr"/>
       <c r="K757" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25739,12 +26099,12 @@
         <v>-46253.19591762673</v>
       </c>
       <c r="H758" t="n">
-        <v>0</v>
-      </c>
-      <c r="I758" t="inlineStr"/>
-      <c r="J758" t="n">
-        <v>190100</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I758" t="n">
+        <v>190200</v>
+      </c>
+      <c r="J758" t="inlineStr"/>
       <c r="K758" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25778,12 +26138,12 @@
         <v>-46318.63891762673</v>
       </c>
       <c r="H759" t="n">
-        <v>0</v>
-      </c>
-      <c r="I759" t="inlineStr"/>
-      <c r="J759" t="n">
+        <v>1</v>
+      </c>
+      <c r="I759" t="n">
         <v>190100</v>
       </c>
+      <c r="J759" t="inlineStr"/>
       <c r="K759" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25817,12 +26177,12 @@
         <v>-46318.63891762673</v>
       </c>
       <c r="H760" t="n">
-        <v>0</v>
-      </c>
-      <c r="I760" t="inlineStr"/>
-      <c r="J760" t="n">
-        <v>190100</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I760" t="n">
+        <v>190000</v>
+      </c>
+      <c r="J760" t="inlineStr"/>
       <c r="K760" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25856,12 +26216,12 @@
         <v>-46467.99231762673</v>
       </c>
       <c r="H761" t="n">
-        <v>0</v>
-      </c>
-      <c r="I761" t="inlineStr"/>
-      <c r="J761" t="n">
-        <v>190100</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I761" t="n">
+        <v>190000</v>
+      </c>
+      <c r="J761" t="inlineStr"/>
       <c r="K761" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25895,12 +26255,12 @@
         <v>-46467.99231762673</v>
       </c>
       <c r="H762" t="n">
-        <v>0</v>
-      </c>
-      <c r="I762" t="inlineStr"/>
-      <c r="J762" t="n">
-        <v>190100</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I762" t="n">
+        <v>189800</v>
+      </c>
+      <c r="J762" t="inlineStr"/>
       <c r="K762" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25934,12 +26294,12 @@
         <v>-46380.49731762673</v>
       </c>
       <c r="H763" t="n">
-        <v>0</v>
-      </c>
-      <c r="I763" t="inlineStr"/>
-      <c r="J763" t="n">
-        <v>190100</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I763" t="n">
+        <v>189800</v>
+      </c>
+      <c r="J763" t="inlineStr"/>
       <c r="K763" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25973,12 +26333,12 @@
         <v>-46380.49731762673</v>
       </c>
       <c r="H764" t="n">
-        <v>0</v>
-      </c>
-      <c r="I764" t="inlineStr"/>
-      <c r="J764" t="n">
-        <v>190100</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I764" t="n">
+        <v>190000</v>
+      </c>
+      <c r="J764" t="inlineStr"/>
       <c r="K764" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26012,12 +26372,12 @@
         <v>-46367.99501762673</v>
       </c>
       <c r="H765" t="n">
-        <v>0</v>
-      </c>
-      <c r="I765" t="inlineStr"/>
-      <c r="J765" t="n">
-        <v>190100</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I765" t="n">
+        <v>190000</v>
+      </c>
+      <c r="J765" t="inlineStr"/>
       <c r="K765" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26051,12 +26411,12 @@
         <v>-46346.63701762673</v>
       </c>
       <c r="H766" t="n">
-        <v>0</v>
-      </c>
-      <c r="I766" t="inlineStr"/>
-      <c r="J766" t="n">
+        <v>1</v>
+      </c>
+      <c r="I766" t="n">
         <v>190100</v>
       </c>
+      <c r="J766" t="inlineStr"/>
       <c r="K766" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26090,12 +26450,12 @@
         <v>-46347.60361762673</v>
       </c>
       <c r="H767" t="n">
-        <v>0</v>
-      </c>
-      <c r="I767" t="inlineStr"/>
-      <c r="J767" t="n">
-        <v>190100</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I767" t="n">
+        <v>190200</v>
+      </c>
+      <c r="J767" t="inlineStr"/>
       <c r="K767" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26134,9 +26494,7 @@
       <c r="I768" t="n">
         <v>190000</v>
       </c>
-      <c r="J768" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J768" t="inlineStr"/>
       <c r="K768" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26170,12 +26528,12 @@
         <v>-46333.47383995989</v>
       </c>
       <c r="H769" t="n">
-        <v>0</v>
-      </c>
-      <c r="I769" t="inlineStr"/>
-      <c r="J769" t="n">
-        <v>190100</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I769" t="n">
+        <v>190300</v>
+      </c>
+      <c r="J769" t="inlineStr"/>
       <c r="K769" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26209,12 +26567,12 @@
         <v>-46324.0944187414</v>
       </c>
       <c r="H770" t="n">
-        <v>0</v>
-      </c>
-      <c r="I770" t="inlineStr"/>
-      <c r="J770" t="n">
-        <v>190100</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I770" t="n">
+        <v>190300</v>
+      </c>
+      <c r="J770" t="inlineStr"/>
       <c r="K770" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26248,12 +26606,12 @@
         <v>-46331.0944187414</v>
       </c>
       <c r="H771" t="n">
-        <v>0</v>
-      </c>
-      <c r="I771" t="inlineStr"/>
-      <c r="J771" t="n">
-        <v>190100</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I771" t="n">
+        <v>190400</v>
+      </c>
+      <c r="J771" t="inlineStr"/>
       <c r="K771" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26287,12 +26645,12 @@
         <v>-46330.8981187414</v>
       </c>
       <c r="H772" t="n">
-        <v>0</v>
-      </c>
-      <c r="I772" t="inlineStr"/>
-      <c r="J772" t="n">
-        <v>190100</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I772" t="n">
+        <v>190300</v>
+      </c>
+      <c r="J772" t="inlineStr"/>
       <c r="K772" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26326,12 +26684,12 @@
         <v>-46250.3588187414</v>
       </c>
       <c r="H773" t="n">
-        <v>0</v>
-      </c>
-      <c r="I773" t="inlineStr"/>
-      <c r="J773" t="n">
-        <v>190100</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I773" t="n">
+        <v>190500</v>
+      </c>
+      <c r="J773" t="inlineStr"/>
       <c r="K773" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26365,12 +26723,12 @@
         <v>-46250.3588187414</v>
       </c>
       <c r="H774" t="n">
-        <v>0</v>
-      </c>
-      <c r="I774" t="inlineStr"/>
-      <c r="J774" t="n">
-        <v>190100</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I774" t="n">
+        <v>190700</v>
+      </c>
+      <c r="J774" t="inlineStr"/>
       <c r="K774" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26404,12 +26762,12 @@
         <v>-46265.0136187414</v>
       </c>
       <c r="H775" t="n">
-        <v>0</v>
-      </c>
-      <c r="I775" t="inlineStr"/>
-      <c r="J775" t="n">
-        <v>190100</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I775" t="n">
+        <v>190700</v>
+      </c>
+      <c r="J775" t="inlineStr"/>
       <c r="K775" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26443,12 +26801,12 @@
         <v>-46265.0136187414</v>
       </c>
       <c r="H776" t="n">
-        <v>0</v>
-      </c>
-      <c r="I776" t="inlineStr"/>
-      <c r="J776" t="n">
-        <v>190100</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I776" t="n">
+        <v>190300</v>
+      </c>
+      <c r="J776" t="inlineStr"/>
       <c r="K776" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26482,12 +26840,12 @@
         <v>-46265.0136187414</v>
       </c>
       <c r="H777" t="n">
-        <v>0</v>
-      </c>
-      <c r="I777" t="inlineStr"/>
-      <c r="J777" t="n">
-        <v>190100</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I777" t="n">
+        <v>190300</v>
+      </c>
+      <c r="J777" t="inlineStr"/>
       <c r="K777" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26521,12 +26879,12 @@
         <v>-46263.9510187414</v>
       </c>
       <c r="H778" t="n">
-        <v>0</v>
-      </c>
-      <c r="I778" t="inlineStr"/>
-      <c r="J778" t="n">
-        <v>190100</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I778" t="n">
+        <v>190300</v>
+      </c>
+      <c r="J778" t="inlineStr"/>
       <c r="K778" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26560,12 +26918,12 @@
         <v>-46263.9510187414</v>
       </c>
       <c r="H779" t="n">
-        <v>0</v>
-      </c>
-      <c r="I779" t="inlineStr"/>
-      <c r="J779" t="n">
-        <v>190100</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I779" t="n">
+        <v>190500</v>
+      </c>
+      <c r="J779" t="inlineStr"/>
       <c r="K779" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26599,12 +26957,12 @@
         <v>-46263.9510187414</v>
       </c>
       <c r="H780" t="n">
-        <v>0</v>
-      </c>
-      <c r="I780" t="inlineStr"/>
-      <c r="J780" t="n">
-        <v>190100</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I780" t="n">
+        <v>190500</v>
+      </c>
+      <c r="J780" t="inlineStr"/>
       <c r="K780" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26638,12 +26996,12 @@
         <v>-46258.9510187414</v>
       </c>
       <c r="H781" t="n">
-        <v>0</v>
-      </c>
-      <c r="I781" t="inlineStr"/>
-      <c r="J781" t="n">
-        <v>190100</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I781" t="n">
+        <v>190500</v>
+      </c>
+      <c r="J781" t="inlineStr"/>
       <c r="K781" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26677,12 +27035,12 @@
         <v>-46258.9510187414</v>
       </c>
       <c r="H782" t="n">
-        <v>0</v>
-      </c>
-      <c r="I782" t="inlineStr"/>
-      <c r="J782" t="n">
-        <v>190100</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I782" t="n">
+        <v>190700</v>
+      </c>
+      <c r="J782" t="inlineStr"/>
       <c r="K782" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26716,12 +27074,12 @@
         <v>-46320.5818187414</v>
       </c>
       <c r="H783" t="n">
-        <v>0</v>
-      </c>
-      <c r="I783" t="inlineStr"/>
-      <c r="J783" t="n">
-        <v>190100</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I783" t="n">
+        <v>190700</v>
+      </c>
+      <c r="J783" t="inlineStr"/>
       <c r="K783" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26755,12 +27113,12 @@
         <v>-46320.5818187414</v>
       </c>
       <c r="H784" t="n">
-        <v>0</v>
-      </c>
-      <c r="I784" t="inlineStr"/>
-      <c r="J784" t="n">
-        <v>190100</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I784" t="n">
+        <v>190600</v>
+      </c>
+      <c r="J784" t="inlineStr"/>
       <c r="K784" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26794,12 +27152,12 @@
         <v>-46320.5818187414</v>
       </c>
       <c r="H785" t="n">
-        <v>0</v>
-      </c>
-      <c r="I785" t="inlineStr"/>
-      <c r="J785" t="n">
-        <v>190100</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I785" t="n">
+        <v>190600</v>
+      </c>
+      <c r="J785" t="inlineStr"/>
       <c r="K785" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26833,12 +27191,12 @@
         <v>-46266.9531187414</v>
       </c>
       <c r="H786" t="n">
-        <v>0</v>
-      </c>
-      <c r="I786" t="inlineStr"/>
-      <c r="J786" t="n">
-        <v>190100</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I786" t="n">
+        <v>190600</v>
+      </c>
+      <c r="J786" t="inlineStr"/>
       <c r="K786" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26872,12 +27230,12 @@
         <v>-46267.24351874139</v>
       </c>
       <c r="H787" t="n">
-        <v>0</v>
-      </c>
-      <c r="I787" t="inlineStr"/>
-      <c r="J787" t="n">
-        <v>190100</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I787" t="n">
+        <v>190900</v>
+      </c>
+      <c r="J787" t="inlineStr"/>
       <c r="K787" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26911,12 +27269,12 @@
         <v>-46263.47681874139</v>
       </c>
       <c r="H788" t="n">
-        <v>0</v>
-      </c>
-      <c r="I788" t="inlineStr"/>
-      <c r="J788" t="n">
-        <v>190100</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I788" t="n">
+        <v>190300</v>
+      </c>
+      <c r="J788" t="inlineStr"/>
       <c r="K788" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26950,12 +27308,12 @@
         <v>-46263.47681874139</v>
       </c>
       <c r="H789" t="n">
-        <v>0</v>
-      </c>
-      <c r="I789" t="inlineStr"/>
-      <c r="J789" t="n">
-        <v>190100</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I789" t="n">
+        <v>190600</v>
+      </c>
+      <c r="J789" t="inlineStr"/>
       <c r="K789" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26989,12 +27347,12 @@
         <v>-46269.1746187414</v>
       </c>
       <c r="H790" t="n">
-        <v>0</v>
-      </c>
-      <c r="I790" t="inlineStr"/>
-      <c r="J790" t="n">
-        <v>190100</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I790" t="n">
+        <v>190600</v>
+      </c>
+      <c r="J790" t="inlineStr"/>
       <c r="K790" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27028,12 +27386,12 @@
         <v>-46242.09061874139</v>
       </c>
       <c r="H791" t="n">
-        <v>0</v>
-      </c>
-      <c r="I791" t="inlineStr"/>
-      <c r="J791" t="n">
-        <v>190100</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I791" t="n">
+        <v>190300</v>
+      </c>
+      <c r="J791" t="inlineStr"/>
       <c r="K791" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27067,12 +27425,12 @@
         <v>-46241.88011874139</v>
       </c>
       <c r="H792" t="n">
-        <v>0</v>
-      </c>
-      <c r="I792" t="inlineStr"/>
-      <c r="J792" t="n">
-        <v>190100</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I792" t="n">
+        <v>190700</v>
+      </c>
+      <c r="J792" t="inlineStr"/>
       <c r="K792" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27106,12 +27464,12 @@
         <v>-46241.88011874139</v>
       </c>
       <c r="H793" t="n">
-        <v>0</v>
-      </c>
-      <c r="I793" t="inlineStr"/>
-      <c r="J793" t="n">
-        <v>190100</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I793" t="n">
+        <v>190800</v>
+      </c>
+      <c r="J793" t="inlineStr"/>
       <c r="K793" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27145,12 +27503,12 @@
         <v>-46241.88011874139</v>
       </c>
       <c r="H794" t="n">
-        <v>0</v>
-      </c>
-      <c r="I794" t="inlineStr"/>
-      <c r="J794" t="n">
-        <v>190100</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I794" t="n">
+        <v>190800</v>
+      </c>
+      <c r="J794" t="inlineStr"/>
       <c r="K794" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27184,12 +27542,12 @@
         <v>-46179.54966423405</v>
       </c>
       <c r="H795" t="n">
-        <v>0</v>
-      </c>
-      <c r="I795" t="inlineStr"/>
-      <c r="J795" t="n">
-        <v>190100</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I795" t="n">
+        <v>190800</v>
+      </c>
+      <c r="J795" t="inlineStr"/>
       <c r="K795" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27223,12 +27581,12 @@
         <v>-46179.54966423405</v>
       </c>
       <c r="H796" t="n">
-        <v>0</v>
-      </c>
-      <c r="I796" t="inlineStr"/>
-      <c r="J796" t="n">
-        <v>190100</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I796" t="n">
+        <v>190900</v>
+      </c>
+      <c r="J796" t="inlineStr"/>
       <c r="K796" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27262,12 +27620,12 @@
         <v>-46179.54966423405</v>
       </c>
       <c r="H797" t="n">
-        <v>0</v>
-      </c>
-      <c r="I797" t="inlineStr"/>
-      <c r="J797" t="n">
-        <v>190100</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I797" t="n">
+        <v>190900</v>
+      </c>
+      <c r="J797" t="inlineStr"/>
       <c r="K797" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27301,12 +27659,12 @@
         <v>-46173.848096571</v>
       </c>
       <c r="H798" t="n">
-        <v>0</v>
-      </c>
-      <c r="I798" t="inlineStr"/>
-      <c r="J798" t="n">
-        <v>190100</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I798" t="n">
+        <v>190900</v>
+      </c>
+      <c r="J798" t="inlineStr"/>
       <c r="K798" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27340,12 +27698,12 @@
         <v>-46215.049196571</v>
       </c>
       <c r="H799" t="n">
-        <v>0</v>
-      </c>
-      <c r="I799" t="inlineStr"/>
-      <c r="J799" t="n">
-        <v>190100</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I799" t="n">
+        <v>191000</v>
+      </c>
+      <c r="J799" t="inlineStr"/>
       <c r="K799" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27379,12 +27737,12 @@
         <v>-46215.049196571</v>
       </c>
       <c r="H800" t="n">
-        <v>0</v>
-      </c>
-      <c r="I800" t="inlineStr"/>
-      <c r="J800" t="n">
-        <v>190100</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I800" t="n">
+        <v>190900</v>
+      </c>
+      <c r="J800" t="inlineStr"/>
       <c r="K800" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27418,12 +27776,12 @@
         <v>-46215.049196571</v>
       </c>
       <c r="H801" t="n">
-        <v>0</v>
-      </c>
-      <c r="I801" t="inlineStr"/>
-      <c r="J801" t="n">
-        <v>190100</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I801" t="n">
+        <v>190900</v>
+      </c>
+      <c r="J801" t="inlineStr"/>
       <c r="K801" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27457,12 +27815,12 @@
         <v>-46215.049196571</v>
       </c>
       <c r="H802" t="n">
-        <v>0</v>
-      </c>
-      <c r="I802" t="inlineStr"/>
-      <c r="J802" t="n">
-        <v>190100</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I802" t="n">
+        <v>190900</v>
+      </c>
+      <c r="J802" t="inlineStr"/>
       <c r="K802" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27496,12 +27854,12 @@
         <v>-46214.912196571</v>
       </c>
       <c r="H803" t="n">
-        <v>0</v>
-      </c>
-      <c r="I803" t="inlineStr"/>
-      <c r="J803" t="n">
-        <v>190100</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I803" t="n">
+        <v>190900</v>
+      </c>
+      <c r="J803" t="inlineStr"/>
       <c r="K803" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27535,12 +27893,12 @@
         <v>-46279.081796571</v>
       </c>
       <c r="H804" t="n">
-        <v>0</v>
-      </c>
-      <c r="I804" t="inlineStr"/>
-      <c r="J804" t="n">
-        <v>190100</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I804" t="n">
+        <v>191000</v>
+      </c>
+      <c r="J804" t="inlineStr"/>
       <c r="K804" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27574,12 +27932,12 @@
         <v>-46277.00311175425</v>
       </c>
       <c r="H805" t="n">
-        <v>0</v>
-      </c>
-      <c r="I805" t="inlineStr"/>
-      <c r="J805" t="n">
-        <v>190100</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I805" t="n">
+        <v>190900</v>
+      </c>
+      <c r="J805" t="inlineStr"/>
       <c r="K805" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27613,12 +27971,12 @@
         <v>-46296.45250347766</v>
       </c>
       <c r="H806" t="n">
-        <v>0</v>
-      </c>
-      <c r="I806" t="inlineStr"/>
-      <c r="J806" t="n">
-        <v>190100</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I806" t="n">
+        <v>191000</v>
+      </c>
+      <c r="J806" t="inlineStr"/>
       <c r="K806" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27652,12 +28010,12 @@
         <v>-46297.44990347766</v>
       </c>
       <c r="H807" t="n">
-        <v>0</v>
-      </c>
-      <c r="I807" t="inlineStr"/>
-      <c r="J807" t="n">
-        <v>190100</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I807" t="n">
+        <v>190800</v>
+      </c>
+      <c r="J807" t="inlineStr"/>
       <c r="K807" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27691,12 +28049,12 @@
         <v>-46313.49850347766</v>
       </c>
       <c r="H808" t="n">
-        <v>0</v>
-      </c>
-      <c r="I808" t="inlineStr"/>
-      <c r="J808" t="n">
-        <v>190100</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I808" t="n">
+        <v>190700</v>
+      </c>
+      <c r="J808" t="inlineStr"/>
       <c r="K808" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27730,12 +28088,12 @@
         <v>-46313.49850347766</v>
       </c>
       <c r="H809" t="n">
-        <v>0</v>
-      </c>
-      <c r="I809" t="inlineStr"/>
-      <c r="J809" t="n">
-        <v>190100</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I809" t="n">
+        <v>190600</v>
+      </c>
+      <c r="J809" t="inlineStr"/>
       <c r="K809" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27769,12 +28127,12 @@
         <v>-46313.32910347766</v>
       </c>
       <c r="H810" t="n">
-        <v>0</v>
-      </c>
-      <c r="I810" t="inlineStr"/>
-      <c r="J810" t="n">
-        <v>190100</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I810" t="n">
+        <v>190600</v>
+      </c>
+      <c r="J810" t="inlineStr"/>
       <c r="K810" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27808,12 +28166,12 @@
         <v>-46305.32910347766</v>
       </c>
       <c r="H811" t="n">
-        <v>0</v>
-      </c>
-      <c r="I811" t="inlineStr"/>
-      <c r="J811" t="n">
-        <v>190100</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I811" t="n">
+        <v>190700</v>
+      </c>
+      <c r="J811" t="inlineStr"/>
       <c r="K811" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27847,12 +28205,12 @@
         <v>-46305.32910347766</v>
       </c>
       <c r="H812" t="n">
-        <v>0</v>
-      </c>
-      <c r="I812" t="inlineStr"/>
-      <c r="J812" t="n">
-        <v>190100</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I812" t="n">
+        <v>190900</v>
+      </c>
+      <c r="J812" t="inlineStr"/>
       <c r="K812" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27886,12 +28244,12 @@
         <v>-46154.54255264084</v>
       </c>
       <c r="H813" t="n">
-        <v>0</v>
-      </c>
-      <c r="I813" t="inlineStr"/>
-      <c r="J813" t="n">
-        <v>190100</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I813" t="n">
+        <v>190900</v>
+      </c>
+      <c r="J813" t="inlineStr"/>
       <c r="K813" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27925,12 +28283,12 @@
         <v>-46145.27760603687</v>
       </c>
       <c r="H814" t="n">
-        <v>0</v>
-      </c>
-      <c r="I814" t="inlineStr"/>
-      <c r="J814" t="n">
-        <v>190100</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I814" t="n">
+        <v>191300</v>
+      </c>
+      <c r="J814" t="inlineStr"/>
       <c r="K814" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27967,9 +28325,7 @@
         <v>0</v>
       </c>
       <c r="I815" t="inlineStr"/>
-      <c r="J815" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J815" t="inlineStr"/>
       <c r="K815" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28003,12 +28359,12 @@
         <v>-46049.46999108653</v>
       </c>
       <c r="H816" t="n">
-        <v>0</v>
-      </c>
-      <c r="I816" t="inlineStr"/>
-      <c r="J816" t="n">
-        <v>190100</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I816" t="n">
+        <v>190800</v>
+      </c>
+      <c r="J816" t="inlineStr"/>
       <c r="K816" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28045,9 +28401,7 @@
         <v>0</v>
       </c>
       <c r="I817" t="inlineStr"/>
-      <c r="J817" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J817" t="inlineStr"/>
       <c r="K817" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28084,9 +28438,7 @@
         <v>0</v>
       </c>
       <c r="I818" t="inlineStr"/>
-      <c r="J818" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J818" t="inlineStr"/>
       <c r="K818" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28123,9 +28475,7 @@
         <v>0</v>
       </c>
       <c r="I819" t="inlineStr"/>
-      <c r="J819" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J819" t="inlineStr"/>
       <c r="K819" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28162,9 +28512,7 @@
         <v>0</v>
       </c>
       <c r="I820" t="inlineStr"/>
-      <c r="J820" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J820" t="inlineStr"/>
       <c r="K820" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28201,9 +28549,7 @@
         <v>0</v>
       </c>
       <c r="I821" t="inlineStr"/>
-      <c r="J821" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J821" t="inlineStr"/>
       <c r="K821" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28240,9 +28586,7 @@
         <v>0</v>
       </c>
       <c r="I822" t="inlineStr"/>
-      <c r="J822" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J822" t="inlineStr"/>
       <c r="K822" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28279,9 +28623,7 @@
         <v>0</v>
       </c>
       <c r="I823" t="inlineStr"/>
-      <c r="J823" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J823" t="inlineStr"/>
       <c r="K823" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28318,9 +28660,7 @@
         <v>0</v>
       </c>
       <c r="I824" t="inlineStr"/>
-      <c r="J824" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J824" t="inlineStr"/>
       <c r="K824" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28357,9 +28697,7 @@
         <v>0</v>
       </c>
       <c r="I825" t="inlineStr"/>
-      <c r="J825" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J825" t="inlineStr"/>
       <c r="K825" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28396,9 +28734,7 @@
         <v>0</v>
       </c>
       <c r="I826" t="inlineStr"/>
-      <c r="J826" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J826" t="inlineStr"/>
       <c r="K826" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28435,9 +28771,7 @@
         <v>0</v>
       </c>
       <c r="I827" t="inlineStr"/>
-      <c r="J827" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J827" t="inlineStr"/>
       <c r="K827" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28474,9 +28808,7 @@
         <v>0</v>
       </c>
       <c r="I828" t="inlineStr"/>
-      <c r="J828" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J828" t="inlineStr"/>
       <c r="K828" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28513,9 +28845,7 @@
         <v>0</v>
       </c>
       <c r="I829" t="inlineStr"/>
-      <c r="J829" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J829" t="inlineStr"/>
       <c r="K829" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28552,9 +28882,7 @@
         <v>0</v>
       </c>
       <c r="I830" t="inlineStr"/>
-      <c r="J830" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J830" t="inlineStr"/>
       <c r="K830" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28591,9 +28919,7 @@
         <v>0</v>
       </c>
       <c r="I831" t="inlineStr"/>
-      <c r="J831" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J831" t="inlineStr"/>
       <c r="K831" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28630,9 +28956,7 @@
         <v>0</v>
       </c>
       <c r="I832" t="inlineStr"/>
-      <c r="J832" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J832" t="inlineStr"/>
       <c r="K832" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28669,9 +28993,7 @@
         <v>0</v>
       </c>
       <c r="I833" t="inlineStr"/>
-      <c r="J833" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J833" t="inlineStr"/>
       <c r="K833" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28708,9 +29030,7 @@
         <v>0</v>
       </c>
       <c r="I834" t="inlineStr"/>
-      <c r="J834" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J834" t="inlineStr"/>
       <c r="K834" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28747,9 +29067,7 @@
         <v>0</v>
       </c>
       <c r="I835" t="inlineStr"/>
-      <c r="J835" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J835" t="inlineStr"/>
       <c r="K835" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28786,9 +29104,7 @@
         <v>0</v>
       </c>
       <c r="I836" t="inlineStr"/>
-      <c r="J836" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J836" t="inlineStr"/>
       <c r="K836" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28825,9 +29141,7 @@
         <v>0</v>
       </c>
       <c r="I837" t="inlineStr"/>
-      <c r="J837" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J837" t="inlineStr"/>
       <c r="K837" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28864,9 +29178,7 @@
         <v>0</v>
       </c>
       <c r="I838" t="inlineStr"/>
-      <c r="J838" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J838" t="inlineStr"/>
       <c r="K838" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28903,9 +29215,7 @@
         <v>0</v>
       </c>
       <c r="I839" t="inlineStr"/>
-      <c r="J839" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J839" t="inlineStr"/>
       <c r="K839" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28942,9 +29252,7 @@
         <v>0</v>
       </c>
       <c r="I840" t="inlineStr"/>
-      <c r="J840" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J840" t="inlineStr"/>
       <c r="K840" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28978,12 +29286,12 @@
         <v>-46061.65572991488</v>
       </c>
       <c r="H841" t="n">
-        <v>0</v>
-      </c>
-      <c r="I841" t="inlineStr"/>
-      <c r="J841" t="n">
-        <v>190100</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I841" t="n">
+        <v>190400</v>
+      </c>
+      <c r="J841" t="inlineStr"/>
       <c r="K841" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29017,12 +29325,12 @@
         <v>-46049.2944679401</v>
       </c>
       <c r="H842" t="n">
-        <v>0</v>
-      </c>
-      <c r="I842" t="inlineStr"/>
-      <c r="J842" t="n">
-        <v>190100</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I842" t="n">
+        <v>190300</v>
+      </c>
+      <c r="J842" t="inlineStr"/>
       <c r="K842" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29059,9 +29367,7 @@
         <v>0</v>
       </c>
       <c r="I843" t="inlineStr"/>
-      <c r="J843" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J843" t="inlineStr"/>
       <c r="K843" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29095,12 +29401,12 @@
         <v>-46255.3598679401</v>
       </c>
       <c r="H844" t="n">
-        <v>0</v>
-      </c>
-      <c r="I844" t="inlineStr"/>
-      <c r="J844" t="n">
+        <v>1</v>
+      </c>
+      <c r="I844" t="n">
         <v>190100</v>
       </c>
+      <c r="J844" t="inlineStr"/>
       <c r="K844" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29134,12 +29440,12 @@
         <v>-46250.3598679401</v>
       </c>
       <c r="H845" t="n">
-        <v>0</v>
-      </c>
-      <c r="I845" t="inlineStr"/>
-      <c r="J845" t="n">
-        <v>190100</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I845" t="n">
+        <v>190000</v>
+      </c>
+      <c r="J845" t="inlineStr"/>
       <c r="K845" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29173,12 +29479,12 @@
         <v>-46182.2863679401</v>
       </c>
       <c r="H846" t="n">
-        <v>0</v>
-      </c>
-      <c r="I846" t="inlineStr"/>
-      <c r="J846" t="n">
+        <v>1</v>
+      </c>
+      <c r="I846" t="n">
         <v>190100</v>
       </c>
+      <c r="J846" t="inlineStr"/>
       <c r="K846" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29212,12 +29518,12 @@
         <v>-46229.3627679401</v>
       </c>
       <c r="H847" t="n">
-        <v>0</v>
-      </c>
-      <c r="I847" t="inlineStr"/>
-      <c r="J847" t="n">
-        <v>190100</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I847" t="n">
+        <v>190300</v>
+      </c>
+      <c r="J847" t="inlineStr"/>
       <c r="K847" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29251,12 +29557,12 @@
         <v>-46201.29720607035</v>
       </c>
       <c r="H848" t="n">
-        <v>0</v>
-      </c>
-      <c r="I848" t="inlineStr"/>
-      <c r="J848" t="n">
+        <v>1</v>
+      </c>
+      <c r="I848" t="n">
         <v>190100</v>
       </c>
+      <c r="J848" t="inlineStr"/>
       <c r="K848" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29290,12 +29596,12 @@
         <v>-46200.53960607035</v>
       </c>
       <c r="H849" t="n">
-        <v>0</v>
-      </c>
-      <c r="I849" t="inlineStr"/>
-      <c r="J849" t="n">
-        <v>190100</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I849" t="n">
+        <v>190200</v>
+      </c>
+      <c r="J849" t="inlineStr"/>
       <c r="K849" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29332,9 +29638,7 @@
         <v>0</v>
       </c>
       <c r="I850" t="inlineStr"/>
-      <c r="J850" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J850" t="inlineStr"/>
       <c r="K850" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29371,9 +29675,7 @@
         <v>0</v>
       </c>
       <c r="I851" t="inlineStr"/>
-      <c r="J851" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J851" t="inlineStr"/>
       <c r="K851" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29410,9 +29712,7 @@
         <v>0</v>
       </c>
       <c r="I852" t="inlineStr"/>
-      <c r="J852" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J852" t="inlineStr"/>
       <c r="K852" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29449,9 +29749,7 @@
         <v>0</v>
       </c>
       <c r="I853" t="inlineStr"/>
-      <c r="J853" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J853" t="inlineStr"/>
       <c r="K853" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29488,9 +29786,7 @@
         <v>0</v>
       </c>
       <c r="I854" t="inlineStr"/>
-      <c r="J854" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J854" t="inlineStr"/>
       <c r="K854" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29527,9 +29823,7 @@
         <v>0</v>
       </c>
       <c r="I855" t="inlineStr"/>
-      <c r="J855" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J855" t="inlineStr"/>
       <c r="K855" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29566,9 +29860,7 @@
         <v>0</v>
       </c>
       <c r="I856" t="inlineStr"/>
-      <c r="J856" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J856" t="inlineStr"/>
       <c r="K856" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29605,9 +29897,7 @@
         <v>0</v>
       </c>
       <c r="I857" t="inlineStr"/>
-      <c r="J857" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J857" t="inlineStr"/>
       <c r="K857" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29644,9 +29934,7 @@
         <v>0</v>
       </c>
       <c r="I858" t="inlineStr"/>
-      <c r="J858" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J858" t="inlineStr"/>
       <c r="K858" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29683,9 +29971,7 @@
         <v>0</v>
       </c>
       <c r="I859" t="inlineStr"/>
-      <c r="J859" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J859" t="inlineStr"/>
       <c r="K859" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29722,9 +30008,7 @@
         <v>0</v>
       </c>
       <c r="I860" t="inlineStr"/>
-      <c r="J860" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J860" t="inlineStr"/>
       <c r="K860" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29761,9 +30045,7 @@
         <v>0</v>
       </c>
       <c r="I861" t="inlineStr"/>
-      <c r="J861" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J861" t="inlineStr"/>
       <c r="K861" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29800,9 +30082,7 @@
         <v>0</v>
       </c>
       <c r="I862" t="inlineStr"/>
-      <c r="J862" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J862" t="inlineStr"/>
       <c r="K862" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29839,9 +30119,7 @@
         <v>0</v>
       </c>
       <c r="I863" t="inlineStr"/>
-      <c r="J863" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J863" t="inlineStr"/>
       <c r="K863" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29878,9 +30156,7 @@
         <v>0</v>
       </c>
       <c r="I864" t="inlineStr"/>
-      <c r="J864" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J864" t="inlineStr"/>
       <c r="K864" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29917,9 +30193,7 @@
         <v>0</v>
       </c>
       <c r="I865" t="inlineStr"/>
-      <c r="J865" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J865" t="inlineStr"/>
       <c r="K865" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29956,9 +30230,7 @@
         <v>0</v>
       </c>
       <c r="I866" t="inlineStr"/>
-      <c r="J866" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J866" t="inlineStr"/>
       <c r="K866" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29995,9 +30267,7 @@
         <v>0</v>
       </c>
       <c r="I867" t="inlineStr"/>
-      <c r="J867" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J867" t="inlineStr"/>
       <c r="K867" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30034,9 +30304,7 @@
         <v>0</v>
       </c>
       <c r="I868" t="inlineStr"/>
-      <c r="J868" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J868" t="inlineStr"/>
       <c r="K868" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30073,9 +30341,7 @@
         <v>0</v>
       </c>
       <c r="I869" t="inlineStr"/>
-      <c r="J869" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J869" t="inlineStr"/>
       <c r="K869" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30112,9 +30378,7 @@
         <v>0</v>
       </c>
       <c r="I870" t="inlineStr"/>
-      <c r="J870" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J870" t="inlineStr"/>
       <c r="K870" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30151,9 +30415,7 @@
         <v>0</v>
       </c>
       <c r="I871" t="inlineStr"/>
-      <c r="J871" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J871" t="inlineStr"/>
       <c r="K871" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30190,9 +30452,7 @@
         <v>0</v>
       </c>
       <c r="I872" t="inlineStr"/>
-      <c r="J872" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J872" t="inlineStr"/>
       <c r="K872" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30229,9 +30489,7 @@
         <v>0</v>
       </c>
       <c r="I873" t="inlineStr"/>
-      <c r="J873" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J873" t="inlineStr"/>
       <c r="K873" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30268,9 +30526,7 @@
         <v>0</v>
       </c>
       <c r="I874" t="inlineStr"/>
-      <c r="J874" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J874" t="inlineStr"/>
       <c r="K874" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30307,9 +30563,7 @@
         <v>0</v>
       </c>
       <c r="I875" t="inlineStr"/>
-      <c r="J875" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J875" t="inlineStr"/>
       <c r="K875" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30346,9 +30600,7 @@
         <v>0</v>
       </c>
       <c r="I876" t="inlineStr"/>
-      <c r="J876" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J876" t="inlineStr"/>
       <c r="K876" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30385,9 +30637,7 @@
         <v>0</v>
       </c>
       <c r="I877" t="inlineStr"/>
-      <c r="J877" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J877" t="inlineStr"/>
       <c r="K877" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30424,9 +30674,7 @@
         <v>0</v>
       </c>
       <c r="I878" t="inlineStr"/>
-      <c r="J878" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J878" t="inlineStr"/>
       <c r="K878" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30463,9 +30711,7 @@
         <v>0</v>
       </c>
       <c r="I879" t="inlineStr"/>
-      <c r="J879" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J879" t="inlineStr"/>
       <c r="K879" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30502,9 +30748,7 @@
         <v>0</v>
       </c>
       <c r="I880" t="inlineStr"/>
-      <c r="J880" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J880" t="inlineStr"/>
       <c r="K880" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30541,9 +30785,7 @@
         <v>0</v>
       </c>
       <c r="I881" t="inlineStr"/>
-      <c r="J881" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J881" t="inlineStr"/>
       <c r="K881" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30580,9 +30822,7 @@
         <v>0</v>
       </c>
       <c r="I882" t="inlineStr"/>
-      <c r="J882" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J882" t="inlineStr"/>
       <c r="K882" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30619,9 +30859,7 @@
         <v>0</v>
       </c>
       <c r="I883" t="inlineStr"/>
-      <c r="J883" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J883" t="inlineStr"/>
       <c r="K883" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30658,9 +30896,7 @@
         <v>0</v>
       </c>
       <c r="I884" t="inlineStr"/>
-      <c r="J884" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J884" t="inlineStr"/>
       <c r="K884" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30697,9 +30933,7 @@
         <v>0</v>
       </c>
       <c r="I885" t="inlineStr"/>
-      <c r="J885" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J885" t="inlineStr"/>
       <c r="K885" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30736,9 +30970,7 @@
         <v>0</v>
       </c>
       <c r="I886" t="inlineStr"/>
-      <c r="J886" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J886" t="inlineStr"/>
       <c r="K886" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30775,9 +31007,7 @@
         <v>0</v>
       </c>
       <c r="I887" t="inlineStr"/>
-      <c r="J887" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J887" t="inlineStr"/>
       <c r="K887" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30814,9 +31044,7 @@
         <v>0</v>
       </c>
       <c r="I888" t="inlineStr"/>
-      <c r="J888" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J888" t="inlineStr"/>
       <c r="K888" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30853,9 +31081,7 @@
         <v>0</v>
       </c>
       <c r="I889" t="inlineStr"/>
-      <c r="J889" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J889" t="inlineStr"/>
       <c r="K889" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30892,9 +31118,7 @@
         <v>0</v>
       </c>
       <c r="I890" t="inlineStr"/>
-      <c r="J890" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J890" t="inlineStr"/>
       <c r="K890" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30931,9 +31155,7 @@
         <v>0</v>
       </c>
       <c r="I891" t="inlineStr"/>
-      <c r="J891" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J891" t="inlineStr"/>
       <c r="K891" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30970,9 +31192,7 @@
         <v>0</v>
       </c>
       <c r="I892" t="inlineStr"/>
-      <c r="J892" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J892" t="inlineStr"/>
       <c r="K892" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31009,9 +31229,7 @@
         <v>0</v>
       </c>
       <c r="I893" t="inlineStr"/>
-      <c r="J893" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J893" t="inlineStr"/>
       <c r="K893" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31048,9 +31266,7 @@
         <v>0</v>
       </c>
       <c r="I894" t="inlineStr"/>
-      <c r="J894" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J894" t="inlineStr"/>
       <c r="K894" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31087,9 +31303,7 @@
         <v>0</v>
       </c>
       <c r="I895" t="inlineStr"/>
-      <c r="J895" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J895" t="inlineStr"/>
       <c r="K895" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31126,9 +31340,7 @@
         <v>0</v>
       </c>
       <c r="I896" t="inlineStr"/>
-      <c r="J896" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J896" t="inlineStr"/>
       <c r="K896" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31165,9 +31377,7 @@
         <v>0</v>
       </c>
       <c r="I897" t="inlineStr"/>
-      <c r="J897" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J897" t="inlineStr"/>
       <c r="K897" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31204,9 +31414,7 @@
         <v>0</v>
       </c>
       <c r="I898" t="inlineStr"/>
-      <c r="J898" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J898" t="inlineStr"/>
       <c r="K898" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31243,9 +31451,7 @@
         <v>0</v>
       </c>
       <c r="I899" t="inlineStr"/>
-      <c r="J899" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J899" t="inlineStr"/>
       <c r="K899" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31282,9 +31488,7 @@
         <v>0</v>
       </c>
       <c r="I900" t="inlineStr"/>
-      <c r="J900" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J900" t="inlineStr"/>
       <c r="K900" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31321,9 +31525,7 @@
         <v>0</v>
       </c>
       <c r="I901" t="inlineStr"/>
-      <c r="J901" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J901" t="inlineStr"/>
       <c r="K901" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31360,9 +31562,7 @@
         <v>0</v>
       </c>
       <c r="I902" t="inlineStr"/>
-      <c r="J902" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J902" t="inlineStr"/>
       <c r="K902" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31399,9 +31599,7 @@
         <v>0</v>
       </c>
       <c r="I903" t="inlineStr"/>
-      <c r="J903" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J903" t="inlineStr"/>
       <c r="K903" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31438,9 +31636,7 @@
         <v>0</v>
       </c>
       <c r="I904" t="inlineStr"/>
-      <c r="J904" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J904" t="inlineStr"/>
       <c r="K904" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31477,9 +31673,7 @@
         <v>0</v>
       </c>
       <c r="I905" t="inlineStr"/>
-      <c r="J905" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J905" t="inlineStr"/>
       <c r="K905" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31516,9 +31710,7 @@
         <v>0</v>
       </c>
       <c r="I906" t="inlineStr"/>
-      <c r="J906" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J906" t="inlineStr"/>
       <c r="K906" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31555,9 +31747,7 @@
         <v>0</v>
       </c>
       <c r="I907" t="inlineStr"/>
-      <c r="J907" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J907" t="inlineStr"/>
       <c r="K907" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31594,9 +31784,7 @@
         <v>0</v>
       </c>
       <c r="I908" t="inlineStr"/>
-      <c r="J908" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J908" t="inlineStr"/>
       <c r="K908" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31633,9 +31821,7 @@
         <v>0</v>
       </c>
       <c r="I909" t="inlineStr"/>
-      <c r="J909" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J909" t="inlineStr"/>
       <c r="K909" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31672,9 +31858,7 @@
         <v>0</v>
       </c>
       <c r="I910" t="inlineStr"/>
-      <c r="J910" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J910" t="inlineStr"/>
       <c r="K910" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31711,9 +31895,7 @@
         <v>0</v>
       </c>
       <c r="I911" t="inlineStr"/>
-      <c r="J911" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J911" t="inlineStr"/>
       <c r="K911" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31750,9 +31932,7 @@
         <v>0</v>
       </c>
       <c r="I912" t="inlineStr"/>
-      <c r="J912" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J912" t="inlineStr"/>
       <c r="K912" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31789,9 +31969,7 @@
         <v>0</v>
       </c>
       <c r="I913" t="inlineStr"/>
-      <c r="J913" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J913" t="inlineStr"/>
       <c r="K913" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31828,9 +32006,7 @@
         <v>0</v>
       </c>
       <c r="I914" t="inlineStr"/>
-      <c r="J914" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J914" t="inlineStr"/>
       <c r="K914" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31867,9 +32043,7 @@
         <v>0</v>
       </c>
       <c r="I915" t="inlineStr"/>
-      <c r="J915" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J915" t="inlineStr"/>
       <c r="K915" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31906,9 +32080,7 @@
         <v>0</v>
       </c>
       <c r="I916" t="inlineStr"/>
-      <c r="J916" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J916" t="inlineStr"/>
       <c r="K916" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31945,9 +32117,7 @@
         <v>0</v>
       </c>
       <c r="I917" t="inlineStr"/>
-      <c r="J917" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J917" t="inlineStr"/>
       <c r="K917" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31984,9 +32154,7 @@
         <v>0</v>
       </c>
       <c r="I918" t="inlineStr"/>
-      <c r="J918" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J918" t="inlineStr"/>
       <c r="K918" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32023,9 +32191,7 @@
         <v>0</v>
       </c>
       <c r="I919" t="inlineStr"/>
-      <c r="J919" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J919" t="inlineStr"/>
       <c r="K919" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32062,9 +32228,7 @@
         <v>0</v>
       </c>
       <c r="I920" t="inlineStr"/>
-      <c r="J920" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J920" t="inlineStr"/>
       <c r="K920" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32101,9 +32265,7 @@
         <v>0</v>
       </c>
       <c r="I921" t="inlineStr"/>
-      <c r="J921" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J921" t="inlineStr"/>
       <c r="K921" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32140,9 +32302,7 @@
         <v>0</v>
       </c>
       <c r="I922" t="inlineStr"/>
-      <c r="J922" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J922" t="inlineStr"/>
       <c r="K922" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32179,9 +32339,7 @@
         <v>0</v>
       </c>
       <c r="I923" t="inlineStr"/>
-      <c r="J923" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J923" t="inlineStr"/>
       <c r="K923" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32218,9 +32376,7 @@
         <v>0</v>
       </c>
       <c r="I924" t="inlineStr"/>
-      <c r="J924" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J924" t="inlineStr"/>
       <c r="K924" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32257,9 +32413,7 @@
         <v>0</v>
       </c>
       <c r="I925" t="inlineStr"/>
-      <c r="J925" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J925" t="inlineStr"/>
       <c r="K925" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32296,9 +32450,7 @@
         <v>0</v>
       </c>
       <c r="I926" t="inlineStr"/>
-      <c r="J926" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J926" t="inlineStr"/>
       <c r="K926" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32335,9 +32487,7 @@
         <v>0</v>
       </c>
       <c r="I927" t="inlineStr"/>
-      <c r="J927" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J927" t="inlineStr"/>
       <c r="K927" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32374,9 +32524,7 @@
         <v>0</v>
       </c>
       <c r="I928" t="inlineStr"/>
-      <c r="J928" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J928" t="inlineStr"/>
       <c r="K928" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32413,9 +32561,7 @@
         <v>0</v>
       </c>
       <c r="I929" t="inlineStr"/>
-      <c r="J929" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J929" t="inlineStr"/>
       <c r="K929" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32452,9 +32598,7 @@
         <v>0</v>
       </c>
       <c r="I930" t="inlineStr"/>
-      <c r="J930" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J930" t="inlineStr"/>
       <c r="K930" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32491,9 +32635,7 @@
         <v>0</v>
       </c>
       <c r="I931" t="inlineStr"/>
-      <c r="J931" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J931" t="inlineStr"/>
       <c r="K931" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32530,9 +32672,7 @@
         <v>0</v>
       </c>
       <c r="I932" t="inlineStr"/>
-      <c r="J932" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J932" t="inlineStr"/>
       <c r="K932" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32569,9 +32709,7 @@
         <v>0</v>
       </c>
       <c r="I933" t="inlineStr"/>
-      <c r="J933" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J933" t="inlineStr"/>
       <c r="K933" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32608,9 +32746,7 @@
         <v>0</v>
       </c>
       <c r="I934" t="inlineStr"/>
-      <c r="J934" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J934" t="inlineStr"/>
       <c r="K934" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32647,9 +32783,7 @@
         <v>0</v>
       </c>
       <c r="I935" t="inlineStr"/>
-      <c r="J935" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J935" t="inlineStr"/>
       <c r="K935" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32686,9 +32820,7 @@
         <v>0</v>
       </c>
       <c r="I936" t="inlineStr"/>
-      <c r="J936" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J936" t="inlineStr"/>
       <c r="K936" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32725,9 +32857,7 @@
         <v>0</v>
       </c>
       <c r="I937" t="inlineStr"/>
-      <c r="J937" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J937" t="inlineStr"/>
       <c r="K937" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32764,9 +32894,7 @@
         <v>0</v>
       </c>
       <c r="I938" t="inlineStr"/>
-      <c r="J938" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J938" t="inlineStr"/>
       <c r="K938" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32803,9 +32931,7 @@
         <v>0</v>
       </c>
       <c r="I939" t="inlineStr"/>
-      <c r="J939" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J939" t="inlineStr"/>
       <c r="K939" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32842,9 +32968,7 @@
         <v>0</v>
       </c>
       <c r="I940" t="inlineStr"/>
-      <c r="J940" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J940" t="inlineStr"/>
       <c r="K940" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32881,9 +33005,7 @@
         <v>0</v>
       </c>
       <c r="I941" t="inlineStr"/>
-      <c r="J941" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J941" t="inlineStr"/>
       <c r="K941" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32920,9 +33042,7 @@
         <v>0</v>
       </c>
       <c r="I942" t="inlineStr"/>
-      <c r="J942" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J942" t="inlineStr"/>
       <c r="K942" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32959,9 +33079,7 @@
         <v>0</v>
       </c>
       <c r="I943" t="inlineStr"/>
-      <c r="J943" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J943" t="inlineStr"/>
       <c r="K943" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32998,9 +33116,7 @@
         <v>0</v>
       </c>
       <c r="I944" t="inlineStr"/>
-      <c r="J944" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J944" t="inlineStr"/>
       <c r="K944" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33037,9 +33153,7 @@
         <v>0</v>
       </c>
       <c r="I945" t="inlineStr"/>
-      <c r="J945" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J945" t="inlineStr"/>
       <c r="K945" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33076,9 +33190,7 @@
         <v>0</v>
       </c>
       <c r="I946" t="inlineStr"/>
-      <c r="J946" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J946" t="inlineStr"/>
       <c r="K946" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33115,9 +33227,7 @@
         <v>0</v>
       </c>
       <c r="I947" t="inlineStr"/>
-      <c r="J947" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J947" t="inlineStr"/>
       <c r="K947" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33154,9 +33264,7 @@
         <v>0</v>
       </c>
       <c r="I948" t="inlineStr"/>
-      <c r="J948" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J948" t="inlineStr"/>
       <c r="K948" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33193,9 +33301,7 @@
         <v>0</v>
       </c>
       <c r="I949" t="inlineStr"/>
-      <c r="J949" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J949" t="inlineStr"/>
       <c r="K949" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33232,9 +33338,7 @@
         <v>0</v>
       </c>
       <c r="I950" t="inlineStr"/>
-      <c r="J950" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J950" t="inlineStr"/>
       <c r="K950" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33271,9 +33375,7 @@
         <v>0</v>
       </c>
       <c r="I951" t="inlineStr"/>
-      <c r="J951" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J951" t="inlineStr"/>
       <c r="K951" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33310,9 +33412,7 @@
         <v>0</v>
       </c>
       <c r="I952" t="inlineStr"/>
-      <c r="J952" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J952" t="inlineStr"/>
       <c r="K952" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33349,9 +33449,7 @@
         <v>0</v>
       </c>
       <c r="I953" t="inlineStr"/>
-      <c r="J953" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J953" t="inlineStr"/>
       <c r="K953" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33388,9 +33486,7 @@
         <v>0</v>
       </c>
       <c r="I954" t="inlineStr"/>
-      <c r="J954" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J954" t="inlineStr"/>
       <c r="K954" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33427,9 +33523,7 @@
         <v>0</v>
       </c>
       <c r="I955" t="inlineStr"/>
-      <c r="J955" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J955" t="inlineStr"/>
       <c r="K955" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33466,9 +33560,7 @@
         <v>0</v>
       </c>
       <c r="I956" t="inlineStr"/>
-      <c r="J956" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J956" t="inlineStr"/>
       <c r="K956" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33505,9 +33597,7 @@
         <v>0</v>
       </c>
       <c r="I957" t="inlineStr"/>
-      <c r="J957" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J957" t="inlineStr"/>
       <c r="K957" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33544,9 +33634,7 @@
         <v>0</v>
       </c>
       <c r="I958" t="inlineStr"/>
-      <c r="J958" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J958" t="inlineStr"/>
       <c r="K958" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33583,9 +33671,7 @@
         <v>0</v>
       </c>
       <c r="I959" t="inlineStr"/>
-      <c r="J959" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J959" t="inlineStr"/>
       <c r="K959" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33622,9 +33708,7 @@
         <v>0</v>
       </c>
       <c r="I960" t="inlineStr"/>
-      <c r="J960" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J960" t="inlineStr"/>
       <c r="K960" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33661,9 +33745,7 @@
         <v>0</v>
       </c>
       <c r="I961" t="inlineStr"/>
-      <c r="J961" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J961" t="inlineStr"/>
       <c r="K961" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33700,9 +33782,7 @@
         <v>0</v>
       </c>
       <c r="I962" t="inlineStr"/>
-      <c r="J962" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J962" t="inlineStr"/>
       <c r="K962" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33739,9 +33819,7 @@
         <v>0</v>
       </c>
       <c r="I963" t="inlineStr"/>
-      <c r="J963" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J963" t="inlineStr"/>
       <c r="K963" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33778,9 +33856,7 @@
         <v>0</v>
       </c>
       <c r="I964" t="inlineStr"/>
-      <c r="J964" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J964" t="inlineStr"/>
       <c r="K964" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33817,9 +33893,7 @@
         <v>0</v>
       </c>
       <c r="I965" t="inlineStr"/>
-      <c r="J965" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J965" t="inlineStr"/>
       <c r="K965" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33856,9 +33930,7 @@
         <v>0</v>
       </c>
       <c r="I966" t="inlineStr"/>
-      <c r="J966" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J966" t="inlineStr"/>
       <c r="K966" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33895,9 +33967,7 @@
         <v>0</v>
       </c>
       <c r="I967" t="inlineStr"/>
-      <c r="J967" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J967" t="inlineStr"/>
       <c r="K967" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33934,9 +34004,7 @@
         <v>0</v>
       </c>
       <c r="I968" t="inlineStr"/>
-      <c r="J968" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J968" t="inlineStr"/>
       <c r="K968" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33973,9 +34041,7 @@
         <v>0</v>
       </c>
       <c r="I969" t="inlineStr"/>
-      <c r="J969" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J969" t="inlineStr"/>
       <c r="K969" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34012,9 +34078,7 @@
         <v>0</v>
       </c>
       <c r="I970" t="inlineStr"/>
-      <c r="J970" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J970" t="inlineStr"/>
       <c r="K970" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34051,9 +34115,7 @@
         <v>0</v>
       </c>
       <c r="I971" t="inlineStr"/>
-      <c r="J971" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J971" t="inlineStr"/>
       <c r="K971" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34090,9 +34152,7 @@
         <v>0</v>
       </c>
       <c r="I972" t="inlineStr"/>
-      <c r="J972" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J972" t="inlineStr"/>
       <c r="K972" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34129,9 +34189,7 @@
         <v>0</v>
       </c>
       <c r="I973" t="inlineStr"/>
-      <c r="J973" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J973" t="inlineStr"/>
       <c r="K973" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34168,9 +34226,7 @@
         <v>0</v>
       </c>
       <c r="I974" t="inlineStr"/>
-      <c r="J974" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J974" t="inlineStr"/>
       <c r="K974" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34207,9 +34263,7 @@
         <v>0</v>
       </c>
       <c r="I975" t="inlineStr"/>
-      <c r="J975" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J975" t="inlineStr"/>
       <c r="K975" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34246,9 +34300,7 @@
         <v>0</v>
       </c>
       <c r="I976" t="inlineStr"/>
-      <c r="J976" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J976" t="inlineStr"/>
       <c r="K976" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34285,9 +34337,7 @@
         <v>0</v>
       </c>
       <c r="I977" t="inlineStr"/>
-      <c r="J977" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J977" t="inlineStr"/>
       <c r="K977" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34324,9 +34374,7 @@
         <v>0</v>
       </c>
       <c r="I978" t="inlineStr"/>
-      <c r="J978" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J978" t="inlineStr"/>
       <c r="K978" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34363,9 +34411,7 @@
         <v>0</v>
       </c>
       <c r="I979" t="inlineStr"/>
-      <c r="J979" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J979" t="inlineStr"/>
       <c r="K979" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34402,9 +34448,7 @@
         <v>0</v>
       </c>
       <c r="I980" t="inlineStr"/>
-      <c r="J980" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J980" t="inlineStr"/>
       <c r="K980" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34441,9 +34485,7 @@
         <v>0</v>
       </c>
       <c r="I981" t="inlineStr"/>
-      <c r="J981" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J981" t="inlineStr"/>
       <c r="K981" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34480,9 +34522,7 @@
         <v>0</v>
       </c>
       <c r="I982" t="inlineStr"/>
-      <c r="J982" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J982" t="inlineStr"/>
       <c r="K982" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34519,9 +34559,7 @@
         <v>0</v>
       </c>
       <c r="I983" t="inlineStr"/>
-      <c r="J983" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J983" t="inlineStr"/>
       <c r="K983" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34558,9 +34596,7 @@
         <v>0</v>
       </c>
       <c r="I984" t="inlineStr"/>
-      <c r="J984" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J984" t="inlineStr"/>
       <c r="K984" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34597,9 +34633,7 @@
         <v>0</v>
       </c>
       <c r="I985" t="inlineStr"/>
-      <c r="J985" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J985" t="inlineStr"/>
       <c r="K985" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34636,9 +34670,7 @@
         <v>0</v>
       </c>
       <c r="I986" t="inlineStr"/>
-      <c r="J986" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J986" t="inlineStr"/>
       <c r="K986" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34675,9 +34707,7 @@
         <v>0</v>
       </c>
       <c r="I987" t="inlineStr"/>
-      <c r="J987" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J987" t="inlineStr"/>
       <c r="K987" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34714,9 +34744,7 @@
         <v>0</v>
       </c>
       <c r="I988" t="inlineStr"/>
-      <c r="J988" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J988" t="inlineStr"/>
       <c r="K988" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34753,9 +34781,7 @@
         <v>0</v>
       </c>
       <c r="I989" t="inlineStr"/>
-      <c r="J989" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J989" t="inlineStr"/>
       <c r="K989" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34792,9 +34818,7 @@
         <v>0</v>
       </c>
       <c r="I990" t="inlineStr"/>
-      <c r="J990" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J990" t="inlineStr"/>
       <c r="K990" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34831,9 +34855,7 @@
         <v>0</v>
       </c>
       <c r="I991" t="inlineStr"/>
-      <c r="J991" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J991" t="inlineStr"/>
       <c r="K991" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34870,9 +34892,7 @@
         <v>0</v>
       </c>
       <c r="I992" t="inlineStr"/>
-      <c r="J992" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J992" t="inlineStr"/>
       <c r="K992" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34909,9 +34929,7 @@
         <v>0</v>
       </c>
       <c r="I993" t="inlineStr"/>
-      <c r="J993" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J993" t="inlineStr"/>
       <c r="K993" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34948,9 +34966,7 @@
         <v>0</v>
       </c>
       <c r="I994" t="inlineStr"/>
-      <c r="J994" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J994" t="inlineStr"/>
       <c r="K994" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34987,9 +35003,7 @@
         <v>0</v>
       </c>
       <c r="I995" t="inlineStr"/>
-      <c r="J995" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J995" t="inlineStr"/>
       <c r="K995" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35026,9 +35040,7 @@
         <v>0</v>
       </c>
       <c r="I996" t="inlineStr"/>
-      <c r="J996" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J996" t="inlineStr"/>
       <c r="K996" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35065,9 +35077,7 @@
         <v>0</v>
       </c>
       <c r="I997" t="inlineStr"/>
-      <c r="J997" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J997" t="inlineStr"/>
       <c r="K997" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35104,9 +35114,7 @@
         <v>0</v>
       </c>
       <c r="I998" t="inlineStr"/>
-      <c r="J998" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J998" t="inlineStr"/>
       <c r="K998" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35143,9 +35151,7 @@
         <v>0</v>
       </c>
       <c r="I999" t="inlineStr"/>
-      <c r="J999" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J999" t="inlineStr"/>
       <c r="K999" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35182,9 +35188,7 @@
         <v>0</v>
       </c>
       <c r="I1000" t="inlineStr"/>
-      <c r="J1000" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J1000" t="inlineStr"/>
       <c r="K1000" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35221,9 +35225,7 @@
         <v>0</v>
       </c>
       <c r="I1001" t="inlineStr"/>
-      <c r="J1001" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J1001" t="inlineStr"/>
       <c r="K1001" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35260,9 +35262,7 @@
         <v>0</v>
       </c>
       <c r="I1002" t="inlineStr"/>
-      <c r="J1002" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J1002" t="inlineStr"/>
       <c r="K1002" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35299,9 +35299,7 @@
         <v>0</v>
       </c>
       <c r="I1003" t="inlineStr"/>
-      <c r="J1003" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J1003" t="inlineStr"/>
       <c r="K1003" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35338,9 +35336,7 @@
         <v>0</v>
       </c>
       <c r="I1004" t="inlineStr"/>
-      <c r="J1004" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J1004" t="inlineStr"/>
       <c r="K1004" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35377,9 +35373,7 @@
         <v>0</v>
       </c>
       <c r="I1005" t="inlineStr"/>
-      <c r="J1005" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J1005" t="inlineStr"/>
       <c r="K1005" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35416,9 +35410,7 @@
         <v>0</v>
       </c>
       <c r="I1006" t="inlineStr"/>
-      <c r="J1006" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J1006" t="inlineStr"/>
       <c r="K1006" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35455,9 +35447,7 @@
         <v>0</v>
       </c>
       <c r="I1007" t="inlineStr"/>
-      <c r="J1007" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J1007" t="inlineStr"/>
       <c r="K1007" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35494,9 +35484,7 @@
         <v>0</v>
       </c>
       <c r="I1008" t="inlineStr"/>
-      <c r="J1008" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J1008" t="inlineStr"/>
       <c r="K1008" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35533,9 +35521,7 @@
         <v>0</v>
       </c>
       <c r="I1009" t="inlineStr"/>
-      <c r="J1009" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J1009" t="inlineStr"/>
       <c r="K1009" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35572,9 +35558,7 @@
         <v>0</v>
       </c>
       <c r="I1010" t="inlineStr"/>
-      <c r="J1010" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J1010" t="inlineStr"/>
       <c r="K1010" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35611,9 +35595,7 @@
         <v>0</v>
       </c>
       <c r="I1011" t="inlineStr"/>
-      <c r="J1011" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J1011" t="inlineStr"/>
       <c r="K1011" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35650,9 +35632,7 @@
         <v>0</v>
       </c>
       <c r="I1012" t="inlineStr"/>
-      <c r="J1012" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J1012" t="inlineStr"/>
       <c r="K1012" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35689,9 +35669,7 @@
         <v>0</v>
       </c>
       <c r="I1013" t="inlineStr"/>
-      <c r="J1013" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J1013" t="inlineStr"/>
       <c r="K1013" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35728,9 +35706,7 @@
         <v>0</v>
       </c>
       <c r="I1014" t="inlineStr"/>
-      <c r="J1014" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J1014" t="inlineStr"/>
       <c r="K1014" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35767,9 +35743,7 @@
         <v>0</v>
       </c>
       <c r="I1015" t="inlineStr"/>
-      <c r="J1015" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J1015" t="inlineStr"/>
       <c r="K1015" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35806,9 +35780,7 @@
         <v>0</v>
       </c>
       <c r="I1016" t="inlineStr"/>
-      <c r="J1016" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J1016" t="inlineStr"/>
       <c r="K1016" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35845,9 +35817,7 @@
         <v>0</v>
       </c>
       <c r="I1017" t="inlineStr"/>
-      <c r="J1017" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J1017" t="inlineStr"/>
       <c r="K1017" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35884,9 +35854,7 @@
         <v>0</v>
       </c>
       <c r="I1018" t="inlineStr"/>
-      <c r="J1018" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J1018" t="inlineStr"/>
       <c r="K1018" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35923,9 +35891,7 @@
         <v>0</v>
       </c>
       <c r="I1019" t="inlineStr"/>
-      <c r="J1019" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J1019" t="inlineStr"/>
       <c r="K1019" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35962,9 +35928,7 @@
         <v>0</v>
       </c>
       <c r="I1020" t="inlineStr"/>
-      <c r="J1020" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J1020" t="inlineStr"/>
       <c r="K1020" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36001,9 +35965,7 @@
         <v>0</v>
       </c>
       <c r="I1021" t="inlineStr"/>
-      <c r="J1021" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J1021" t="inlineStr"/>
       <c r="K1021" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36040,9 +36002,7 @@
         <v>0</v>
       </c>
       <c r="I1022" t="inlineStr"/>
-      <c r="J1022" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J1022" t="inlineStr"/>
       <c r="K1022" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36079,9 +36039,7 @@
         <v>0</v>
       </c>
       <c r="I1023" t="inlineStr"/>
-      <c r="J1023" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J1023" t="inlineStr"/>
       <c r="K1023" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36118,9 +36076,7 @@
         <v>0</v>
       </c>
       <c r="I1024" t="inlineStr"/>
-      <c r="J1024" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J1024" t="inlineStr"/>
       <c r="K1024" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36157,9 +36113,7 @@
         <v>0</v>
       </c>
       <c r="I1025" t="inlineStr"/>
-      <c r="J1025" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J1025" t="inlineStr"/>
       <c r="K1025" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36196,9 +36150,7 @@
         <v>0</v>
       </c>
       <c r="I1026" t="inlineStr"/>
-      <c r="J1026" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J1026" t="inlineStr"/>
       <c r="K1026" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36235,9 +36187,7 @@
         <v>0</v>
       </c>
       <c r="I1027" t="inlineStr"/>
-      <c r="J1027" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J1027" t="inlineStr"/>
       <c r="K1027" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36274,9 +36224,7 @@
         <v>0</v>
       </c>
       <c r="I1028" t="inlineStr"/>
-      <c r="J1028" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J1028" t="inlineStr"/>
       <c r="K1028" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36313,9 +36261,7 @@
         <v>0</v>
       </c>
       <c r="I1029" t="inlineStr"/>
-      <c r="J1029" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J1029" t="inlineStr"/>
       <c r="K1029" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36352,9 +36298,7 @@
         <v>0</v>
       </c>
       <c r="I1030" t="inlineStr"/>
-      <c r="J1030" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J1030" t="inlineStr"/>
       <c r="K1030" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36391,9 +36335,7 @@
         <v>0</v>
       </c>
       <c r="I1031" t="inlineStr"/>
-      <c r="J1031" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J1031" t="inlineStr"/>
       <c r="K1031" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36430,9 +36372,7 @@
         <v>0</v>
       </c>
       <c r="I1032" t="inlineStr"/>
-      <c r="J1032" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J1032" t="inlineStr"/>
       <c r="K1032" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36469,9 +36409,7 @@
         <v>0</v>
       </c>
       <c r="I1033" t="inlineStr"/>
-      <c r="J1033" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J1033" t="inlineStr"/>
       <c r="K1033" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36508,9 +36446,7 @@
         <v>0</v>
       </c>
       <c r="I1034" t="inlineStr"/>
-      <c r="J1034" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J1034" t="inlineStr"/>
       <c r="K1034" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36547,9 +36483,7 @@
         <v>0</v>
       </c>
       <c r="I1035" t="inlineStr"/>
-      <c r="J1035" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J1035" t="inlineStr"/>
       <c r="K1035" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36586,9 +36520,7 @@
         <v>0</v>
       </c>
       <c r="I1036" t="inlineStr"/>
-      <c r="J1036" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J1036" t="inlineStr"/>
       <c r="K1036" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36625,9 +36557,7 @@
         <v>0</v>
       </c>
       <c r="I1037" t="inlineStr"/>
-      <c r="J1037" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J1037" t="inlineStr"/>
       <c r="K1037" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36664,9 +36594,7 @@
         <v>0</v>
       </c>
       <c r="I1038" t="inlineStr"/>
-      <c r="J1038" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J1038" t="inlineStr"/>
       <c r="K1038" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36703,9 +36631,7 @@
         <v>0</v>
       </c>
       <c r="I1039" t="inlineStr"/>
-      <c r="J1039" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J1039" t="inlineStr"/>
       <c r="K1039" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36742,9 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I1040" t="inlineStr"/>
-      <c r="J1040" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J1040" t="inlineStr"/>
       <c r="K1040" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36781,9 +36705,7 @@
         <v>0</v>
       </c>
       <c r="I1041" t="inlineStr"/>
-      <c r="J1041" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J1041" t="inlineStr"/>
       <c r="K1041" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36820,9 +36742,7 @@
         <v>0</v>
       </c>
       <c r="I1042" t="inlineStr"/>
-      <c r="J1042" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J1042" t="inlineStr"/>
       <c r="K1042" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36856,20 +36776,16 @@
         <v>-45342.73778858264</v>
       </c>
       <c r="H1043" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1043" t="inlineStr"/>
-      <c r="J1043" t="n">
-        <v>190100</v>
-      </c>
+      <c r="J1043" t="inlineStr"/>
       <c r="K1043" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1043" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L1043" t="inlineStr"/>
       <c r="M1043" t="inlineStr"/>
     </row>
     <row r="1044">
@@ -36898,14 +36814,8 @@
         <v>0</v>
       </c>
       <c r="I1044" t="inlineStr"/>
-      <c r="J1044" t="n">
-        <v>190100</v>
-      </c>
-      <c r="K1044" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1044" t="inlineStr"/>
+      <c r="K1044" t="inlineStr"/>
       <c r="L1044" t="n">
         <v>1</v>
       </c>
@@ -36937,14 +36847,8 @@
         <v>0</v>
       </c>
       <c r="I1045" t="inlineStr"/>
-      <c r="J1045" t="n">
-        <v>190100</v>
-      </c>
-      <c r="K1045" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1045" t="inlineStr"/>
+      <c r="K1045" t="inlineStr"/>
       <c r="L1045" t="n">
         <v>1</v>
       </c>
@@ -36976,14 +36880,8 @@
         <v>0</v>
       </c>
       <c r="I1046" t="inlineStr"/>
-      <c r="J1046" t="n">
-        <v>190100</v>
-      </c>
-      <c r="K1046" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1046" t="inlineStr"/>
+      <c r="K1046" t="inlineStr"/>
       <c r="L1046" t="n">
         <v>1</v>
       </c>
@@ -37015,14 +36913,8 @@
         <v>0</v>
       </c>
       <c r="I1047" t="inlineStr"/>
-      <c r="J1047" t="n">
-        <v>190100</v>
-      </c>
-      <c r="K1047" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1047" t="inlineStr"/>
+      <c r="K1047" t="inlineStr"/>
       <c r="L1047" t="n">
         <v>1</v>
       </c>
@@ -37054,14 +36946,8 @@
         <v>0</v>
       </c>
       <c r="I1048" t="inlineStr"/>
-      <c r="J1048" t="n">
-        <v>190100</v>
-      </c>
-      <c r="K1048" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1048" t="inlineStr"/>
+      <c r="K1048" t="inlineStr"/>
       <c r="L1048" t="n">
         <v>1</v>
       </c>
@@ -37093,14 +36979,8 @@
         <v>0</v>
       </c>
       <c r="I1049" t="inlineStr"/>
-      <c r="J1049" t="n">
-        <v>190100</v>
-      </c>
-      <c r="K1049" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1049" t="inlineStr"/>
+      <c r="K1049" t="inlineStr"/>
       <c r="L1049" t="n">
         <v>1</v>
       </c>
@@ -37132,14 +37012,8 @@
         <v>0</v>
       </c>
       <c r="I1050" t="inlineStr"/>
-      <c r="J1050" t="n">
-        <v>190100</v>
-      </c>
-      <c r="K1050" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1050" t="inlineStr"/>
+      <c r="K1050" t="inlineStr"/>
       <c r="L1050" t="n">
         <v>1</v>
       </c>
@@ -37171,14 +37045,8 @@
         <v>0</v>
       </c>
       <c r="I1051" t="inlineStr"/>
-      <c r="J1051" t="n">
-        <v>190100</v>
-      </c>
-      <c r="K1051" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1051" t="inlineStr"/>
+      <c r="K1051" t="inlineStr"/>
       <c r="L1051" t="n">
         <v>1</v>
       </c>
@@ -37210,14 +37078,8 @@
         <v>0</v>
       </c>
       <c r="I1052" t="inlineStr"/>
-      <c r="J1052" t="n">
-        <v>190100</v>
-      </c>
-      <c r="K1052" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1052" t="inlineStr"/>
+      <c r="K1052" t="inlineStr"/>
       <c r="L1052" t="n">
         <v>1</v>
       </c>
@@ -37246,17 +37108,11 @@
         <v>-45298.65878858263</v>
       </c>
       <c r="H1053" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1053" t="inlineStr"/>
-      <c r="J1053" t="n">
-        <v>190100</v>
-      </c>
-      <c r="K1053" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1053" t="inlineStr"/>
+      <c r="K1053" t="inlineStr"/>
       <c r="L1053" t="n">
         <v>1</v>
       </c>
@@ -37288,14 +37144,8 @@
         <v>0</v>
       </c>
       <c r="I1054" t="inlineStr"/>
-      <c r="J1054" t="n">
-        <v>190100</v>
-      </c>
-      <c r="K1054" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1054" t="inlineStr"/>
+      <c r="K1054" t="inlineStr"/>
       <c r="L1054" t="n">
         <v>1</v>
       </c>
@@ -37327,14 +37177,8 @@
         <v>0</v>
       </c>
       <c r="I1055" t="inlineStr"/>
-      <c r="J1055" t="n">
-        <v>190100</v>
-      </c>
-      <c r="K1055" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1055" t="inlineStr"/>
+      <c r="K1055" t="inlineStr"/>
       <c r="L1055" t="n">
         <v>1</v>
       </c>
@@ -37366,14 +37210,8 @@
         <v>0</v>
       </c>
       <c r="I1056" t="inlineStr"/>
-      <c r="J1056" t="n">
-        <v>190100</v>
-      </c>
-      <c r="K1056" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1056" t="inlineStr"/>
+      <c r="K1056" t="inlineStr"/>
       <c r="L1056" t="n">
         <v>1</v>
       </c>
@@ -37405,14 +37243,8 @@
         <v>0</v>
       </c>
       <c r="I1057" t="inlineStr"/>
-      <c r="J1057" t="n">
-        <v>190100</v>
-      </c>
-      <c r="K1057" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1057" t="inlineStr"/>
+      <c r="K1057" t="inlineStr"/>
       <c r="L1057" t="n">
         <v>1</v>
       </c>
@@ -37444,14 +37276,8 @@
         <v>0</v>
       </c>
       <c r="I1058" t="inlineStr"/>
-      <c r="J1058" t="n">
-        <v>190100</v>
-      </c>
-      <c r="K1058" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1058" t="inlineStr"/>
+      <c r="K1058" t="inlineStr"/>
       <c r="L1058" t="n">
         <v>1</v>
       </c>
@@ -37483,14 +37309,8 @@
         <v>0</v>
       </c>
       <c r="I1059" t="inlineStr"/>
-      <c r="J1059" t="n">
-        <v>190100</v>
-      </c>
-      <c r="K1059" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1059" t="inlineStr"/>
+      <c r="K1059" t="inlineStr"/>
       <c r="L1059" t="n">
         <v>1</v>
       </c>
@@ -37522,14 +37342,8 @@
         <v>0</v>
       </c>
       <c r="I1060" t="inlineStr"/>
-      <c r="J1060" t="n">
-        <v>190100</v>
-      </c>
-      <c r="K1060" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1060" t="inlineStr"/>
+      <c r="K1060" t="inlineStr"/>
       <c r="L1060" t="n">
         <v>1</v>
       </c>
@@ -37561,14 +37375,8 @@
         <v>0</v>
       </c>
       <c r="I1061" t="inlineStr"/>
-      <c r="J1061" t="n">
-        <v>190100</v>
-      </c>
-      <c r="K1061" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1061" t="inlineStr"/>
+      <c r="K1061" t="inlineStr"/>
       <c r="L1061" t="n">
         <v>1</v>
       </c>
@@ -37600,14 +37408,8 @@
         <v>0</v>
       </c>
       <c r="I1062" t="inlineStr"/>
-      <c r="J1062" t="n">
-        <v>190100</v>
-      </c>
-      <c r="K1062" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1062" t="inlineStr"/>
+      <c r="K1062" t="inlineStr"/>
       <c r="L1062" t="n">
         <v>1</v>
       </c>
@@ -37639,14 +37441,8 @@
         <v>0</v>
       </c>
       <c r="I1063" t="inlineStr"/>
-      <c r="J1063" t="n">
-        <v>190100</v>
-      </c>
-      <c r="K1063" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1063" t="inlineStr"/>
+      <c r="K1063" t="inlineStr"/>
       <c r="L1063" t="n">
         <v>1</v>
       </c>
@@ -37678,14 +37474,8 @@
         <v>0</v>
       </c>
       <c r="I1064" t="inlineStr"/>
-      <c r="J1064" t="n">
-        <v>190100</v>
-      </c>
-      <c r="K1064" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1064" t="inlineStr"/>
+      <c r="K1064" t="inlineStr"/>
       <c r="L1064" t="n">
         <v>1</v>
       </c>
@@ -37717,14 +37507,8 @@
         <v>0</v>
       </c>
       <c r="I1065" t="inlineStr"/>
-      <c r="J1065" t="n">
-        <v>190100</v>
-      </c>
-      <c r="K1065" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1065" t="inlineStr"/>
+      <c r="K1065" t="inlineStr"/>
       <c r="L1065" t="n">
         <v>1</v>
       </c>
@@ -37756,14 +37540,8 @@
         <v>0</v>
       </c>
       <c r="I1066" t="inlineStr"/>
-      <c r="J1066" t="n">
-        <v>190100</v>
-      </c>
-      <c r="K1066" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1066" t="inlineStr"/>
+      <c r="K1066" t="inlineStr"/>
       <c r="L1066" t="n">
         <v>1</v>
       </c>
@@ -37795,14 +37573,8 @@
         <v>0</v>
       </c>
       <c r="I1067" t="inlineStr"/>
-      <c r="J1067" t="n">
-        <v>190100</v>
-      </c>
-      <c r="K1067" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1067" t="inlineStr"/>
+      <c r="K1067" t="inlineStr"/>
       <c r="L1067" t="n">
         <v>1</v>
       </c>
@@ -37834,14 +37606,8 @@
         <v>0</v>
       </c>
       <c r="I1068" t="inlineStr"/>
-      <c r="J1068" t="n">
-        <v>190100</v>
-      </c>
-      <c r="K1068" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1068" t="inlineStr"/>
+      <c r="K1068" t="inlineStr"/>
       <c r="L1068" t="n">
         <v>1</v>
       </c>
@@ -37873,14 +37639,8 @@
         <v>0</v>
       </c>
       <c r="I1069" t="inlineStr"/>
-      <c r="J1069" t="n">
-        <v>190100</v>
-      </c>
-      <c r="K1069" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1069" t="inlineStr"/>
+      <c r="K1069" t="inlineStr"/>
       <c r="L1069" t="n">
         <v>1</v>
       </c>
@@ -37912,14 +37672,8 @@
         <v>0</v>
       </c>
       <c r="I1070" t="inlineStr"/>
-      <c r="J1070" t="n">
-        <v>190100</v>
-      </c>
-      <c r="K1070" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1070" t="inlineStr"/>
+      <c r="K1070" t="inlineStr"/>
       <c r="L1070" t="n">
         <v>1</v>
       </c>
@@ -37951,14 +37705,8 @@
         <v>0</v>
       </c>
       <c r="I1071" t="inlineStr"/>
-      <c r="J1071" t="n">
-        <v>190100</v>
-      </c>
-      <c r="K1071" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1071" t="inlineStr"/>
+      <c r="K1071" t="inlineStr"/>
       <c r="L1071" t="n">
         <v>1</v>
       </c>
@@ -37990,14 +37738,8 @@
         <v>0</v>
       </c>
       <c r="I1072" t="inlineStr"/>
-      <c r="J1072" t="n">
-        <v>190100</v>
-      </c>
-      <c r="K1072" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1072" t="inlineStr"/>
+      <c r="K1072" t="inlineStr"/>
       <c r="L1072" t="n">
         <v>1</v>
       </c>
@@ -38029,14 +37771,8 @@
         <v>0</v>
       </c>
       <c r="I1073" t="inlineStr"/>
-      <c r="J1073" t="n">
-        <v>190100</v>
-      </c>
-      <c r="K1073" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1073" t="inlineStr"/>
+      <c r="K1073" t="inlineStr"/>
       <c r="L1073" t="n">
         <v>1</v>
       </c>
@@ -38068,14 +37804,8 @@
         <v>0</v>
       </c>
       <c r="I1074" t="inlineStr"/>
-      <c r="J1074" t="n">
-        <v>190100</v>
-      </c>
-      <c r="K1074" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1074" t="inlineStr"/>
+      <c r="K1074" t="inlineStr"/>
       <c r="L1074" t="n">
         <v>1</v>
       </c>
@@ -38107,14 +37837,8 @@
         <v>0</v>
       </c>
       <c r="I1075" t="inlineStr"/>
-      <c r="J1075" t="n">
-        <v>190100</v>
-      </c>
-      <c r="K1075" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1075" t="inlineStr"/>
+      <c r="K1075" t="inlineStr"/>
       <c r="L1075" t="n">
         <v>1</v>
       </c>
@@ -38146,14 +37870,8 @@
         <v>0</v>
       </c>
       <c r="I1076" t="inlineStr"/>
-      <c r="J1076" t="n">
-        <v>190100</v>
-      </c>
-      <c r="K1076" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1076" t="inlineStr"/>
+      <c r="K1076" t="inlineStr"/>
       <c r="L1076" t="n">
         <v>1</v>
       </c>
